--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5_전라선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5_전라선.xlsx
@@ -48,19 +48,22 @@
     <t>NBEATSx</t>
   </si>
   <si>
+    <t>NHITS</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
     <t>TiDE</t>
   </si>
   <si>
     <t>RNN</t>
   </si>
   <si>
-    <t>GRU</t>
-  </si>
-  <si>
     <t>DilatedRNN</t>
-  </si>
-  <si>
-    <t>LSTM</t>
   </si>
   <si>
     <t>TCN</t>
@@ -79,9 +82,6 @@
   </si>
   <si>
     <t>MLP</t>
-  </si>
-  <si>
-    <t>NHITS</t>
   </si>
   <si>
     <t>unique_id</t>
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>63931998965.71094</v>
+        <v>63928793608.8125</v>
       </c>
       <c r="C3">
-        <v>252847.7782495052</v>
+        <v>252841.439658954</v>
       </c>
       <c r="D3">
-        <v>0.03313937053980134</v>
+        <v>0.03313548486241727</v>
       </c>
       <c r="E3">
-        <v>129861.1875</v>
+        <v>129846.4791666667</v>
       </c>
       <c r="F3">
-        <v>0.1232596866638157</v>
+        <v>0.123241007382968</v>
       </c>
       <c r="G3">
-        <v>64307.4375</v>
+        <v>64285.78125</v>
       </c>
       <c r="H3">
-        <v>0.08589954623218736</v>
+        <v>0.08587920198787685</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>60228138506.87533</v>
+        <v>63931848196.06543</v>
       </c>
       <c r="C4">
-        <v>245414.2182247706</v>
+        <v>252847.4801062202</v>
       </c>
       <c r="D4">
-        <v>0.0347466683671465</v>
+        <v>0.03313935253975295</v>
       </c>
       <c r="E4">
-        <v>139652.3697916667</v>
+        <v>129861.2552083333</v>
       </c>
       <c r="F4">
-        <v>0.1395794063799054</v>
+        <v>0.1232598527791571</v>
       </c>
       <c r="G4">
-        <v>90548.75</v>
+        <v>64311.28125</v>
       </c>
       <c r="H4">
-        <v>0.1187069226654903</v>
+        <v>0.08590318241411544</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>115299021457.2725</v>
+        <v>57245335762.97005</v>
       </c>
       <c r="C5">
-        <v>339557.0960196127</v>
+        <v>239259.975263248</v>
       </c>
       <c r="D5">
-        <v>0.1018594803740753</v>
+        <v>0.03535106559321552</v>
       </c>
       <c r="E5">
-        <v>269631.5260416667</v>
+        <v>133592</v>
       </c>
       <c r="F5">
-        <v>0.3035641276331609</v>
+        <v>0.1331180643274791</v>
       </c>
       <c r="G5">
-        <v>204788.5625</v>
+        <v>67458.375</v>
       </c>
       <c r="H5">
-        <v>0.272469165566101</v>
+        <v>0.08946226472225433</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>121066670568.3742</v>
+        <v>57115709899.7181</v>
       </c>
       <c r="C6">
-        <v>347946.3616254295</v>
+        <v>238988.9325883483</v>
       </c>
       <c r="D6">
-        <v>0.1121065338391974</v>
+        <v>0.03289024100279073</v>
       </c>
       <c r="E6">
-        <v>283128.9427083333</v>
+        <v>137523.375</v>
       </c>
       <c r="F6">
-        <v>0.321969437548335</v>
+        <v>0.137733330724871</v>
       </c>
       <c r="G6">
-        <v>223538.5</v>
+        <v>76112.5625</v>
       </c>
       <c r="H6">
-        <v>0.2990860737028457</v>
+        <v>0.1001647846445857</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>131733889212.2856</v>
+        <v>59673488831.53873</v>
       </c>
       <c r="C7">
-        <v>362951.6348114245</v>
+        <v>244281.5769384559</v>
       </c>
       <c r="D7">
-        <v>0.1276266416896776</v>
+        <v>0.03447705915044967</v>
       </c>
       <c r="E7">
-        <v>301783.984375</v>
+        <v>139445.0260416667</v>
       </c>
       <c r="F7">
-        <v>0.3462108043216693</v>
+        <v>0.1394307825151789</v>
       </c>
       <c r="G7">
-        <v>247157.359375</v>
+        <v>88542.46875</v>
       </c>
       <c r="H7">
-        <v>0.3256383013220503</v>
+        <v>0.1213973479881464</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>148231972406.9243</v>
+        <v>53834619954.36068</v>
       </c>
       <c r="C8">
-        <v>385009.054967444</v>
+        <v>232022.886703792</v>
       </c>
       <c r="D8">
-        <v>0.14773102335678</v>
+        <v>0.03712632324713743</v>
       </c>
       <c r="E8">
-        <v>324466.8385416667</v>
+        <v>148223.2291666667</v>
       </c>
       <c r="F8">
-        <v>0.3743448719440245</v>
+        <v>0.1551399226047037</v>
       </c>
       <c r="G8">
-        <v>258369.125</v>
+        <v>87796.59375</v>
       </c>
       <c r="H8">
-        <v>0.3441859056920683</v>
+        <v>0.1154357091657458</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>152221109895.9287</v>
+        <v>63547754401.9235</v>
       </c>
       <c r="C9">
-        <v>390155.2382013199</v>
+        <v>252086.7993408689</v>
       </c>
       <c r="D9">
-        <v>0.1658635039274985</v>
+        <v>0.03925112353325613</v>
       </c>
       <c r="E9">
-        <v>341515.0677083333</v>
+        <v>150041.109375</v>
       </c>
       <c r="F9">
-        <v>0.4001180985303309</v>
+        <v>0.1520776023097083</v>
       </c>
       <c r="G9">
-        <v>282062.96875</v>
+        <v>97832.5</v>
       </c>
       <c r="H9">
-        <v>0.3953228269042073</v>
+        <v>0.1260880804342034</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>167190507483.1929</v>
+        <v>80307528016.13216</v>
       </c>
       <c r="C10">
-        <v>408889.3584861226</v>
+        <v>283385.8288908112</v>
       </c>
       <c r="D10">
-        <v>0.1832940338176182</v>
+        <v>0.07212541300613727</v>
       </c>
       <c r="E10">
-        <v>357740.9010416667</v>
+        <v>202645.1458333333</v>
       </c>
       <c r="F10">
-        <v>0.4178868591676907</v>
+        <v>0.2219296466788718</v>
       </c>
       <c r="G10">
-        <v>322197.21875</v>
+        <v>142288.21875</v>
       </c>
       <c r="H10">
-        <v>0.4270003877771378</v>
+        <v>0.1754875343742505</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>166599338743.9379</v>
+        <v>152767657101.0889</v>
       </c>
       <c r="C11">
-        <v>408165.8226063739</v>
+        <v>390855.0333577513</v>
       </c>
       <c r="D11">
-        <v>0.1844238425127722</v>
+        <v>0.1607099620055015</v>
       </c>
       <c r="E11">
-        <v>358845.7693071188</v>
+        <v>335107.1666666667</v>
       </c>
       <c r="F11">
-        <v>0.4201188536444339</v>
+        <v>0.3895596468081459</v>
       </c>
       <c r="G11">
-        <v>316373.4927837303</v>
+        <v>278532.09375</v>
       </c>
       <c r="H11">
-        <v>0.4290177723764822</v>
+        <v>0.3646561972088202</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>184774717280.4004</v>
+        <v>158558017821.3097</v>
       </c>
       <c r="C12">
-        <v>429854.2977340117</v>
+        <v>398193.4427151076</v>
       </c>
       <c r="D12">
-        <v>0.1967846480459722</v>
+        <v>0.169647489510369</v>
       </c>
       <c r="E12">
-        <v>373204.6027220494</v>
+        <v>344631.3928874074</v>
       </c>
       <c r="F12">
-        <v>0.4344301457002696</v>
+        <v>0.4014875270101467</v>
       </c>
       <c r="G12">
-        <v>318070.5561812702</v>
+        <v>295322.384801201</v>
       </c>
       <c r="H12">
-        <v>0.4213059229647734</v>
+        <v>0.3822926943566968</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>173559099799.0622</v>
+        <v>170134484265.5008</v>
       </c>
       <c r="C13">
-        <v>416604.2484169625</v>
+        <v>412473.6164477685</v>
       </c>
       <c r="D13">
-        <v>0.1946927206731588</v>
+        <v>0.1741878597570409</v>
       </c>
       <c r="E13">
-        <v>367440.6142221214</v>
+        <v>351140.1812028757</v>
       </c>
       <c r="F13">
-        <v>0.4308551832441714</v>
+        <v>0.406052751715139</v>
       </c>
       <c r="G13">
-        <v>321205.2579166008</v>
+        <v>295022.115325074</v>
       </c>
       <c r="H13">
-        <v>0.4273443211165273</v>
+        <v>0.394935411050853</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>1986935759604.775</v>
+        <v>163232578769.4131</v>
       </c>
       <c r="C14">
-        <v>1409587.08833643</v>
+        <v>404020.5177579637</v>
       </c>
       <c r="D14">
-        <v>2.524812673720625</v>
+        <v>0.1777179473584294</v>
       </c>
       <c r="E14">
-        <v>1136477.301432292</v>
+        <v>351377.4869545912</v>
       </c>
       <c r="F14">
-        <v>1.349723716394707</v>
+        <v>0.4102234066648532</v>
       </c>
       <c r="G14">
-        <v>892042.5078125</v>
+        <v>301458.3214529657</v>
       </c>
       <c r="H14">
-        <v>1.220421455358113</v>
+        <v>0.3953490915142098</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>5297074679007.347</v>
+        <v>707124302159.6454</v>
       </c>
       <c r="C15">
-        <v>2301537.459831438</v>
+        <v>840906.8332221147</v>
       </c>
       <c r="D15">
-        <v>8.454660007621078</v>
+        <v>1.11306043165465</v>
       </c>
       <c r="E15">
-        <v>1803033.072916667</v>
+        <v>768546.173828125</v>
       </c>
       <c r="F15">
-        <v>2.223455501162184</v>
+        <v>0.9619818239045124</v>
       </c>
       <c r="G15">
-        <v>1551264.125</v>
+        <v>739335.58984375</v>
       </c>
       <c r="H15">
-        <v>1.952855830356954</v>
+        <v>0.8856371313336685</v>
       </c>
     </row>
   </sheetData>
@@ -927,43 +927,43 @@
         <v>717939.5</v>
       </c>
       <c r="E2">
-        <v>694807.9375</v>
+        <v>694813.625</v>
       </c>
       <c r="F2">
-        <v>751250.75</v>
+        <v>694810.125</v>
       </c>
       <c r="G2">
-        <v>535195.125</v>
+        <v>704050.5625</v>
       </c>
       <c r="H2">
-        <v>527855.4375</v>
+        <v>669779.75</v>
       </c>
       <c r="I2">
-        <v>544483.875</v>
+        <v>751076</v>
       </c>
       <c r="J2">
-        <v>481322</v>
+        <v>635888.9375</v>
       </c>
       <c r="K2">
-        <v>441622.71875</v>
+        <v>673750.125</v>
       </c>
       <c r="L2">
-        <v>472336.53125</v>
+        <v>652748.5625</v>
       </c>
       <c r="M2">
-        <v>473191.3828968254</v>
+        <v>493747.96875</v>
       </c>
       <c r="N2">
-        <v>445197.1415961621</v>
+        <v>496624.248579365</v>
       </c>
       <c r="O2">
-        <v>473041.252252763</v>
+        <v>491361.914264543</v>
       </c>
       <c r="P2">
-        <v>448075.40625</v>
+        <v>493678.244587497</v>
       </c>
       <c r="Q2">
-        <v>2232289.25</v>
+        <v>311260.625</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -980,43 +980,43 @@
         <v>737984.625</v>
       </c>
       <c r="E3">
-        <v>694806.3125</v>
+        <v>694814.3125</v>
       </c>
       <c r="F3">
-        <v>737540.125</v>
+        <v>694807.75</v>
       </c>
       <c r="G3">
-        <v>590287.1875</v>
+        <v>771529.125</v>
       </c>
       <c r="H3">
-        <v>588427.25</v>
+        <v>758223.5625</v>
       </c>
       <c r="I3">
-        <v>571207.5625</v>
+        <v>741780.3125</v>
       </c>
       <c r="J3">
-        <v>528663.75</v>
+        <v>819874.625</v>
       </c>
       <c r="K3">
-        <v>577427.375</v>
+        <v>732205.875</v>
       </c>
       <c r="L3">
-        <v>553533.125</v>
+        <v>761527.875</v>
       </c>
       <c r="M3">
-        <v>560820.0166666667</v>
+        <v>553531.125</v>
       </c>
       <c r="N3">
-        <v>470728.6323710653</v>
+        <v>551996.4726666666</v>
       </c>
       <c r="O3">
-        <v>555771.9694456835</v>
+        <v>482262.5454933653</v>
       </c>
       <c r="P3">
-        <v>-1464261</v>
+        <v>553959.7513882548</v>
       </c>
       <c r="Q3">
-        <v>4392044</v>
+        <v>175282.96875</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1033,43 +1033,43 @@
         <v>714080.375</v>
       </c>
       <c r="E4">
-        <v>694803.5</v>
+        <v>694809.6875</v>
       </c>
       <c r="F4">
-        <v>746315.8125</v>
+        <v>694802.625</v>
       </c>
       <c r="G4">
-        <v>521758.5</v>
+        <v>659197.375</v>
       </c>
       <c r="H4">
-        <v>497180.9375</v>
+        <v>652487.4375</v>
       </c>
       <c r="I4">
-        <v>480201.75</v>
+        <v>736698.1875</v>
       </c>
       <c r="J4">
-        <v>448134.03125</v>
+        <v>636117.125</v>
       </c>
       <c r="K4">
-        <v>405392.625</v>
+        <v>634820.875</v>
       </c>
       <c r="L4">
-        <v>451951.65625</v>
+        <v>657557</v>
       </c>
       <c r="M4">
-        <v>460553.2228636364</v>
+        <v>452017.28125</v>
       </c>
       <c r="N4">
-        <v>435330.5223886665</v>
+        <v>455312.8075753968</v>
       </c>
       <c r="O4">
-        <v>444511.8818542698</v>
+        <v>449044.7999104408</v>
       </c>
       <c r="P4">
-        <v>1277843.375</v>
+        <v>457114.5064628696</v>
       </c>
       <c r="Q4">
-        <v>-260770.1875</v>
+        <v>-284044.75</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1086,43 +1086,43 @@
         <v>720170.75</v>
       </c>
       <c r="E5">
-        <v>694808.5625</v>
+        <v>694811.25</v>
       </c>
       <c r="F5">
-        <v>744248.625</v>
+        <v>694809.5</v>
       </c>
       <c r="G5">
-        <v>513403.625</v>
+        <v>648255.4375</v>
       </c>
       <c r="H5">
-        <v>482055.8125</v>
+        <v>677386.25</v>
       </c>
       <c r="I5">
-        <v>446405.6875</v>
+        <v>737030.8125</v>
       </c>
       <c r="J5">
-        <v>419956.375</v>
+        <v>673453.6875</v>
       </c>
       <c r="K5">
-        <v>387988.875</v>
+        <v>630498.4375</v>
       </c>
       <c r="L5">
-        <v>449916.3125</v>
+        <v>624115.625</v>
       </c>
       <c r="M5">
-        <v>434752.4293318902</v>
+        <v>437023.09375</v>
       </c>
       <c r="N5">
-        <v>462359.0254644399</v>
+        <v>441053.5580411255</v>
       </c>
       <c r="O5">
-        <v>435807.8171632701</v>
+        <v>462160.71702849</v>
       </c>
       <c r="P5">
-        <v>-969549.1875</v>
+        <v>437092.3253346045</v>
       </c>
       <c r="Q5">
-        <v>680931.125</v>
+        <v>-442144.09375</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1139,43 +1139,43 @@
         <v>714426.8125</v>
       </c>
       <c r="E6">
-        <v>694811.875</v>
+        <v>694812.0625</v>
       </c>
       <c r="F6">
-        <v>704802.0625</v>
+        <v>694805.5</v>
       </c>
       <c r="G6">
-        <v>530955.9375</v>
+        <v>653414.375</v>
       </c>
       <c r="H6">
-        <v>530265.125</v>
+        <v>657055.25</v>
       </c>
       <c r="I6">
-        <v>499651.3125</v>
+        <v>696000.1875</v>
       </c>
       <c r="J6">
-        <v>498009.1875</v>
+        <v>690968.875</v>
       </c>
       <c r="K6">
-        <v>463516.65625</v>
+        <v>682629.625</v>
       </c>
       <c r="L6">
-        <v>408662.28125</v>
+        <v>672910.5625</v>
       </c>
       <c r="M6">
-        <v>414486.0072162697</v>
+        <v>429133.1875</v>
       </c>
       <c r="N6">
-        <v>419837.1449658123</v>
+        <v>434991.4441573384</v>
       </c>
       <c r="O6">
-        <v>409654.2420833992</v>
+        <v>437900.9862969335</v>
       </c>
       <c r="P6">
-        <v>1577861.5</v>
+        <v>429401.1785470343</v>
       </c>
       <c r="Q6">
-        <v>2894771.25</v>
+        <v>-470379.75</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1192,43 +1192,43 @@
         <v>721942.5625</v>
       </c>
       <c r="E7">
-        <v>694811.625</v>
+        <v>694820.3125</v>
       </c>
       <c r="F7">
-        <v>650458.375</v>
+        <v>694808.4375</v>
       </c>
       <c r="G7">
-        <v>552282.375</v>
+        <v>662423.625</v>
       </c>
       <c r="H7">
-        <v>543988.875</v>
+        <v>671315</v>
       </c>
       <c r="I7">
-        <v>499474.53125</v>
+        <v>645122.4375</v>
       </c>
       <c r="J7">
-        <v>497561</v>
+        <v>630404.6875</v>
       </c>
       <c r="K7">
-        <v>478762.8125</v>
+        <v>651786.4375</v>
       </c>
       <c r="L7">
-        <v>551735.625</v>
+        <v>630329</v>
       </c>
       <c r="M7">
-        <v>546895.3955</v>
+        <v>551745.1875</v>
       </c>
       <c r="N7">
-        <v>441803.5501591565</v>
+        <v>540086.8686666667</v>
       </c>
       <c r="O7">
-        <v>542734.1137637416</v>
+        <v>494718.0290992705</v>
       </c>
       <c r="P7">
-        <v>2162833.25</v>
+        <v>551387.3328922144</v>
       </c>
       <c r="Q7">
-        <v>2349409</v>
+        <v>231067.328125</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1245,43 +1245,43 @@
         <v>760817.8125</v>
       </c>
       <c r="E8">
-        <v>694810.9375</v>
+        <v>694818.3125</v>
       </c>
       <c r="F8">
-        <v>698638.1875</v>
+        <v>694804.625</v>
       </c>
       <c r="G8">
-        <v>557154.3125</v>
+        <v>781775.875</v>
       </c>
       <c r="H8">
-        <v>549530.8125</v>
+        <v>745812.5625</v>
       </c>
       <c r="I8">
-        <v>542227.0625</v>
+        <v>700702.9375</v>
       </c>
       <c r="J8">
-        <v>508599.25</v>
+        <v>736775.0625</v>
       </c>
       <c r="K8">
-        <v>480912.96875</v>
+        <v>727972.625</v>
       </c>
       <c r="L8">
-        <v>419192.78125</v>
+        <v>677565.3125</v>
       </c>
       <c r="M8">
-        <v>450907.0640396825</v>
+        <v>565132.125</v>
       </c>
       <c r="N8">
-        <v>502464.4269263567</v>
+        <v>544470.7862402597</v>
       </c>
       <c r="O8">
-        <v>410186.4650303657</v>
+        <v>545172.7830529185</v>
       </c>
       <c r="P8">
-        <v>72101.4296875</v>
+        <v>521737.7054591745</v>
       </c>
       <c r="Q8">
-        <v>3325406.25</v>
+        <v>107348.53125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1298,43 +1298,43 @@
         <v>770357.0625</v>
       </c>
       <c r="E9">
-        <v>694807.3125</v>
+        <v>694814.5625</v>
       </c>
       <c r="F9">
-        <v>859401.875</v>
+        <v>694813.9375</v>
       </c>
       <c r="G9">
-        <v>562598.9375</v>
+        <v>724561.5</v>
       </c>
       <c r="H9">
-        <v>541170.8125</v>
+        <v>696169.875</v>
       </c>
       <c r="I9">
-        <v>504473.125</v>
+        <v>859613.25</v>
       </c>
       <c r="J9">
-        <v>520916.4375</v>
+        <v>695533.875</v>
       </c>
       <c r="K9">
-        <v>469732.1875</v>
+        <v>661025.25</v>
       </c>
       <c r="L9">
-        <v>418804.34375</v>
+        <v>652389.25</v>
       </c>
       <c r="M9">
-        <v>423202.3490357144</v>
+        <v>492334.6875</v>
       </c>
       <c r="N9">
-        <v>411996.4639868118</v>
+        <v>494450.4419336218</v>
       </c>
       <c r="O9">
-        <v>416753.2129336395</v>
+        <v>471798.3713042433</v>
       </c>
       <c r="P9">
-        <v>843094.6875</v>
+        <v>491975.3260207969</v>
       </c>
       <c r="Q9">
-        <v>-2645863.5</v>
+        <v>885428</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1351,43 +1351,43 @@
         <v>768675.75</v>
       </c>
       <c r="E10">
-        <v>694808.4375</v>
+        <v>694842.5</v>
       </c>
       <c r="F10">
-        <v>939623.875</v>
+        <v>694815.0625</v>
       </c>
       <c r="G10">
-        <v>562392.0625</v>
+        <v>748613.25</v>
       </c>
       <c r="H10">
-        <v>565701.4375</v>
+        <v>715983.3125</v>
       </c>
       <c r="I10">
-        <v>537466.9375</v>
+        <v>939432.5</v>
       </c>
       <c r="J10">
-        <v>528046.9375</v>
+        <v>727935.125</v>
       </c>
       <c r="K10">
-        <v>480831.625</v>
+        <v>704419.5625</v>
       </c>
       <c r="L10">
-        <v>472032.0625</v>
+        <v>627258.1875</v>
       </c>
       <c r="M10">
-        <v>462345.044857143</v>
+        <v>427604.25</v>
       </c>
       <c r="N10">
-        <v>450135.7426716472</v>
+        <v>430962.249892857</v>
       </c>
       <c r="O10">
-        <v>470381.5633469126</v>
+        <v>449035.8320309925</v>
       </c>
       <c r="P10">
-        <v>3154468.5</v>
+        <v>428480.4757229878</v>
       </c>
       <c r="Q10">
-        <v>1583696.75</v>
+        <v>306697.15625</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1404,43 +1404,43 @@
         <v>766095</v>
       </c>
       <c r="E11">
-        <v>694809.0625</v>
+        <v>694846.6875</v>
       </c>
       <c r="F11">
-        <v>649736.3125</v>
+        <v>694816.0625</v>
       </c>
       <c r="G11">
-        <v>542601.25</v>
+        <v>655701.4375</v>
       </c>
       <c r="H11">
-        <v>518495.15625</v>
+        <v>672732.625</v>
       </c>
       <c r="I11">
-        <v>509832.71875</v>
+        <v>643840.875</v>
       </c>
       <c r="J11">
-        <v>481039.8125</v>
+        <v>658697.125</v>
       </c>
       <c r="K11">
-        <v>483879.5625</v>
+        <v>684245.4375</v>
       </c>
       <c r="L11">
-        <v>408662.28125</v>
+        <v>549850.5</v>
       </c>
       <c r="M11">
-        <v>414486.0072162697</v>
+        <v>429133.1875</v>
       </c>
       <c r="N11">
-        <v>419837.1449658123</v>
+        <v>434991.4441573384</v>
       </c>
       <c r="O11">
-        <v>409654.2420833992</v>
+        <v>437900.9862969335</v>
       </c>
       <c r="P11">
-        <v>-203212.515625</v>
+        <v>429401.1785470343</v>
       </c>
       <c r="Q11">
-        <v>5853462.5</v>
+        <v>-132060.0625</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1457,43 +1457,43 @@
         <v>771294.875</v>
       </c>
       <c r="E12">
-        <v>694818.5</v>
+        <v>694853.125</v>
       </c>
       <c r="F12">
-        <v>676091</v>
+        <v>694814</v>
       </c>
       <c r="G12">
-        <v>559149.5</v>
+        <v>663399.8125</v>
       </c>
       <c r="H12">
-        <v>540551.0625</v>
+        <v>692679.0625</v>
       </c>
       <c r="I12">
-        <v>524455.75</v>
+        <v>678152.3125</v>
       </c>
       <c r="J12">
-        <v>508436.3125</v>
+        <v>630394.625</v>
       </c>
       <c r="K12">
-        <v>533890.4375</v>
+        <v>662911.8125</v>
       </c>
       <c r="L12">
-        <v>431627.125</v>
+        <v>415522.8125</v>
       </c>
       <c r="M12">
-        <v>393243.8038333333</v>
+        <v>523084.65625</v>
       </c>
       <c r="N12">
-        <v>415096.2291678288</v>
+        <v>411897.713547619</v>
       </c>
       <c r="O12">
-        <v>355211.3060301868</v>
+        <v>419302.0287563673</v>
       </c>
       <c r="P12">
-        <v>2176435</v>
+        <v>364138.6558594496</v>
       </c>
       <c r="Q12">
-        <v>391480.3125</v>
+        <v>27046.2890625</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1510,43 +1510,43 @@
         <v>796333.625</v>
       </c>
       <c r="E13">
-        <v>694815.8125</v>
+        <v>694845.3125</v>
       </c>
       <c r="F13">
-        <v>703281.4375</v>
+        <v>694813.3125</v>
       </c>
       <c r="G13">
-        <v>540019.875</v>
+        <v>527350.625</v>
       </c>
       <c r="H13">
-        <v>520606.96875</v>
+        <v>601304.3125</v>
       </c>
       <c r="I13">
-        <v>522088.875</v>
+        <v>700446.375</v>
       </c>
       <c r="J13">
-        <v>489089.84375</v>
+        <v>538621.875</v>
       </c>
       <c r="K13">
-        <v>501238.34375</v>
+        <v>556617.625</v>
       </c>
       <c r="L13">
-        <v>472032.0625</v>
+        <v>449860.5625</v>
       </c>
       <c r="M13">
-        <v>462345.044857143</v>
+        <v>427604.25</v>
       </c>
       <c r="N13">
-        <v>450135.7426716472</v>
+        <v>430962.249892857</v>
       </c>
       <c r="O13">
-        <v>470381.5633469126</v>
+        <v>449035.8320309925</v>
       </c>
       <c r="P13">
-        <v>395407.5625</v>
+        <v>428480.4757229878</v>
       </c>
       <c r="Q13">
-        <v>452061.625</v>
+        <v>88620.671875</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1563,43 +1563,43 @@
         <v>816603.6875</v>
       </c>
       <c r="E14">
-        <v>694815.1875</v>
+        <v>694855.1875</v>
       </c>
       <c r="F14">
-        <v>705598.9375</v>
+        <v>694812.875</v>
       </c>
       <c r="G14">
-        <v>556530.5625</v>
+        <v>516568.25</v>
       </c>
       <c r="H14">
-        <v>520562.28125</v>
+        <v>617691.0625</v>
       </c>
       <c r="I14">
-        <v>491294.21875</v>
+        <v>707956.3125</v>
       </c>
       <c r="J14">
-        <v>494077</v>
+        <v>619224.25</v>
       </c>
       <c r="K14">
-        <v>496665.5625</v>
+        <v>630792.625</v>
       </c>
       <c r="L14">
-        <v>247224.734375</v>
+        <v>313587.40625</v>
       </c>
       <c r="M14">
-        <v>264257.0426706349</v>
+        <v>387820.96875</v>
       </c>
       <c r="N14">
-        <v>390932.0555316973</v>
+        <v>388428.5457609612</v>
       </c>
       <c r="O14">
-        <v>255661.6901101085</v>
+        <v>406302.856219608</v>
       </c>
       <c r="P14">
-        <v>2782178</v>
+        <v>387503.0820096064</v>
       </c>
       <c r="Q14">
-        <v>2136842</v>
+        <v>375178.4375</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1616,43 +1616,43 @@
         <v>841476.3125</v>
       </c>
       <c r="E15">
-        <v>694810.9375</v>
+        <v>694849.1875</v>
       </c>
       <c r="F15">
-        <v>727803.8125</v>
+        <v>694811.125</v>
       </c>
       <c r="G15">
-        <v>626298.5</v>
+        <v>661656.875</v>
       </c>
       <c r="H15">
-        <v>582578.125</v>
+        <v>732936.5</v>
       </c>
       <c r="I15">
-        <v>586984.5</v>
+        <v>721222.5625</v>
       </c>
       <c r="J15">
-        <v>567466.125</v>
+        <v>705831.75</v>
       </c>
       <c r="K15">
-        <v>572983.625</v>
+        <v>712879.5</v>
       </c>
       <c r="L15">
-        <v>519517.0625</v>
+        <v>460447.5</v>
       </c>
       <c r="M15">
-        <v>503713.8057380952</v>
+        <v>576451.9375</v>
       </c>
       <c r="N15">
-        <v>502464.4269263567</v>
+        <v>576134.3582142857</v>
       </c>
       <c r="O15">
-        <v>498397.3541183123</v>
+        <v>545172.7830529185</v>
       </c>
       <c r="P15">
-        <v>434721.3125</v>
+        <v>542712.8618883115</v>
       </c>
       <c r="Q15">
-        <v>4104500</v>
+        <v>-475626.53125</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1669,43 +1669,43 @@
         <v>844972.1875</v>
       </c>
       <c r="E16">
-        <v>694810.9375</v>
+        <v>694848.5</v>
       </c>
       <c r="F16">
-        <v>757315.875</v>
+        <v>694808.25</v>
       </c>
       <c r="G16">
-        <v>549188.5625</v>
+        <v>533936.25</v>
       </c>
       <c r="H16">
-        <v>535085.6875</v>
+        <v>617174.9375</v>
       </c>
       <c r="I16">
-        <v>510188.625</v>
+        <v>758327.0625</v>
       </c>
       <c r="J16">
-        <v>494251.3125</v>
+        <v>582425.4375</v>
       </c>
       <c r="K16">
-        <v>519711.28125</v>
+        <v>610147.8125</v>
       </c>
       <c r="L16">
-        <v>544059.8125</v>
+        <v>345065.125</v>
       </c>
       <c r="M16">
-        <v>535679.5541706347</v>
+        <v>544047.6875</v>
       </c>
       <c r="N16">
-        <v>430302.0488247027</v>
+        <v>535512.1016825394</v>
       </c>
       <c r="O16">
-        <v>541022.9322509236</v>
+        <v>471954.4039974385</v>
       </c>
       <c r="P16">
-        <v>1416685.375</v>
+        <v>542759.1135964745</v>
       </c>
       <c r="Q16">
-        <v>3627674.25</v>
+        <v>-657460.5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1722,43 +1722,43 @@
         <v>864543.5</v>
       </c>
       <c r="E17">
-        <v>694810.375</v>
+        <v>694846.8125</v>
       </c>
       <c r="F17">
-        <v>743923</v>
+        <v>694805.4375</v>
       </c>
       <c r="G17">
-        <v>537147.6875</v>
+        <v>483952.90625</v>
       </c>
       <c r="H17">
-        <v>527579.0625</v>
+        <v>675925.9375</v>
       </c>
       <c r="I17">
-        <v>488315.4375</v>
+        <v>741033</v>
       </c>
       <c r="J17">
-        <v>514334.6875</v>
+        <v>585146.8125</v>
       </c>
       <c r="K17">
-        <v>478556.8125</v>
+        <v>616291.9375</v>
       </c>
       <c r="L17">
-        <v>563626.375</v>
+        <v>410338.96875</v>
       </c>
       <c r="M17">
-        <v>517459.1268412698</v>
+        <v>563636.5</v>
       </c>
       <c r="N17">
-        <v>440901.5534209268</v>
+        <v>529777.4310091576</v>
       </c>
       <c r="O17">
-        <v>555254.2583367458</v>
+        <v>478196.4444485664</v>
       </c>
       <c r="P17">
-        <v>1282534.5</v>
+        <v>560431.7343839569</v>
       </c>
       <c r="Q17">
-        <v>4012810.25</v>
+        <v>236113.703125</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1775,43 +1775,43 @@
         <v>854875.1875</v>
       </c>
       <c r="E18">
-        <v>694811.3125</v>
+        <v>694850.375</v>
       </c>
       <c r="F18">
-        <v>586153.875</v>
+        <v>694845.875</v>
       </c>
       <c r="G18">
-        <v>579749.4375</v>
+        <v>619613.25</v>
       </c>
       <c r="H18">
-        <v>576978.6875</v>
+        <v>646279.75</v>
       </c>
       <c r="I18">
-        <v>580186.75</v>
+        <v>591369</v>
       </c>
       <c r="J18">
-        <v>552166.125</v>
+        <v>606838.875</v>
       </c>
       <c r="K18">
-        <v>556697.9375</v>
+        <v>653687.875</v>
       </c>
       <c r="L18">
-        <v>439900.78125</v>
+        <v>390718.71875</v>
       </c>
       <c r="M18">
-        <v>440650.3237417027</v>
+        <v>472471.90625</v>
       </c>
       <c r="N18">
-        <v>447463.9326929805</v>
+        <v>470436.3989838216</v>
       </c>
       <c r="O18">
-        <v>439858.7359338688</v>
+        <v>449035.8320309925</v>
       </c>
       <c r="P18">
-        <v>104649.171875</v>
+        <v>472195.779416068</v>
       </c>
       <c r="Q18">
-        <v>-6231520.5</v>
+        <v>768247.0625</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1828,43 +1828,43 @@
         <v>852564.0625</v>
       </c>
       <c r="E19">
-        <v>694808.4375</v>
+        <v>694844.375</v>
       </c>
       <c r="F19">
-        <v>573784.75</v>
+        <v>694847.3125</v>
       </c>
       <c r="G19">
-        <v>503947.125</v>
+        <v>465273.9375</v>
       </c>
       <c r="H19">
-        <v>532795.75</v>
+        <v>593338.5</v>
       </c>
       <c r="I19">
-        <v>513893.875</v>
+        <v>572104.4375</v>
       </c>
       <c r="J19">
-        <v>513116.4375</v>
+        <v>537618.6875</v>
       </c>
       <c r="K19">
-        <v>525097.875</v>
+        <v>553180.3125</v>
       </c>
       <c r="L19">
-        <v>450120.75</v>
+        <v>344557.09375</v>
       </c>
       <c r="M19">
-        <v>469440.278</v>
+        <v>523996.625</v>
       </c>
       <c r="N19">
-        <v>446832.0237231202</v>
+        <v>514930.9983333333</v>
       </c>
       <c r="O19">
-        <v>451309.297253991</v>
+        <v>482212.266315921</v>
       </c>
       <c r="P19">
-        <v>-533458.3125</v>
+        <v>523691.3962580613</v>
       </c>
       <c r="Q19">
-        <v>-2475955.5</v>
+        <v>-184260.609375</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1881,43 +1881,43 @@
         <v>865379.625</v>
       </c>
       <c r="E20">
-        <v>694812.125</v>
+        <v>694849</v>
       </c>
       <c r="F20">
-        <v>828256.625</v>
+        <v>694838.375</v>
       </c>
       <c r="G20">
-        <v>542859.3125</v>
+        <v>539551</v>
       </c>
       <c r="H20">
-        <v>564634.875</v>
+        <v>637298</v>
       </c>
       <c r="I20">
-        <v>540571.3125</v>
+        <v>834012.75</v>
       </c>
       <c r="J20">
-        <v>538387.3125</v>
+        <v>566741.8125</v>
       </c>
       <c r="K20">
-        <v>560980.25</v>
+        <v>601438.0625</v>
       </c>
       <c r="L20">
-        <v>600814.5625</v>
+        <v>470844.40625</v>
       </c>
       <c r="M20">
-        <v>573387.4349642857</v>
+        <v>600816.75</v>
       </c>
       <c r="N20">
-        <v>470728.6323710653</v>
+        <v>583478.4977619047</v>
       </c>
       <c r="O20">
-        <v>593465.329986565</v>
+        <v>482262.5454933653</v>
       </c>
       <c r="P20">
-        <v>2687445.5</v>
+        <v>599070.5645222331</v>
       </c>
       <c r="Q20">
-        <v>5221268.5</v>
+        <v>298242.25</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1934,43 +1934,43 @@
         <v>873475</v>
       </c>
       <c r="E21">
-        <v>694809.9375</v>
+        <v>694847.1875</v>
       </c>
       <c r="F21">
-        <v>614323.9375</v>
+        <v>694837.9375</v>
       </c>
       <c r="G21">
-        <v>559348.5625</v>
+        <v>413590.40625</v>
       </c>
       <c r="H21">
-        <v>555225.375</v>
+        <v>555174.6875</v>
       </c>
       <c r="I21">
-        <v>572271.9375</v>
+        <v>600783.5625</v>
       </c>
       <c r="J21">
-        <v>533011.1875</v>
+        <v>466413.0625</v>
       </c>
       <c r="K21">
-        <v>552031.4375</v>
+        <v>475062.875</v>
       </c>
       <c r="L21">
-        <v>472336.53125</v>
+        <v>357617.15625</v>
       </c>
       <c r="M21">
-        <v>473191.3828968254</v>
+        <v>493747.96875</v>
       </c>
       <c r="N21">
-        <v>445197.1415961621</v>
+        <v>496624.248579365</v>
       </c>
       <c r="O21">
-        <v>473041.252252763</v>
+        <v>491361.914264543</v>
       </c>
       <c r="P21">
-        <v>2465210.5</v>
+        <v>493678.244587497</v>
       </c>
       <c r="Q21">
-        <v>17053166</v>
+        <v>486632.4375</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1987,43 +1987,43 @@
         <v>901319.5</v>
       </c>
       <c r="E22">
-        <v>694810.5</v>
+        <v>694847.125</v>
       </c>
       <c r="F22">
-        <v>931582.8125</v>
+        <v>694854.0625</v>
       </c>
       <c r="G22">
-        <v>564375.6875</v>
+        <v>492722.65625</v>
       </c>
       <c r="H22">
-        <v>577028.375</v>
+        <v>629524.125</v>
       </c>
       <c r="I22">
-        <v>546474.75</v>
+        <v>932665</v>
       </c>
       <c r="J22">
-        <v>564078.5</v>
+        <v>529807.9375</v>
       </c>
       <c r="K22">
-        <v>560109.6875</v>
+        <v>568141.0625</v>
       </c>
       <c r="L22">
-        <v>448792.25</v>
+        <v>454997.6875</v>
       </c>
       <c r="M22">
-        <v>454329.0426785714</v>
+        <v>463018.625</v>
       </c>
       <c r="N22">
-        <v>451572.9395211037</v>
+        <v>471899.9339711398</v>
       </c>
       <c r="O22">
-        <v>448558.0429595842</v>
+        <v>474667.9405442185</v>
       </c>
       <c r="P22">
-        <v>-3546851</v>
+        <v>462884.0115643523</v>
       </c>
       <c r="Q22">
-        <v>18368862</v>
+        <v>57563.81640625</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2040,43 +2040,43 @@
         <v>903129.3125</v>
       </c>
       <c r="E23">
-        <v>694810.4375</v>
+        <v>694847.25</v>
       </c>
       <c r="F23">
-        <v>642137.9375</v>
+        <v>694848.75</v>
       </c>
       <c r="G23">
-        <v>550585</v>
+        <v>475753.5625</v>
       </c>
       <c r="H23">
-        <v>601022.5</v>
+        <v>606142.25</v>
       </c>
       <c r="I23">
-        <v>580519.25</v>
+        <v>641449</v>
       </c>
       <c r="J23">
-        <v>558379.4375</v>
+        <v>551293</v>
       </c>
       <c r="K23">
-        <v>581340.25</v>
+        <v>531203.6875</v>
       </c>
       <c r="L23">
-        <v>515182.1875</v>
+        <v>369805.1875</v>
       </c>
       <c r="M23">
-        <v>524089.3990714286</v>
+        <v>585685.875</v>
       </c>
       <c r="N23">
-        <v>502464.4269263567</v>
+        <v>587013.4074047619</v>
       </c>
       <c r="O23">
-        <v>521088.1239207856</v>
+        <v>545172.7830529185</v>
       </c>
       <c r="P23">
-        <v>1123424.75</v>
+        <v>585563.1076944018</v>
       </c>
       <c r="Q23">
-        <v>55652060</v>
+        <v>-320291.375</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2093,43 +2093,43 @@
         <v>932767.75</v>
       </c>
       <c r="E24">
-        <v>694811.3125</v>
+        <v>694917.5</v>
       </c>
       <c r="F24">
-        <v>746744.9375</v>
+        <v>694845.5625</v>
       </c>
       <c r="G24">
-        <v>475179.34375</v>
+        <v>381720.84375</v>
       </c>
       <c r="H24">
-        <v>508303.5</v>
+        <v>445578.125</v>
       </c>
       <c r="I24">
-        <v>501485.6875</v>
+        <v>754951</v>
       </c>
       <c r="J24">
-        <v>464674.9375</v>
+        <v>349003.1875</v>
       </c>
       <c r="K24">
-        <v>508246.8125</v>
+        <v>330435.5625</v>
       </c>
       <c r="L24">
-        <v>417877.125</v>
+        <v>309361.3125</v>
       </c>
       <c r="M24">
-        <v>416970.2905238096</v>
+        <v>546630.4375</v>
       </c>
       <c r="N24">
-        <v>427330.9462671562</v>
+        <v>545215.8581904761</v>
       </c>
       <c r="O24">
-        <v>421886.5723209518</v>
+        <v>477773.3607477912</v>
       </c>
       <c r="P24">
-        <v>7538366.5</v>
+        <v>546488.1976773234</v>
       </c>
       <c r="Q24">
-        <v>49186420</v>
+        <v>159751.59375</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2146,43 +2146,43 @@
         <v>936219.6875</v>
       </c>
       <c r="E25">
-        <v>694812.9375</v>
+        <v>694915.9375</v>
       </c>
       <c r="F25">
-        <v>873804.875</v>
+        <v>694849</v>
       </c>
       <c r="G25">
-        <v>545363.5625</v>
+        <v>297823</v>
       </c>
       <c r="H25">
-        <v>552634.375</v>
+        <v>405336.75</v>
       </c>
       <c r="I25">
-        <v>512808.46875</v>
+        <v>875832.1875</v>
       </c>
       <c r="J25">
-        <v>526550.75</v>
+        <v>251036.71875</v>
       </c>
       <c r="K25">
-        <v>513490.15625</v>
+        <v>185379.90625</v>
       </c>
       <c r="L25">
-        <v>340528</v>
+        <v>305905.25</v>
       </c>
       <c r="M25">
-        <v>350925.2490000001</v>
+        <v>478272.25</v>
       </c>
       <c r="N25">
-        <v>458965.4340274343</v>
+        <v>466470.9844999999</v>
       </c>
       <c r="O25">
-        <v>346252.9644699348</v>
+        <v>499591.0288319897</v>
       </c>
       <c r="P25">
-        <v>5170765</v>
+        <v>479260.3102942658</v>
       </c>
       <c r="Q25">
-        <v>48840620</v>
+        <v>-334172.78125</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2199,43 +2199,43 @@
         <v>945596.1875</v>
       </c>
       <c r="E26">
-        <v>694811.5625</v>
+        <v>694917.1875</v>
       </c>
       <c r="F26">
-        <v>752639.5625</v>
+        <v>694862.0625</v>
       </c>
       <c r="G26">
-        <v>527694.6875</v>
+        <v>356805.96875</v>
       </c>
       <c r="H26">
-        <v>546713.125</v>
+        <v>412248.6875</v>
       </c>
       <c r="I26">
-        <v>527720.5625</v>
+        <v>753256.1875</v>
       </c>
       <c r="J26">
-        <v>543510.1875</v>
+        <v>295438.25</v>
       </c>
       <c r="K26">
-        <v>535031.9375</v>
+        <v>289898.75</v>
       </c>
       <c r="L26">
-        <v>418804.34375</v>
+        <v>364057.34375</v>
       </c>
       <c r="M26">
-        <v>423202.3490357144</v>
+        <v>492334.6875</v>
       </c>
       <c r="N26">
-        <v>411996.4639868118</v>
+        <v>494450.4419336218</v>
       </c>
       <c r="O26">
-        <v>416753.2129336395</v>
+        <v>471798.3713042433</v>
       </c>
       <c r="P26">
-        <v>7233712</v>
+        <v>491975.3260207969</v>
       </c>
       <c r="Q26">
-        <v>54380056</v>
+        <v>-144738.234375</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2252,43 +2252,43 @@
         <v>970026.5625</v>
       </c>
       <c r="E27">
-        <v>694810.125</v>
+        <v>694916</v>
       </c>
       <c r="F27">
-        <v>1008287.625</v>
+        <v>694881.125</v>
       </c>
       <c r="G27">
-        <v>557598.8125</v>
+        <v>461572.625</v>
       </c>
       <c r="H27">
-        <v>587578.125</v>
+        <v>517844.03125</v>
       </c>
       <c r="I27">
-        <v>564623.1875</v>
+        <v>1003635.875</v>
       </c>
       <c r="J27">
-        <v>572923.6875</v>
+        <v>462660.59375</v>
       </c>
       <c r="K27">
-        <v>597093.4375</v>
+        <v>408102.15625</v>
       </c>
       <c r="L27">
-        <v>414985</v>
+        <v>421332.03125</v>
       </c>
       <c r="M27">
-        <v>403217.714</v>
+        <v>494593.625</v>
       </c>
       <c r="N27">
-        <v>458965.4340274343</v>
+        <v>488649.2586666667</v>
       </c>
       <c r="O27">
-        <v>414868.8204266468</v>
+        <v>499591.0288319897</v>
       </c>
       <c r="P27">
-        <v>7231015</v>
+        <v>490283.2874814206</v>
       </c>
       <c r="Q27">
-        <v>53941000</v>
+        <v>-119648.3046875</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2305,43 +2305,43 @@
         <v>956736.125</v>
       </c>
       <c r="E28">
-        <v>694809.6875</v>
+        <v>694915.9375</v>
       </c>
       <c r="F28">
-        <v>673701.875</v>
+        <v>694885.625</v>
       </c>
       <c r="G28">
-        <v>555955</v>
+        <v>487739.9375</v>
       </c>
       <c r="H28">
-        <v>534814.125</v>
+        <v>456449.9375</v>
       </c>
       <c r="I28">
-        <v>539884.75</v>
+        <v>665285.5</v>
       </c>
       <c r="J28">
-        <v>536234.625</v>
+        <v>388679.03125</v>
       </c>
       <c r="K28">
-        <v>548785.6875</v>
+        <v>361820.96875</v>
       </c>
       <c r="L28">
-        <v>451951.65625</v>
+        <v>437618.21875</v>
       </c>
       <c r="M28">
-        <v>460553.2228636364</v>
+        <v>452017.28125</v>
       </c>
       <c r="N28">
-        <v>435330.5223886665</v>
+        <v>455312.8075753968</v>
       </c>
       <c r="O28">
-        <v>444511.8818542698</v>
+        <v>449044.7999104408</v>
       </c>
       <c r="P28">
-        <v>6279298.5</v>
+        <v>457114.5064628696</v>
       </c>
       <c r="Q28">
-        <v>54205080</v>
+        <v>-232955.140625</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2358,43 +2358,43 @@
         <v>977081.625</v>
       </c>
       <c r="E29">
-        <v>694811.75</v>
+        <v>694914.625</v>
       </c>
       <c r="F29">
-        <v>893015.5625</v>
+        <v>694892.1875</v>
       </c>
       <c r="G29">
-        <v>537002.625</v>
+        <v>481425.8125</v>
       </c>
       <c r="H29">
-        <v>575793</v>
+        <v>465296.9375</v>
       </c>
       <c r="I29">
-        <v>553841.6875</v>
+        <v>885846.1875</v>
       </c>
       <c r="J29">
-        <v>576867.1875</v>
+        <v>477808.625</v>
       </c>
       <c r="K29">
-        <v>570608.3125</v>
+        <v>452647.4375</v>
       </c>
       <c r="L29">
-        <v>563626.375</v>
+        <v>468701.1875</v>
       </c>
       <c r="M29">
-        <v>517459.1268412698</v>
+        <v>563636.5</v>
       </c>
       <c r="N29">
-        <v>440901.5534209268</v>
+        <v>529777.4310091576</v>
       </c>
       <c r="O29">
-        <v>555254.2583367458</v>
+        <v>478196.4444485664</v>
       </c>
       <c r="P29">
-        <v>11709123</v>
+        <v>560431.7343839569</v>
       </c>
       <c r="Q29">
-        <v>53933400</v>
+        <v>281707.59375</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2411,43 +2411,43 @@
         <v>969903.1875</v>
       </c>
       <c r="E30">
-        <v>694814.3125</v>
+        <v>694914.625</v>
       </c>
       <c r="F30">
-        <v>945793.0625</v>
+        <v>694893.9375</v>
       </c>
       <c r="G30">
-        <v>571235.5</v>
+        <v>487755.5625</v>
       </c>
       <c r="H30">
-        <v>587967.4375</v>
+        <v>392502.28125</v>
       </c>
       <c r="I30">
-        <v>587216.625</v>
+        <v>927417.9375</v>
       </c>
       <c r="J30">
-        <v>578178.625</v>
+        <v>484084.15625</v>
       </c>
       <c r="K30">
-        <v>632548.875</v>
+        <v>418922.5</v>
       </c>
       <c r="L30">
-        <v>472032.0625</v>
+        <v>435778</v>
       </c>
       <c r="M30">
-        <v>462345.044857143</v>
+        <v>427604.25</v>
       </c>
       <c r="N30">
-        <v>450135.7426716472</v>
+        <v>430962.249892857</v>
       </c>
       <c r="O30">
-        <v>470381.5633469126</v>
+        <v>449035.8320309925</v>
       </c>
       <c r="P30">
-        <v>11612528</v>
+        <v>428480.4757229878</v>
       </c>
       <c r="Q30">
-        <v>109138928</v>
+        <v>745475.125</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2464,43 +2464,43 @@
         <v>985819.625</v>
       </c>
       <c r="E31">
-        <v>694813.125</v>
+        <v>694918.625</v>
       </c>
       <c r="F31">
-        <v>680790.4375</v>
+        <v>694939.375</v>
       </c>
       <c r="G31">
-        <v>480095.84375</v>
+        <v>358370.25</v>
       </c>
       <c r="H31">
-        <v>506458.875</v>
+        <v>298753.15625</v>
       </c>
       <c r="I31">
-        <v>458492.78125</v>
+        <v>693353.625</v>
       </c>
       <c r="J31">
-        <v>488439.40625</v>
+        <v>330148.1875</v>
       </c>
       <c r="K31">
-        <v>522439.34375</v>
+        <v>298280.46875</v>
       </c>
       <c r="L31">
-        <v>418804.34375</v>
+        <v>440738.125</v>
       </c>
       <c r="M31">
-        <v>423202.3490357144</v>
+        <v>492334.6875</v>
       </c>
       <c r="N31">
-        <v>411996.4639868118</v>
+        <v>494450.4419336218</v>
       </c>
       <c r="O31">
-        <v>416753.2129336395</v>
+        <v>471798.3713042433</v>
       </c>
       <c r="P31">
-        <v>9158115</v>
+        <v>491975.3260207969</v>
       </c>
       <c r="Q31">
-        <v>109609448</v>
+        <v>1053443</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2517,43 +2517,43 @@
         <v>1000836.875</v>
       </c>
       <c r="E32">
-        <v>694811.5625</v>
+        <v>694915.0625</v>
       </c>
       <c r="F32">
-        <v>818307.625</v>
+        <v>694938.8125</v>
       </c>
       <c r="G32">
-        <v>616632.25</v>
+        <v>536758.125</v>
       </c>
       <c r="H32">
-        <v>634385.25</v>
+        <v>502670.15625</v>
       </c>
       <c r="I32">
-        <v>623757.875</v>
+        <v>815141.1875</v>
       </c>
       <c r="J32">
-        <v>652660.6875</v>
+        <v>516962.375</v>
       </c>
       <c r="K32">
-        <v>638697.5625</v>
+        <v>434653.65625</v>
       </c>
       <c r="L32">
-        <v>515182.1875</v>
+        <v>421440.1875</v>
       </c>
       <c r="M32">
-        <v>524089.3990714286</v>
+        <v>585685.875</v>
       </c>
       <c r="N32">
-        <v>502464.4269263567</v>
+        <v>587013.4074047619</v>
       </c>
       <c r="O32">
-        <v>521088.1239207856</v>
+        <v>545172.7830529185</v>
       </c>
       <c r="P32">
-        <v>24513638</v>
+        <v>585563.1076944018</v>
       </c>
       <c r="Q32">
-        <v>104276296</v>
+        <v>5062857.5</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2570,43 +2570,43 @@
         <v>996412</v>
       </c>
       <c r="E33">
-        <v>694812</v>
+        <v>694964.5625</v>
       </c>
       <c r="F33">
-        <v>664963.3125</v>
+        <v>694927.875</v>
       </c>
       <c r="G33">
-        <v>557811.6875</v>
+        <v>566592.5625</v>
       </c>
       <c r="H33">
-        <v>602232.875</v>
+        <v>491006.53125</v>
       </c>
       <c r="I33">
-        <v>553131.1875</v>
+        <v>664964.8125</v>
       </c>
       <c r="J33">
-        <v>564790.125</v>
+        <v>559040.375</v>
       </c>
       <c r="K33">
-        <v>581728.25</v>
+        <v>489896.96875</v>
       </c>
       <c r="L33">
-        <v>472336.53125</v>
+        <v>550278.625</v>
       </c>
       <c r="M33">
-        <v>473191.3828968254</v>
+        <v>493747.96875</v>
       </c>
       <c r="N33">
-        <v>445197.1415961621</v>
+        <v>496624.248579365</v>
       </c>
       <c r="O33">
-        <v>473041.252252763</v>
+        <v>491361.914264543</v>
       </c>
       <c r="P33">
-        <v>43874896</v>
+        <v>493678.244587497</v>
       </c>
       <c r="Q33">
-        <v>106319376</v>
+        <v>4602153</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2623,43 +2623,43 @@
         <v>1017692.1875</v>
       </c>
       <c r="E34">
-        <v>694852.5</v>
+        <v>694962.375</v>
       </c>
       <c r="F34">
-        <v>706216.25</v>
+        <v>694932.875</v>
       </c>
       <c r="G34">
-        <v>577614.6875</v>
+        <v>492922.09375</v>
       </c>
       <c r="H34">
-        <v>608658.0625</v>
+        <v>204965.59375</v>
       </c>
       <c r="I34">
-        <v>522945.46875</v>
+        <v>706217.625</v>
       </c>
       <c r="J34">
-        <v>592305.3125</v>
+        <v>527658.8125</v>
       </c>
       <c r="K34">
-        <v>606781.5</v>
+        <v>383117.75</v>
       </c>
       <c r="L34">
-        <v>408662.28125</v>
+        <v>562336.1875</v>
       </c>
       <c r="M34">
-        <v>414486.0072162697</v>
+        <v>429133.1875</v>
       </c>
       <c r="N34">
-        <v>419837.1449658123</v>
+        <v>434991.4441573384</v>
       </c>
       <c r="O34">
-        <v>409654.2420833992</v>
+        <v>437900.9862969335</v>
       </c>
       <c r="P34">
-        <v>75550656</v>
+        <v>429401.1785470343</v>
       </c>
       <c r="Q34">
-        <v>104244496</v>
+        <v>8099332.5</v>
       </c>
     </row>
   </sheetData>
@@ -2700,366 +2700,366 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>10519960397.57422</v>
+        <v>9097158908.478271</v>
       </c>
       <c r="C2">
-        <v>102566.8581832076</v>
+        <v>95379.0276134029</v>
       </c>
       <c r="D2">
-        <v>0.02689434291742715</v>
+        <v>0.02006518414203718</v>
       </c>
       <c r="E2">
-        <v>58601.203125</v>
+        <v>42665.3828125</v>
       </c>
       <c r="F2">
-        <v>0.1170014979960755</v>
+        <v>0.07899776735050752</v>
       </c>
       <c r="G2">
-        <v>33975.359375</v>
+        <v>14131.15625</v>
       </c>
       <c r="H2">
-        <v>0.09356481066496986</v>
+        <v>0.03510883767465527</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>11448483753.60213</v>
+        <v>10480649085.02995</v>
       </c>
       <c r="C3">
-        <v>106997.5876064602</v>
+        <v>102375.0413188192</v>
       </c>
       <c r="D3">
-        <v>0.03102412837725039</v>
+        <v>0.02588286612635662</v>
       </c>
       <c r="E3">
-        <v>64997.79427083334</v>
+        <v>58821.41666666666</v>
       </c>
       <c r="F3">
-        <v>0.1317793854959987</v>
+        <v>0.1170545924089654</v>
       </c>
       <c r="G3">
-        <v>41136.1875</v>
+        <v>35455.65625</v>
       </c>
       <c r="H3">
-        <v>0.1113664717160193</v>
+        <v>0.08875662673128418</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>13336233107.53027</v>
+        <v>10519960397.57422</v>
       </c>
       <c r="C4">
-        <v>115482.6095458978</v>
+        <v>102566.8581832076</v>
       </c>
       <c r="D4">
-        <v>0.03603033456557716</v>
+        <v>0.02689434291742715</v>
       </c>
       <c r="E4">
-        <v>69408.78125</v>
+        <v>58601.203125</v>
       </c>
       <c r="F4">
-        <v>0.1361750379752901</v>
+        <v>0.1170014979960755</v>
       </c>
       <c r="G4">
-        <v>45644.328125</v>
+        <v>33975.359375</v>
       </c>
       <c r="H4">
-        <v>0.1135318917580856</v>
+        <v>0.09356481066496986</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>13596445111.12231</v>
+        <v>11562732932.84473</v>
       </c>
       <c r="C5">
-        <v>116603.7954404672</v>
+        <v>107530.1489483053</v>
       </c>
       <c r="D5">
-        <v>0.0381815116010458</v>
+        <v>0.03120051388788076</v>
       </c>
       <c r="E5">
-        <v>74821.6015625</v>
+        <v>65569.77083333333</v>
       </c>
       <c r="F5">
-        <v>0.1519571795639579</v>
+        <v>0.1330364558506335</v>
       </c>
       <c r="G5">
-        <v>37107.484375</v>
+        <v>40926.265625</v>
       </c>
       <c r="H5">
-        <v>0.100885068862606</v>
+        <v>0.107821630882011</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>28933933664.51154</v>
+        <v>13336407797.93278</v>
       </c>
       <c r="C6">
-        <v>170099.7756157001</v>
+        <v>115483.3658928106</v>
       </c>
       <c r="D6">
-        <v>0.114090158467571</v>
+        <v>0.03603103735994662</v>
       </c>
       <c r="E6">
-        <v>143988.7591145833</v>
+        <v>69410.19270833333</v>
       </c>
       <c r="F6">
-        <v>0.323860765700105</v>
+        <v>0.1361785572782686</v>
       </c>
       <c r="G6">
-        <v>118630.8671875</v>
+        <v>45644.03125</v>
       </c>
       <c r="H6">
-        <v>0.3108232251665679</v>
+        <v>0.1135311621975914</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>29878513690.42631</v>
+        <v>13336607371.3138</v>
       </c>
       <c r="C7">
-        <v>172854.0242239859</v>
+        <v>115484.2299680515</v>
       </c>
       <c r="D7">
-        <v>0.1211272655080943</v>
+        <v>0.03603202160143645</v>
       </c>
       <c r="E7">
-        <v>147821.3984375</v>
+        <v>69412.109375</v>
       </c>
       <c r="F7">
-        <v>0.3346514012208758</v>
+        <v>0.1361830830413492</v>
       </c>
       <c r="G7">
-        <v>115924.3515625</v>
+        <v>45645.015625</v>
       </c>
       <c r="H7">
-        <v>0.3086950178036821</v>
+        <v>0.1135335302477125</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>34464791678.64713</v>
+        <v>11976883774.40845</v>
       </c>
       <c r="C8">
-        <v>185646.9544017545</v>
+        <v>109438.9499876915</v>
       </c>
       <c r="D8">
-        <v>0.1485636376214306</v>
+        <v>0.03250299309485876</v>
       </c>
       <c r="E8">
-        <v>163919.5364583333</v>
+        <v>69922.90364583333</v>
       </c>
       <c r="F8">
-        <v>0.3755107622482496</v>
+        <v>0.1425627582275662</v>
       </c>
       <c r="G8">
-        <v>135268.8984375</v>
+        <v>47522.03125</v>
       </c>
       <c r="H8">
-        <v>0.3507306126717579</v>
+        <v>0.1258093051364103</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>33385544211.87189</v>
+        <v>12586069801.94181</v>
       </c>
       <c r="C9">
-        <v>182717.1152680336</v>
+        <v>112187.6544096623</v>
       </c>
       <c r="D9">
-        <v>0.1520613556666631</v>
+        <v>0.03920863012254697</v>
       </c>
       <c r="E9">
-        <v>164681.8138020833</v>
+        <v>73701.40364583333</v>
       </c>
       <c r="F9">
-        <v>0.3816807917007806</v>
+        <v>0.1567606285523043</v>
       </c>
       <c r="G9">
-        <v>151089.6796875</v>
+        <v>53432.765625</v>
       </c>
       <c r="H9">
-        <v>0.3576691582859723</v>
+        <v>0.1377686927254211</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>36818750738.60268</v>
+        <v>12480172453.72176</v>
       </c>
       <c r="C10">
-        <v>191882.1271994937</v>
+        <v>111714.6922017053</v>
       </c>
       <c r="D10">
-        <v>0.1577725271363885</v>
+        <v>0.04264383721139475</v>
       </c>
       <c r="E10">
-        <v>170073.60546875</v>
+        <v>80667.58072916667</v>
       </c>
       <c r="F10">
-        <v>0.3887086845093613</v>
+        <v>0.1731162809149594</v>
       </c>
       <c r="G10">
-        <v>137841.40625</v>
+        <v>55827.171875</v>
       </c>
       <c r="H10">
-        <v>0.3663238428689478</v>
+        <v>0.1393071464739287</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>42767331120.86646</v>
+        <v>40244167616.35723</v>
       </c>
       <c r="C11">
-        <v>206802.638089717</v>
+        <v>200609.4903446924</v>
       </c>
       <c r="D11">
-        <v>0.1768213935978814</v>
+        <v>0.1656903871081952</v>
       </c>
       <c r="E11">
-        <v>179560.2421333897</v>
+        <v>173441.9527683216</v>
       </c>
       <c r="F11">
-        <v>0.4058585089827098</v>
+        <v>0.3915235432274767</v>
       </c>
       <c r="G11">
-        <v>151369.0461160148</v>
+        <v>148630.0931806686</v>
       </c>
       <c r="H11">
-        <v>0.3936214771129821</v>
+        <v>0.3612973226072091</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>43546243640.76278</v>
+        <v>42564892373.85519</v>
       </c>
       <c r="C12">
-        <v>208677.3673419396</v>
+        <v>206312.6083734467</v>
       </c>
       <c r="D12">
-        <v>0.1783016155991899</v>
+        <v>0.1703525564417402</v>
       </c>
       <c r="E12">
-        <v>179950.284874325</v>
+        <v>175606.4101497382</v>
       </c>
       <c r="F12">
-        <v>0.4063188622887099</v>
+        <v>0.3947084677267703</v>
       </c>
       <c r="G12">
-        <v>158204.3133333333</v>
+        <v>153751.4391011905</v>
       </c>
       <c r="H12">
-        <v>0.3942238073894723</v>
+        <v>0.3627764962621117</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>42010898395.42216</v>
+        <v>44819037838.24972</v>
       </c>
       <c r="C13">
-        <v>204965.6029567453</v>
+        <v>211705.072774012</v>
       </c>
       <c r="D13">
-        <v>0.1790221808592531</v>
+        <v>0.1818248649790538</v>
       </c>
       <c r="E13">
-        <v>180059.375</v>
+        <v>180750.2369791667</v>
       </c>
       <c r="F13">
-        <v>0.4092702218547594</v>
+        <v>0.4071755412551548</v>
       </c>
       <c r="G13">
-        <v>164718.28125</v>
+        <v>162220.3125</v>
       </c>
       <c r="H13">
-        <v>0.3978765106941625</v>
+        <v>0.3828929538385291</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>47232454311.17945</v>
+        <v>44306452669.4342</v>
       </c>
       <c r="C14">
-        <v>217330.2885268859</v>
+        <v>210490.9800191785</v>
       </c>
       <c r="D14">
-        <v>0.1936075512125808</v>
+        <v>0.1774427314932488</v>
       </c>
       <c r="E14">
-        <v>186833.4124343025</v>
+        <v>179199.8546743498</v>
       </c>
       <c r="F14">
-        <v>0.4220170501012689</v>
+        <v>0.40312278605248</v>
       </c>
       <c r="G14">
-        <v>175943.1146974028</v>
+        <v>163543.2460556704</v>
       </c>
       <c r="H14">
-        <v>0.4080674094422061</v>
+        <v>0.3965097851739955</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>1658675333838.019</v>
+        <v>830024843920.8217</v>
       </c>
       <c r="C15">
-        <v>1287895.699906642</v>
+        <v>911056.9926853214</v>
       </c>
       <c r="D15">
-        <v>7.691729578020571</v>
+        <v>5.648082142876279</v>
       </c>
       <c r="E15">
-        <v>1013015.537597656</v>
+        <v>761481.4244791666</v>
       </c>
       <c r="F15">
-        <v>2.294314288432359</v>
+        <v>1.919959931953763</v>
       </c>
       <c r="G15">
-        <v>865262.1875</v>
+        <v>649388.5</v>
       </c>
       <c r="H15">
-        <v>2.344568992806813</v>
+        <v>1.713095154035642</v>
       </c>
     </row>
   </sheetData>
@@ -3086,46 +3086,46 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3139,46 +3139,46 @@
         <v>407613</v>
       </c>
       <c r="D2">
+        <v>420513</v>
+      </c>
+      <c r="E2">
+        <v>379082.53125</v>
+      </c>
+      <c r="F2">
         <v>373751.03125</v>
       </c>
-      <c r="E2">
-        <v>403827.09375</v>
-      </c>
-      <c r="F2">
-        <v>355608.46875</v>
-      </c>
       <c r="G2">
-        <v>369005.5</v>
+        <v>400851.5625</v>
       </c>
       <c r="H2">
-        <v>313492.75</v>
+        <v>355609.03125</v>
       </c>
       <c r="I2">
-        <v>310994.15625</v>
+        <v>355605.875</v>
       </c>
       <c r="J2">
-        <v>303639</v>
+        <v>362585.1875</v>
       </c>
       <c r="K2">
-        <v>288551.125</v>
+        <v>398994.46875</v>
       </c>
       <c r="L2">
-        <v>273932.53125</v>
+        <v>459899.625</v>
       </c>
       <c r="M2">
-        <v>269033.5724765855</v>
+        <v>270750.7947298117</v>
       </c>
       <c r="N2">
-        <v>269498.0666484387</v>
+        <v>270795.9096293317</v>
       </c>
       <c r="O2">
-        <v>269975.4375</v>
+        <v>270722.8125</v>
       </c>
       <c r="P2">
-        <v>268601.0282938047</v>
+        <v>268480.4249148034</v>
       </c>
       <c r="Q2">
-        <v>-1019024.25</v>
+        <v>-717703.6875</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3192,46 +3192,46 @@
         <v>708674</v>
       </c>
       <c r="D3">
+        <v>385241.1875</v>
+      </c>
+      <c r="E3">
+        <v>375610.4375</v>
+      </c>
+      <c r="F3">
         <v>377520.3125</v>
       </c>
-      <c r="E3">
-        <v>373086.03125</v>
-      </c>
-      <c r="F3">
-        <v>355606.875</v>
-      </c>
       <c r="G3">
-        <v>356256.75</v>
+        <v>370924.15625</v>
       </c>
       <c r="H3">
-        <v>276472.71875</v>
+        <v>355605.75</v>
       </c>
       <c r="I3">
-        <v>275601.5625</v>
+        <v>355605.65625</v>
       </c>
       <c r="J3">
-        <v>267445.90625</v>
+        <v>367748.8125</v>
       </c>
       <c r="K3">
-        <v>289563.65625</v>
+        <v>370260.9375</v>
       </c>
       <c r="L3">
-        <v>255779.03125</v>
+        <v>398614.40625</v>
       </c>
       <c r="M3">
-        <v>216138.7969591691</v>
+        <v>230414.516440394</v>
       </c>
       <c r="N3">
-        <v>202965.294670635</v>
+        <v>199689.7568522589</v>
       </c>
       <c r="O3">
-        <v>233077.09375</v>
+        <v>190499.59375</v>
       </c>
       <c r="P3">
-        <v>179326.7080222602</v>
+        <v>184621.0762928916</v>
       </c>
       <c r="Q3">
-        <v>-2032649.25</v>
+        <v>1260011.75</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3245,46 +3245,46 @@
         <v>361826</v>
       </c>
       <c r="D4">
+        <v>357165.125</v>
+      </c>
+      <c r="E4">
+        <v>353173.5625</v>
+      </c>
+      <c r="F4">
         <v>376066.28125</v>
       </c>
-      <c r="E4">
-        <v>377912</v>
-      </c>
-      <c r="F4">
-        <v>355609.125</v>
-      </c>
       <c r="G4">
-        <v>329057.125</v>
+        <v>380722.65625</v>
       </c>
       <c r="H4">
-        <v>272309.75</v>
+        <v>355607.90625</v>
       </c>
       <c r="I4">
-        <v>264993.75</v>
+        <v>355607.625</v>
       </c>
       <c r="J4">
-        <v>237788.453125</v>
+        <v>345646.1875</v>
       </c>
       <c r="K4">
-        <v>192396.4375</v>
+        <v>334295.71875</v>
       </c>
       <c r="L4">
-        <v>233518.15625</v>
+        <v>354539.625</v>
       </c>
       <c r="M4">
-        <v>248605.6454501121</v>
+        <v>249355.7132074132</v>
       </c>
       <c r="N4">
-        <v>252048.4311470652</v>
+        <v>250677.9998132733</v>
       </c>
       <c r="O4">
-        <v>251690.984375</v>
+        <v>249408.515625</v>
       </c>
       <c r="P4">
-        <v>257328.0353572031</v>
+        <v>257539.1207760191</v>
       </c>
       <c r="Q4">
-        <v>-463457</v>
+        <v>-467082.84375</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3298,46 +3298,46 @@
         <v>356106</v>
       </c>
       <c r="D5">
+        <v>355672.5625</v>
+      </c>
+      <c r="E5">
+        <v>339822.625</v>
+      </c>
+      <c r="F5">
         <v>355014.75</v>
       </c>
-      <c r="E5">
-        <v>377567.46875</v>
-      </c>
-      <c r="F5">
-        <v>355610.28125</v>
-      </c>
       <c r="G5">
-        <v>328887.875</v>
+        <v>378769.15625</v>
       </c>
       <c r="H5">
-        <v>275011.6875</v>
+        <v>355606.8125</v>
       </c>
       <c r="I5">
-        <v>262560.9375</v>
+        <v>355607.5</v>
       </c>
       <c r="J5">
-        <v>241851.859375</v>
+        <v>347353.5</v>
       </c>
       <c r="K5">
-        <v>196674.84375</v>
+        <v>347845.53125</v>
       </c>
       <c r="L5">
-        <v>243752.71875</v>
+        <v>372493.125</v>
       </c>
       <c r="M5">
-        <v>269033.5724765855</v>
+        <v>270750.7947298117</v>
       </c>
       <c r="N5">
-        <v>269498.0666484387</v>
+        <v>270795.9096293317</v>
       </c>
       <c r="O5">
-        <v>269975.4375</v>
+        <v>270722.8125</v>
       </c>
       <c r="P5">
-        <v>268601.0282938047</v>
+        <v>268480.4249148034</v>
       </c>
       <c r="Q5">
-        <v>-1223618.5</v>
+        <v>1103545.25</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3351,46 +3351,46 @@
         <v>332612</v>
       </c>
       <c r="D6">
+        <v>299482.5</v>
+      </c>
+      <c r="E6">
+        <v>302875.59375</v>
+      </c>
+      <c r="F6">
         <v>363466.75</v>
       </c>
-      <c r="E6">
-        <v>316094.6875</v>
-      </c>
-      <c r="F6">
-        <v>355611.65625</v>
-      </c>
       <c r="G6">
-        <v>368219.46875</v>
+        <v>315242.9375</v>
       </c>
       <c r="H6">
-        <v>240340.765625</v>
+        <v>355612.15625</v>
       </c>
       <c r="I6">
-        <v>232951.78125</v>
+        <v>355607.03125</v>
       </c>
       <c r="J6">
-        <v>214063.390625</v>
+        <v>306658.8125</v>
       </c>
       <c r="K6">
-        <v>214434.78125</v>
+        <v>276239.65625</v>
       </c>
       <c r="L6">
-        <v>209862.359375</v>
+        <v>301898.875</v>
       </c>
       <c r="M6">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N6">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O6">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P6">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q6">
-        <v>246479.453125</v>
+        <v>703900.9375</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3404,46 +3404,46 @@
         <v>409660</v>
       </c>
       <c r="D7">
+        <v>394849.375</v>
+      </c>
+      <c r="E7">
+        <v>373564.625</v>
+      </c>
+      <c r="F7">
         <v>376799.75</v>
       </c>
-      <c r="E7">
-        <v>381312.5</v>
-      </c>
-      <c r="F7">
-        <v>355614.9375</v>
-      </c>
       <c r="G7">
-        <v>383331.25</v>
+        <v>381844.15625</v>
       </c>
       <c r="H7">
-        <v>282434.875</v>
+        <v>355613.5</v>
       </c>
       <c r="I7">
-        <v>291511.875</v>
+        <v>355607.21875</v>
       </c>
       <c r="J7">
-        <v>273879.25</v>
+        <v>354369.875</v>
       </c>
       <c r="K7">
-        <v>276922.03125</v>
+        <v>386301.0625</v>
       </c>
       <c r="L7">
-        <v>267657.65625</v>
+        <v>365395.1875</v>
       </c>
       <c r="M7">
-        <v>254388.4843214693</v>
+        <v>239117.3749778213</v>
       </c>
       <c r="N7">
-        <v>256645.625</v>
+        <v>254288.19375</v>
       </c>
       <c r="O7">
-        <v>253992.796875</v>
+        <v>236420.21875</v>
       </c>
       <c r="P7">
-        <v>226226.1367020275</v>
+        <v>249551.4486404071</v>
       </c>
       <c r="Q7">
-        <v>-22152.185546875</v>
+        <v>414931.9375</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3457,46 +3457,46 @@
         <v>430802</v>
       </c>
       <c r="D8">
+        <v>421268</v>
+      </c>
+      <c r="E8">
+        <v>370891.875</v>
+      </c>
+      <c r="F8">
         <v>385776.34375</v>
       </c>
-      <c r="E8">
-        <v>366373.375</v>
-      </c>
-      <c r="F8">
-        <v>355615.96875</v>
-      </c>
       <c r="G8">
-        <v>352203.4375</v>
+        <v>366697.40625</v>
       </c>
       <c r="H8">
-        <v>275376.9375</v>
+        <v>355613.3125</v>
       </c>
       <c r="I8">
-        <v>259727.9375</v>
+        <v>355608.15625</v>
       </c>
       <c r="J8">
-        <v>267557.40625</v>
+        <v>365804.3125</v>
       </c>
       <c r="K8">
-        <v>275697</v>
+        <v>386385.875</v>
       </c>
       <c r="L8">
-        <v>247968.953125</v>
+        <v>382921.59375</v>
       </c>
       <c r="M8">
-        <v>248605.6454501121</v>
+        <v>249355.7132074132</v>
       </c>
       <c r="N8">
-        <v>252048.4311470652</v>
+        <v>250677.9998132733</v>
       </c>
       <c r="O8">
-        <v>251690.984375</v>
+        <v>249408.515625</v>
       </c>
       <c r="P8">
-        <v>257328.0353572031</v>
+        <v>257539.1207760191</v>
       </c>
       <c r="Q8">
-        <v>-1700518.875</v>
+        <v>1540889.75</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3510,46 +3510,46 @@
         <v>394892</v>
       </c>
       <c r="D9">
+        <v>381440.3125</v>
+      </c>
+      <c r="E9">
+        <v>358760.15625</v>
+      </c>
+      <c r="F9">
         <v>402216.75</v>
       </c>
-      <c r="E9">
-        <v>441972.40625</v>
-      </c>
-      <c r="F9">
-        <v>355607.875</v>
-      </c>
       <c r="G9">
-        <v>335185.375</v>
+        <v>443783.65625</v>
       </c>
       <c r="H9">
-        <v>259234.8125</v>
+        <v>355607.90625</v>
       </c>
       <c r="I9">
-        <v>235862.375</v>
+        <v>355609.09375</v>
       </c>
       <c r="J9">
-        <v>215337.1875</v>
+        <v>346208.59375</v>
       </c>
       <c r="K9">
-        <v>243180.453125</v>
+        <v>329625.90625</v>
       </c>
       <c r="L9">
-        <v>237970.75</v>
+        <v>335524.28125</v>
       </c>
       <c r="M9">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N9">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O9">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P9">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q9">
-        <v>959114.25</v>
+        <v>732594.3125</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3563,46 +3563,46 @@
         <v>457940</v>
       </c>
       <c r="D10">
+        <v>446335</v>
+      </c>
+      <c r="E10">
+        <v>423124.0625</v>
+      </c>
+      <c r="F10">
         <v>399423.28125</v>
       </c>
-      <c r="E10">
-        <v>512792.78125</v>
-      </c>
-      <c r="F10">
-        <v>355612.84375</v>
-      </c>
       <c r="G10">
-        <v>354221.96875</v>
+        <v>512295.6875</v>
       </c>
       <c r="H10">
-        <v>301749.75</v>
+        <v>355612.21875</v>
       </c>
       <c r="I10">
-        <v>319123.46875</v>
+        <v>355610.375</v>
       </c>
       <c r="J10">
-        <v>299930.5</v>
+        <v>381623.625</v>
       </c>
       <c r="K10">
-        <v>290280.40625</v>
+        <v>407446.8125</v>
       </c>
       <c r="L10">
-        <v>274503.21875</v>
+        <v>363848.3125</v>
       </c>
       <c r="M10">
-        <v>256879.602526304</v>
+        <v>297542.0189088511</v>
       </c>
       <c r="N10">
-        <v>266611.506237235</v>
+        <v>299363.2312948719</v>
       </c>
       <c r="O10">
-        <v>251243.328125</v>
+        <v>297870.9375</v>
       </c>
       <c r="P10">
-        <v>268601.0282938047</v>
+        <v>268480.4249148034</v>
       </c>
       <c r="Q10">
-        <v>1560776</v>
+        <v>835924.0625</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3616,46 +3616,46 @@
         <v>339988</v>
       </c>
       <c r="D11">
+        <v>317032.8125</v>
+      </c>
+      <c r="E11">
+        <v>311404.90625</v>
+      </c>
+      <c r="F11">
         <v>398919.5</v>
       </c>
-      <c r="E11">
-        <v>304796.03125</v>
-      </c>
-      <c r="F11">
-        <v>355608.15625</v>
-      </c>
       <c r="G11">
-        <v>366894.4375</v>
+        <v>307027.125</v>
       </c>
       <c r="H11">
-        <v>234223.265625</v>
+        <v>355608.8125</v>
       </c>
       <c r="I11">
-        <v>233144.234375</v>
+        <v>355605.40625</v>
       </c>
       <c r="J11">
-        <v>224994.4375</v>
+        <v>303575.46875</v>
       </c>
       <c r="K11">
-        <v>228399.390625</v>
+        <v>257776.9375</v>
       </c>
       <c r="L11">
-        <v>226323.5</v>
+        <v>256684.46875</v>
       </c>
       <c r="M11">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N11">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O11">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P11">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q11">
-        <v>262780.3125</v>
+        <v>2222309</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3669,46 +3669,46 @@
         <v>361245</v>
       </c>
       <c r="D12">
+        <v>327911.46875</v>
+      </c>
+      <c r="E12">
+        <v>322829.8125</v>
+      </c>
+      <c r="F12">
         <v>395333.75</v>
       </c>
-      <c r="E12">
-        <v>288864.3125</v>
-      </c>
-      <c r="F12">
-        <v>355616.65625</v>
-      </c>
       <c r="G12">
-        <v>356841.96875</v>
+        <v>290360.46875</v>
       </c>
       <c r="H12">
-        <v>251208.390625</v>
+        <v>355613.5625</v>
       </c>
       <c r="I12">
-        <v>247544.421875</v>
+        <v>355599.03125</v>
       </c>
       <c r="J12">
-        <v>226487.953125</v>
+        <v>314884.34375</v>
       </c>
       <c r="K12">
-        <v>239543.921875</v>
+        <v>282435.875</v>
       </c>
       <c r="L12">
-        <v>229896.265625</v>
+        <v>275876.125</v>
       </c>
       <c r="M12">
-        <v>213778.4234465011</v>
+        <v>226740.9053715065</v>
       </c>
       <c r="N12">
-        <v>197850.7483333334</v>
+        <v>209113.9280476191</v>
       </c>
       <c r="O12">
-        <v>187475.640625</v>
+        <v>181418.40625</v>
       </c>
       <c r="P12">
-        <v>179326.7080222602</v>
+        <v>184621.0762928916</v>
       </c>
       <c r="Q12">
-        <v>-543996.375</v>
+        <v>840713.5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3722,46 +3722,46 @@
         <v>461647</v>
       </c>
       <c r="D13">
+        <v>429909.0625</v>
+      </c>
+      <c r="E13">
+        <v>406007.8125</v>
+      </c>
+      <c r="F13">
         <v>406382.125</v>
       </c>
-      <c r="E13">
-        <v>377394.09375</v>
-      </c>
-      <c r="F13">
-        <v>355616.40625</v>
-      </c>
       <c r="G13">
-        <v>350068.4375</v>
+        <v>377263.09375</v>
       </c>
       <c r="H13">
-        <v>313284.1875</v>
+        <v>355613.65625</v>
       </c>
       <c r="I13">
-        <v>315131.71875</v>
+        <v>355611.59375</v>
       </c>
       <c r="J13">
-        <v>282995.21875</v>
+        <v>387471.4375</v>
       </c>
       <c r="K13">
-        <v>311179.1875</v>
+        <v>360979.375</v>
       </c>
       <c r="L13">
-        <v>280956.59375</v>
+        <v>324645.90625</v>
       </c>
       <c r="M13">
-        <v>226443.8352579285</v>
+        <v>216137.1351335511</v>
       </c>
       <c r="N13">
-        <v>230390.7080714285</v>
+        <v>218460.0430266955</v>
       </c>
       <c r="O13">
-        <v>231324.953125</v>
+        <v>215969.03125</v>
       </c>
       <c r="P13">
-        <v>226226.1367020275</v>
+        <v>249551.4486404071</v>
       </c>
       <c r="Q13">
-        <v>177201.46875</v>
+        <v>-859003.0625</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3775,46 +3775,46 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>357187.1875</v>
+      </c>
+      <c r="E14">
+        <v>348455.5625</v>
+      </c>
+      <c r="F14">
         <v>421505.40625</v>
       </c>
-      <c r="E14">
-        <v>372854.21875</v>
-      </c>
-      <c r="F14">
-        <v>355613.40625</v>
-      </c>
       <c r="G14">
-        <v>361010.6875</v>
+        <v>372181.40625</v>
       </c>
       <c r="H14">
-        <v>250612.46875</v>
+        <v>355611.40625</v>
       </c>
       <c r="I14">
-        <v>237127.9375</v>
+        <v>355592.78125</v>
       </c>
       <c r="J14">
-        <v>220732.96875</v>
+        <v>295172.46875</v>
       </c>
       <c r="K14">
-        <v>251067.375</v>
+        <v>278949.125</v>
       </c>
       <c r="L14">
-        <v>242443.078125</v>
+        <v>230596.515625</v>
       </c>
       <c r="M14">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N14">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O14">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P14">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q14">
-        <v>158023.421875</v>
+        <v>197198.0625</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3828,46 +3828,46 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>393312.34375</v>
+      </c>
+      <c r="E15">
+        <v>353965.96875</v>
+      </c>
+      <c r="F15">
         <v>445135.8125</v>
       </c>
-      <c r="E15">
-        <v>372608.6875</v>
-      </c>
-      <c r="F15">
-        <v>355613.3125</v>
-      </c>
       <c r="G15">
-        <v>368746.40625</v>
+        <v>373925.28125</v>
       </c>
       <c r="H15">
-        <v>286294.21875</v>
+        <v>355613.46875</v>
       </c>
       <c r="I15">
-        <v>278579.53125</v>
+        <v>355607.09375</v>
       </c>
       <c r="J15">
-        <v>273062.28125</v>
+        <v>330425.375</v>
       </c>
       <c r="K15">
-        <v>281950.90625</v>
+        <v>263790.15625</v>
       </c>
       <c r="L15">
-        <v>272140.09375</v>
+        <v>216030</v>
       </c>
       <c r="M15">
-        <v>150102.5821602056</v>
+        <v>173403.8976939312</v>
       </c>
       <c r="N15">
-        <v>136931.1039365079</v>
+        <v>182496.6705670996</v>
       </c>
       <c r="O15">
-        <v>100645.4765625</v>
+        <v>172320.53125</v>
       </c>
       <c r="P15">
-        <v>214953.1437654258</v>
+        <v>237648.4086072822</v>
       </c>
       <c r="Q15">
-        <v>907988.125</v>
+        <v>994981.125</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3881,46 +3881,46 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>347583.25</v>
+      </c>
+      <c r="E16">
+        <v>318729.96875</v>
+      </c>
+      <c r="F16">
         <v>447562.53125</v>
       </c>
-      <c r="E16">
-        <v>385665.90625</v>
-      </c>
-      <c r="F16">
-        <v>355616.5625</v>
-      </c>
       <c r="G16">
-        <v>345482.75</v>
+        <v>385948.4375</v>
       </c>
       <c r="H16">
-        <v>283451.5</v>
+        <v>355611.53125</v>
       </c>
       <c r="I16">
-        <v>280082.78125</v>
+        <v>355618.75</v>
       </c>
       <c r="J16">
-        <v>256977.46875</v>
+        <v>283034.28125</v>
       </c>
       <c r="K16">
-        <v>273281.28125</v>
+        <v>270525.84375</v>
       </c>
       <c r="L16">
-        <v>272510.0625</v>
+        <v>240527.890625</v>
       </c>
       <c r="M16">
-        <v>269033.5724765855</v>
+        <v>270750.7947298117</v>
       </c>
       <c r="N16">
-        <v>269498.0666484387</v>
+        <v>270795.9096293317</v>
       </c>
       <c r="O16">
-        <v>269975.4375</v>
+        <v>270722.8125</v>
       </c>
       <c r="P16">
-        <v>268601.0282938047</v>
+        <v>268480.4249148034</v>
       </c>
       <c r="Q16">
-        <v>234547.859375</v>
+        <v>390082.75</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3934,46 +3934,46 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <v>325072.09375</v>
+      </c>
+      <c r="E17">
+        <v>294625.125</v>
+      </c>
+      <c r="F17">
         <v>430407.09375</v>
       </c>
-      <c r="E17">
-        <v>340727.6875</v>
-      </c>
-      <c r="F17">
-        <v>355611.4375</v>
-      </c>
       <c r="G17">
-        <v>323010</v>
+        <v>342703.21875</v>
       </c>
       <c r="H17">
-        <v>241899.015625</v>
+        <v>355611.34375</v>
       </c>
       <c r="I17">
-        <v>234015.921875</v>
+        <v>355614.59375</v>
       </c>
       <c r="J17">
-        <v>242825.5625</v>
+        <v>235639.484375</v>
       </c>
       <c r="K17">
-        <v>247988.96875</v>
+        <v>216450.78125</v>
       </c>
       <c r="L17">
-        <v>238974.3125</v>
+        <v>233079.28125</v>
       </c>
       <c r="M17">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N17">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O17">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P17">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q17">
-        <v>154653.265625</v>
+        <v>139039.015625</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3987,46 +3987,46 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>371835.0625</v>
+      </c>
+      <c r="E18">
+        <v>312428.78125</v>
+      </c>
+      <c r="F18">
         <v>432097.6875</v>
       </c>
-      <c r="E18">
-        <v>243991.53125</v>
-      </c>
-      <c r="F18">
-        <v>355608.78125</v>
-      </c>
       <c r="G18">
-        <v>325108.6875</v>
+        <v>238018.4375</v>
       </c>
       <c r="H18">
-        <v>289887.15625</v>
+        <v>355611.5</v>
       </c>
       <c r="I18">
-        <v>280449.75</v>
+        <v>355616.6875</v>
       </c>
       <c r="J18">
-        <v>281443.9375</v>
+        <v>275854.3125</v>
       </c>
       <c r="K18">
-        <v>287783.5625</v>
+        <v>264814.53125</v>
       </c>
       <c r="L18">
-        <v>274936.1875</v>
+        <v>246497.984375</v>
       </c>
       <c r="M18">
-        <v>269033.5724765855</v>
+        <v>270750.7947298117</v>
       </c>
       <c r="N18">
-        <v>269498.0666484387</v>
+        <v>270795.9096293317</v>
       </c>
       <c r="O18">
-        <v>269975.4375</v>
+        <v>270722.8125</v>
       </c>
       <c r="P18">
-        <v>268601.0282938047</v>
+        <v>268480.4249148034</v>
       </c>
       <c r="Q18">
-        <v>-135542.0625</v>
+        <v>1009061.25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4040,46 +4040,46 @@
         <v>0</v>
       </c>
       <c r="D19">
+        <v>312500.0625</v>
+      </c>
+      <c r="E19">
+        <v>320472.3125</v>
+      </c>
+      <c r="F19">
         <v>430613.28125</v>
       </c>
-      <c r="E19">
-        <v>286709.0625</v>
-      </c>
-      <c r="F19">
-        <v>355613.03125</v>
-      </c>
       <c r="G19">
-        <v>327207.375</v>
+        <v>286899.21875</v>
       </c>
       <c r="H19">
-        <v>260251.109375</v>
+        <v>355613.125</v>
       </c>
       <c r="I19">
-        <v>276444.4375</v>
+        <v>355603.78125</v>
       </c>
       <c r="J19">
-        <v>246796.453125</v>
+        <v>227303.609375</v>
       </c>
       <c r="K19">
-        <v>263164.75</v>
+        <v>214789.59375</v>
       </c>
       <c r="L19">
-        <v>253931.65625</v>
+        <v>217819.59375</v>
       </c>
       <c r="M19">
-        <v>248605.6454501121</v>
+        <v>249355.7132074132</v>
       </c>
       <c r="N19">
-        <v>252048.4311470652</v>
+        <v>250677.9998132733</v>
       </c>
       <c r="O19">
-        <v>251690.984375</v>
+        <v>249408.515625</v>
       </c>
       <c r="P19">
-        <v>257328.0353572031</v>
+        <v>257539.1207760191</v>
       </c>
       <c r="Q19">
-        <v>-1504699</v>
+        <v>701383.875</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4093,46 +4093,46 @@
         <v>0</v>
       </c>
       <c r="D20">
+        <v>310505.25</v>
+      </c>
+      <c r="E20">
+        <v>272531.375</v>
+      </c>
+      <c r="F20">
         <v>449169.65625</v>
       </c>
-      <c r="E20">
-        <v>393041.9375</v>
-      </c>
-      <c r="F20">
-        <v>355612</v>
-      </c>
       <c r="G20">
-        <v>333880.625</v>
+        <v>393534</v>
       </c>
       <c r="H20">
-        <v>224625.828125</v>
+        <v>355611.125</v>
       </c>
       <c r="I20">
-        <v>240390.703125</v>
+        <v>355608.21875</v>
       </c>
       <c r="J20">
-        <v>244374.125</v>
+        <v>215062.625</v>
       </c>
       <c r="K20">
-        <v>269463.375</v>
+        <v>208329.59375</v>
       </c>
       <c r="L20">
-        <v>248026.453125</v>
+        <v>218992.125</v>
       </c>
       <c r="M20">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N20">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O20">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P20">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q20">
-        <v>991655.125</v>
+        <v>554028.875</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4146,46 +4146,46 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <v>407798.375</v>
+      </c>
+      <c r="E21">
+        <v>329782.53125</v>
+      </c>
+      <c r="F21">
         <v>468058.90625</v>
       </c>
-      <c r="E21">
-        <v>308946.6875</v>
-      </c>
-      <c r="F21">
-        <v>355610.1875</v>
-      </c>
       <c r="G21">
-        <v>340701.5625</v>
+        <v>308476.40625</v>
       </c>
       <c r="H21">
-        <v>292355.96875</v>
+        <v>355610.125</v>
       </c>
       <c r="I21">
-        <v>295801.28125</v>
+        <v>355609.40625</v>
       </c>
       <c r="J21">
-        <v>301109.375</v>
+        <v>288030.84375</v>
       </c>
       <c r="K21">
-        <v>309504.65625</v>
+        <v>213335.421875</v>
       </c>
       <c r="L21">
-        <v>286489.5625</v>
+        <v>219252.6875</v>
       </c>
       <c r="M21">
-        <v>269033.5724765855</v>
+        <v>270750.7947298117</v>
       </c>
       <c r="N21">
-        <v>269498.0666484387</v>
+        <v>270795.9096293317</v>
       </c>
       <c r="O21">
-        <v>269975.4375</v>
+        <v>270722.8125</v>
       </c>
       <c r="P21">
-        <v>268601.0282938047</v>
+        <v>268480.4249148034</v>
       </c>
       <c r="Q21">
-        <v>770118.6875</v>
+        <v>447638.46875</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4199,46 +4199,46 @@
         <v>0</v>
       </c>
       <c r="D22">
+        <v>344012.625</v>
+      </c>
+      <c r="E22">
+        <v>295349.5625</v>
+      </c>
+      <c r="F22">
         <v>473272.75</v>
       </c>
-      <c r="E22">
-        <v>492260.65625</v>
-      </c>
-      <c r="F22">
-        <v>355615.0625</v>
-      </c>
       <c r="G22">
-        <v>359326.78125</v>
+        <v>494712.78125</v>
       </c>
       <c r="H22">
-        <v>271337.15625</v>
+        <v>355611.5625</v>
       </c>
       <c r="I22">
-        <v>285243.4375</v>
+        <v>355620.71875</v>
       </c>
       <c r="J22">
-        <v>277134.90625</v>
+        <v>233905.96875</v>
       </c>
       <c r="K22">
-        <v>295860.9375</v>
+        <v>248306.140625</v>
       </c>
       <c r="L22">
-        <v>278353</v>
+        <v>202827.640625</v>
       </c>
       <c r="M22">
-        <v>248605.6454501121</v>
+        <v>249355.7132074132</v>
       </c>
       <c r="N22">
-        <v>252048.4311470652</v>
+        <v>250677.9998132733</v>
       </c>
       <c r="O22">
-        <v>251690.984375</v>
+        <v>249408.515625</v>
       </c>
       <c r="P22">
-        <v>257328.0353572031</v>
+        <v>257539.1207760191</v>
       </c>
       <c r="Q22">
-        <v>-2017947.125</v>
+        <v>1301159.625</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4252,46 +4252,46 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <v>291137.25</v>
+      </c>
+      <c r="E23">
+        <v>188924.21875</v>
+      </c>
+      <c r="F23">
         <v>465779.625</v>
       </c>
-      <c r="E23">
-        <v>296107.8125</v>
-      </c>
-      <c r="F23">
-        <v>355613.8125</v>
-      </c>
       <c r="G23">
-        <v>379174.125</v>
+        <v>295879.84375</v>
       </c>
       <c r="H23">
-        <v>234026.15625</v>
+        <v>355610.625</v>
       </c>
       <c r="I23">
-        <v>254664</v>
+        <v>355622.5</v>
       </c>
       <c r="J23">
-        <v>254118.734375</v>
+        <v>181097.21875</v>
       </c>
       <c r="K23">
-        <v>251528.390625</v>
+        <v>196031.28125</v>
       </c>
       <c r="L23">
-        <v>247158.109375</v>
+        <v>177879.703125</v>
       </c>
       <c r="M23">
-        <v>248605.6454501121</v>
+        <v>249355.7132074132</v>
       </c>
       <c r="N23">
-        <v>252048.4311470652</v>
+        <v>250677.9998132733</v>
       </c>
       <c r="O23">
-        <v>251690.984375</v>
+        <v>249408.515625</v>
       </c>
       <c r="P23">
-        <v>257328.0353572031</v>
+        <v>257539.1207760191</v>
       </c>
       <c r="Q23">
-        <v>-354093.71875</v>
+        <v>1346708.75</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4305,46 +4305,46 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>224786.296875</v>
+      </c>
+      <c r="E24">
+        <v>190276.5</v>
+      </c>
+      <c r="F24">
         <v>485329.75</v>
       </c>
-      <c r="E24">
-        <v>412081.34375</v>
-      </c>
-      <c r="F24">
-        <v>355611.65625</v>
-      </c>
       <c r="G24">
-        <v>345773.78125</v>
+        <v>411633</v>
       </c>
       <c r="H24">
-        <v>228182.34375</v>
+        <v>355610.40625</v>
       </c>
       <c r="I24">
-        <v>218361.484375</v>
+        <v>355611.125</v>
       </c>
       <c r="J24">
-        <v>225077.859375</v>
+        <v>145431.3125</v>
       </c>
       <c r="K24">
-        <v>246061.109375</v>
+        <v>189829.140625</v>
       </c>
       <c r="L24">
-        <v>234082.5</v>
+        <v>165034.6875</v>
       </c>
       <c r="M24">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N24">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O24">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P24">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q24">
-        <v>1281335.125</v>
+        <v>1495405.25</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4358,46 +4358,46 @@
         <v>0</v>
       </c>
       <c r="D25">
+        <v>281513.46875</v>
+      </c>
+      <c r="E25">
+        <v>182376.96875</v>
+      </c>
+      <c r="F25">
         <v>475154.09375</v>
       </c>
-      <c r="E25">
-        <v>398869.65625</v>
-      </c>
-      <c r="F25">
-        <v>355610.46875</v>
-      </c>
       <c r="G25">
-        <v>302516.625</v>
+        <v>399336.71875</v>
       </c>
       <c r="H25">
-        <v>267721.4375</v>
+        <v>355612.625</v>
       </c>
       <c r="I25">
-        <v>281332.46875</v>
+        <v>355617.6875</v>
       </c>
       <c r="J25">
-        <v>282996.84375</v>
+        <v>169303.625</v>
       </c>
       <c r="K25">
-        <v>298453.75</v>
+        <v>186519.5625</v>
       </c>
       <c r="L25">
-        <v>279305.53125</v>
+        <v>196176.234375</v>
       </c>
       <c r="M25">
-        <v>203793.4661234841</v>
+        <v>261442.1682120542</v>
       </c>
       <c r="N25">
-        <v>200819.5619230769</v>
+        <v>261097.6581665418</v>
       </c>
       <c r="O25">
-        <v>199300.046875</v>
+        <v>261493.984375</v>
       </c>
       <c r="P25">
-        <v>226226.1367020275</v>
+        <v>249551.4486404071</v>
       </c>
       <c r="Q25">
-        <v>843302.75</v>
+        <v>56630.4765625</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4411,46 +4411,46 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <v>282001.1875</v>
+      </c>
+      <c r="E26">
+        <v>200338.71875</v>
+      </c>
+      <c r="F26">
         <v>491280</v>
       </c>
-      <c r="E26">
-        <v>369817.1875</v>
-      </c>
-      <c r="F26">
-        <v>355613.59375</v>
-      </c>
       <c r="G26">
-        <v>307784.4375</v>
+        <v>370275.6875</v>
       </c>
       <c r="H26">
-        <v>242607.53125</v>
+        <v>355612.625</v>
       </c>
       <c r="I26">
-        <v>256817.71875</v>
+        <v>355618.03125</v>
       </c>
       <c r="J26">
-        <v>271610.28125</v>
+        <v>189694.34375</v>
       </c>
       <c r="K26">
-        <v>285214.4375</v>
+        <v>191830.34375</v>
       </c>
       <c r="L26">
-        <v>265425.625</v>
+        <v>231433.5</v>
       </c>
       <c r="M26">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N26">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O26">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P26">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q26">
-        <v>2897637.5</v>
+        <v>609141</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4464,46 +4464,46 @@
         <v>0</v>
       </c>
       <c r="D27">
+        <v>298931.78125</v>
+      </c>
+      <c r="E27">
+        <v>283178.96875</v>
+      </c>
+      <c r="F27">
         <v>506157.03125</v>
       </c>
-      <c r="E27">
-        <v>518501.875</v>
-      </c>
-      <c r="F27">
-        <v>355610.75</v>
-      </c>
       <c r="G27">
-        <v>326639.40625</v>
+        <v>517799.375</v>
       </c>
       <c r="H27">
-        <v>262644.8125</v>
+        <v>355612.78125</v>
       </c>
       <c r="I27">
-        <v>291240.0625</v>
+        <v>355610.65625</v>
       </c>
       <c r="J27">
-        <v>299556.6875</v>
+        <v>270094.90625</v>
       </c>
       <c r="K27">
-        <v>312349.8125</v>
+        <v>235413.484375</v>
       </c>
       <c r="L27">
-        <v>286434.375</v>
+        <v>247145.515625</v>
       </c>
       <c r="M27">
-        <v>269033.5724765855</v>
+        <v>270750.7947298117</v>
       </c>
       <c r="N27">
-        <v>269498.0666484387</v>
+        <v>270795.9096293317</v>
       </c>
       <c r="O27">
-        <v>269975.4375</v>
+        <v>270722.8125</v>
       </c>
       <c r="P27">
-        <v>268601.0282938047</v>
+        <v>268480.4249148034</v>
       </c>
       <c r="Q27">
-        <v>1962935.25</v>
+        <v>1237652.25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4517,46 +4517,46 @@
         <v>0</v>
       </c>
       <c r="D28">
+        <v>294951.03125</v>
+      </c>
+      <c r="E28">
+        <v>249117.4375</v>
+      </c>
+      <c r="F28">
         <v>499025.59375</v>
       </c>
-      <c r="E28">
-        <v>324472.59375</v>
-      </c>
-      <c r="F28">
-        <v>355610.25</v>
-      </c>
       <c r="G28">
-        <v>349503.625</v>
+        <v>323554.03125</v>
       </c>
       <c r="H28">
-        <v>261285.640625</v>
+        <v>355613.4375</v>
       </c>
       <c r="I28">
-        <v>284083</v>
+        <v>355626.53125</v>
       </c>
       <c r="J28">
-        <v>270759.375</v>
+        <v>216612.28125</v>
       </c>
       <c r="K28">
-        <v>292466.65625</v>
+        <v>239569.015625</v>
       </c>
       <c r="L28">
-        <v>270888.625</v>
+        <v>240587.984375</v>
       </c>
       <c r="M28">
-        <v>150102.5821602056</v>
+        <v>173403.8976939312</v>
       </c>
       <c r="N28">
-        <v>136931.1039365079</v>
+        <v>182496.6705670996</v>
       </c>
       <c r="O28">
-        <v>100645.4765625</v>
+        <v>172320.53125</v>
       </c>
       <c r="P28">
-        <v>214953.1437654258</v>
+        <v>237648.4086072822</v>
       </c>
       <c r="Q28">
-        <v>2159371</v>
+        <v>36731.71484375</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4570,46 +4570,46 @@
         <v>0</v>
       </c>
       <c r="D29">
+        <v>197563.953125</v>
+      </c>
+      <c r="E29">
+        <v>184634.53125</v>
+      </c>
+      <c r="F29">
         <v>501652.3125</v>
       </c>
-      <c r="E29">
-        <v>439667.5625</v>
-      </c>
-      <c r="F29">
-        <v>355611.5625</v>
-      </c>
       <c r="G29">
-        <v>373942</v>
+        <v>441366.6875</v>
       </c>
       <c r="H29">
-        <v>244912.28125</v>
+        <v>355612.4375</v>
       </c>
       <c r="I29">
-        <v>258124.9375</v>
+        <v>355622.78125</v>
       </c>
       <c r="J29">
-        <v>264738.40625</v>
+        <v>202928.203125</v>
       </c>
       <c r="K29">
-        <v>282685.375</v>
+        <v>217717.34375</v>
       </c>
       <c r="L29">
-        <v>273928.6875</v>
+        <v>229985.234375</v>
       </c>
       <c r="M29">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N29">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O29">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P29">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q29">
-        <v>2034838</v>
+        <v>2132014.25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4623,46 +4623,46 @@
         <v>0</v>
       </c>
       <c r="D30">
+        <v>260435.046875</v>
+      </c>
+      <c r="E30">
+        <v>227919.875</v>
+      </c>
+      <c r="F30">
         <v>509456.28125</v>
       </c>
-      <c r="E30">
-        <v>483706.6875</v>
-      </c>
-      <c r="F30">
-        <v>355612.25</v>
-      </c>
       <c r="G30">
-        <v>355643.34375</v>
+        <v>482870.8125</v>
       </c>
       <c r="H30">
-        <v>297752.46875</v>
+        <v>355612.03125</v>
       </c>
       <c r="I30">
-        <v>314021.5</v>
+        <v>355625</v>
       </c>
       <c r="J30">
-        <v>310348.25</v>
+        <v>277406.59375</v>
       </c>
       <c r="K30">
-        <v>341845.875</v>
+        <v>297811.71875</v>
       </c>
       <c r="L30">
-        <v>305277.375</v>
+        <v>246715.65625</v>
       </c>
       <c r="M30">
-        <v>226443.8352579285</v>
+        <v>216137.1351335511</v>
       </c>
       <c r="N30">
-        <v>230390.7080714285</v>
+        <v>218460.0430266955</v>
       </c>
       <c r="O30">
-        <v>231324.953125</v>
+        <v>215969.03125</v>
       </c>
       <c r="P30">
-        <v>226226.1367020275</v>
+        <v>249551.4486404071</v>
       </c>
       <c r="Q30">
-        <v>1749315.25</v>
+        <v>457949.625</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4676,46 +4676,46 @@
         <v>0</v>
       </c>
       <c r="D31">
+        <v>108690.515625</v>
+      </c>
+      <c r="E31">
+        <v>150509.640625</v>
+      </c>
+      <c r="F31">
         <v>509330.71875</v>
       </c>
-      <c r="E31">
-        <v>304092</v>
-      </c>
-      <c r="F31">
-        <v>355613.96875</v>
-      </c>
       <c r="G31">
-        <v>314963.53125</v>
+        <v>301612.3125</v>
       </c>
       <c r="H31">
-        <v>191077.125</v>
+        <v>355613.84375</v>
       </c>
       <c r="I31">
-        <v>228001.375</v>
+        <v>355606.53125</v>
       </c>
       <c r="J31">
-        <v>238221.21875</v>
+        <v>200711.0625</v>
       </c>
       <c r="K31">
-        <v>251173.109375</v>
+        <v>196142.375</v>
       </c>
       <c r="L31">
-        <v>237448.765625</v>
+        <v>242904.671875</v>
       </c>
       <c r="M31">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N31">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O31">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P31">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q31">
-        <v>-2161278.5</v>
+        <v>-1127191.75</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4729,46 +4729,46 @@
         <v>0</v>
       </c>
       <c r="D32">
+        <v>154684.171875</v>
+      </c>
+      <c r="E32">
+        <v>181767.90625</v>
+      </c>
+      <c r="F32">
         <v>511132.875</v>
       </c>
-      <c r="E32">
-        <v>387848.59375</v>
-      </c>
-      <c r="F32">
-        <v>355612.65625</v>
-      </c>
       <c r="G32">
-        <v>310638.6875</v>
+        <v>384794.1875</v>
       </c>
       <c r="H32">
-        <v>243044.0625</v>
+        <v>355611.8125</v>
       </c>
       <c r="I32">
-        <v>259286.1875</v>
+        <v>355612</v>
       </c>
       <c r="J32">
-        <v>258141.0625</v>
+        <v>241225.8125</v>
       </c>
       <c r="K32">
-        <v>277488.25</v>
+        <v>246319.15625</v>
       </c>
       <c r="L32">
-        <v>252814.25</v>
+        <v>233824.59375</v>
       </c>
       <c r="M32">
-        <v>258106.5836011845</v>
+        <v>268328.1688250133</v>
       </c>
       <c r="N32">
-        <v>243297.5723333333</v>
+        <v>278792.082</v>
       </c>
       <c r="O32">
-        <v>244442.765625</v>
+        <v>280532.09375</v>
       </c>
       <c r="P32">
-        <v>214953.1437654258</v>
+        <v>237648.4086072822</v>
       </c>
       <c r="Q32">
-        <v>4849067</v>
+        <v>1861651.125</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4782,46 +4782,46 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>203470.46875</v>
+      </c>
+      <c r="E33">
+        <v>252981.359375</v>
+      </c>
+      <c r="F33">
         <v>514856.78125</v>
       </c>
-      <c r="E33">
-        <v>351109.375</v>
-      </c>
-      <c r="F33">
-        <v>355615.90625</v>
-      </c>
       <c r="G33">
-        <v>331188.125</v>
+        <v>347067.9375</v>
       </c>
       <c r="H33">
-        <v>287398.5</v>
+        <v>355612.8125</v>
       </c>
       <c r="I33">
-        <v>293182.71875</v>
+        <v>355610.9375</v>
       </c>
       <c r="J33">
-        <v>289595.8125</v>
+        <v>301937.0625</v>
       </c>
       <c r="K33">
-        <v>339414.875</v>
+        <v>306263.09375</v>
       </c>
       <c r="L33">
-        <v>293750.125</v>
+        <v>260352.5</v>
       </c>
       <c r="M33">
-        <v>269033.5724765855</v>
+        <v>270750.7947298117</v>
       </c>
       <c r="N33">
-        <v>269498.0666484387</v>
+        <v>270795.9096293317</v>
       </c>
       <c r="O33">
-        <v>269975.4375</v>
+        <v>270722.8125</v>
       </c>
       <c r="P33">
-        <v>268601.0282938047</v>
+        <v>268480.4249148034</v>
       </c>
       <c r="Q33">
-        <v>3824671</v>
+        <v>2282722.25</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4835,46 +4835,46 @@
         <v>0</v>
       </c>
       <c r="D34">
+        <v>126532.390625</v>
+      </c>
+      <c r="E34">
+        <v>225566.890625</v>
+      </c>
+      <c r="F34">
         <v>527009.625</v>
       </c>
-      <c r="E34">
-        <v>367770.875</v>
-      </c>
-      <c r="F34">
-        <v>355612.125</v>
-      </c>
       <c r="G34">
-        <v>340853.375</v>
+        <v>375141.125</v>
       </c>
       <c r="H34">
-        <v>256669.796875</v>
+        <v>355612.59375</v>
       </c>
       <c r="I34">
-        <v>256818.484375</v>
+        <v>355636.84375</v>
       </c>
       <c r="J34">
-        <v>265959.5625</v>
+        <v>236596.84375</v>
       </c>
       <c r="K34">
-        <v>281023.875</v>
+        <v>251635.59375</v>
       </c>
       <c r="L34">
-        <v>283041.03125</v>
+        <v>282126.375</v>
       </c>
       <c r="M34">
-        <v>221791.5053448523</v>
+        <v>230512.2000245222</v>
       </c>
       <c r="N34">
-        <v>222014.9012014867</v>
+        <v>230621.7021154953</v>
       </c>
       <c r="O34">
-        <v>220615.28125</v>
+        <v>230520.4375</v>
       </c>
       <c r="P34">
-        <v>216479.7352479913</v>
+        <v>227914.0592482522</v>
       </c>
       <c r="Q34">
-        <v>12469241</v>
+        <v>-1668144.625</v>
       </c>
     </row>
   </sheetData>
@@ -4941,80 +4941,80 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>20739824247.77759</v>
+        <v>17052932982.61255</v>
       </c>
       <c r="C3">
-        <v>144013.2780259431</v>
+        <v>130586.8790599291</v>
       </c>
       <c r="D3">
-        <v>0.03937784500145004</v>
+        <v>0.03445852360579614</v>
       </c>
       <c r="E3">
-        <v>71385.74739583333</v>
+        <v>69161.98177083333</v>
       </c>
       <c r="F3">
-        <v>0.1346413280127066</v>
+        <v>0.1358441741769414</v>
       </c>
       <c r="G3">
-        <v>40601.96875</v>
+        <v>35348.03125</v>
       </c>
       <c r="H3">
-        <v>0.1158056784650036</v>
+        <v>0.1075150960999802</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>21530728269.97518</v>
+        <v>21541498940.28825</v>
       </c>
       <c r="C4">
-        <v>146733.5281044356</v>
+        <v>146770.2249786661</v>
       </c>
       <c r="D4">
-        <v>0.04122127250719485</v>
+        <v>0.04124676999993158</v>
       </c>
       <c r="E4">
-        <v>74207.76302083333</v>
+        <v>74237.08854166667</v>
       </c>
       <c r="F4">
-        <v>0.1397537506252975</v>
+        <v>0.1398023785672442</v>
       </c>
       <c r="G4">
-        <v>43262.4375</v>
+        <v>43259.15625</v>
       </c>
       <c r="H4">
-        <v>0.1199038597887239</v>
+        <v>0.1201320114282653</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>18572614049.11637</v>
+        <v>18538763643.71069</v>
       </c>
       <c r="C5">
-        <v>136281.3782184359</v>
+        <v>136157.128508612</v>
       </c>
       <c r="D5">
-        <v>0.04065792418229546</v>
+        <v>0.04050321146637587</v>
       </c>
       <c r="E5">
-        <v>75480.90104166667</v>
+        <v>75748.36197916667</v>
       </c>
       <c r="F5">
-        <v>0.1528575605236591</v>
+        <v>0.1535704538491745</v>
       </c>
       <c r="G5">
-        <v>43233.796875</v>
+        <v>43686.1875</v>
       </c>
       <c r="H5">
-        <v>0.1160599034560823</v>
+        <v>0.1152650649694626</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5022,259 +5022,259 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>34642538335.49038</v>
+        <v>18654107570.96468</v>
       </c>
       <c r="C6">
-        <v>186125.0610086948</v>
+        <v>136580.0408953105</v>
       </c>
       <c r="D6">
-        <v>0.1154435822636355</v>
+        <v>0.03989433071307884</v>
       </c>
       <c r="E6">
-        <v>142458.2356770833</v>
+        <v>76661.69791666667</v>
       </c>
       <c r="F6">
-        <v>0.3238306440513146</v>
+        <v>0.1542555340395485</v>
       </c>
       <c r="G6">
-        <v>113886.234375</v>
+        <v>48797.609375</v>
       </c>
       <c r="H6">
-        <v>0.3036092792242709</v>
+        <v>0.1295374982798744</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>36249208687.36847</v>
+        <v>16323256852.21851</v>
       </c>
       <c r="C7">
-        <v>190392.2495464783</v>
+        <v>127762.5017453028</v>
       </c>
       <c r="D7">
-        <v>0.1229096921602961</v>
+        <v>0.0356606567322609</v>
       </c>
       <c r="E7">
-        <v>146539.8033854167</v>
+        <v>73418.50260416667</v>
       </c>
       <c r="F7">
-        <v>0.3345352642260004</v>
+        <v>0.150946722107585</v>
       </c>
       <c r="G7">
-        <v>112024.2421875</v>
+        <v>47011.171875</v>
       </c>
       <c r="H7">
-        <v>0.3168385249245464</v>
+        <v>0.1346391681159299</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>38276684318.53595</v>
+        <v>20022422940.8042</v>
       </c>
       <c r="C8">
-        <v>195644.2800557582</v>
+        <v>141500.6110969285</v>
       </c>
       <c r="D8">
-        <v>0.1328548160524425</v>
+        <v>0.05029053432770562</v>
       </c>
       <c r="E8">
-        <v>152549.9440104167</v>
+        <v>88383.66666666667</v>
       </c>
       <c r="F8">
-        <v>0.3497546747513998</v>
+        <v>0.1877949554565796</v>
       </c>
       <c r="G8">
-        <v>117882.21875</v>
+        <v>56893.703125</v>
       </c>
       <c r="H8">
-        <v>0.3306176629583353</v>
+        <v>0.1651981664869723</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>40050622294.94285</v>
+        <v>22307324133.80867</v>
       </c>
       <c r="C9">
-        <v>200126.5157217875</v>
+        <v>149356.3662312681</v>
       </c>
       <c r="D9">
-        <v>0.1433243358490246</v>
+        <v>0.06425703380220052</v>
       </c>
       <c r="E9">
-        <v>158230.8528645833</v>
+        <v>102070.2682291667</v>
       </c>
       <c r="F9">
-        <v>0.3652804943444793</v>
+        <v>0.2224627194295674</v>
       </c>
       <c r="G9">
-        <v>127553.65625</v>
+        <v>68825.84375</v>
       </c>
       <c r="H9">
-        <v>0.3480054351708012</v>
+        <v>0.1935057839625825</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>47281036093.87399</v>
+        <v>43023567956.23386</v>
       </c>
       <c r="C10">
-        <v>217442.029271882</v>
+        <v>207421.2331373861</v>
       </c>
       <c r="D10">
-        <v>0.1728235975556741</v>
+        <v>0.156477993624763</v>
       </c>
       <c r="E10">
-        <v>173569.6536458333</v>
+        <v>165240.0647541744</v>
       </c>
       <c r="F10">
-        <v>0.4019103304696799</v>
+        <v>0.3819544627626711</v>
       </c>
       <c r="G10">
-        <v>136271.3671875</v>
+        <v>132740.4041052991</v>
       </c>
       <c r="H10">
-        <v>0.3894354884531631</v>
+        <v>0.3570869501560232</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>47687423446.60449</v>
+        <v>43728990878.16383</v>
       </c>
       <c r="C11">
-        <v>218374.5027392266</v>
+        <v>209114.779195933</v>
       </c>
       <c r="D11">
-        <v>0.1831427657546531</v>
+        <v>0.159178928300034</v>
       </c>
       <c r="E11">
-        <v>177010.4736167154</v>
+        <v>166747.9686953411</v>
       </c>
       <c r="F11">
-        <v>0.4137353945087603</v>
+        <v>0.3852587986862296</v>
       </c>
       <c r="G11">
-        <v>139117.8644073562</v>
+        <v>133339.5620469793</v>
       </c>
       <c r="H11">
-        <v>0.3980025503847209</v>
+        <v>0.3552948337615426</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>47843972098.72556</v>
+        <v>43914247639.26597</v>
       </c>
       <c r="C12">
-        <v>218732.6498233073</v>
+        <v>209557.2657754103</v>
       </c>
       <c r="D12">
-        <v>0.1905427855168422</v>
+        <v>0.1602635188836329</v>
       </c>
       <c r="E12">
-        <v>181198.1752365486</v>
+        <v>167359.4778645833</v>
       </c>
       <c r="F12">
-        <v>0.4266919041191881</v>
+        <v>0.3867479434392855</v>
       </c>
       <c r="G12">
-        <v>142435.8363888138</v>
+        <v>133255.4453125</v>
       </c>
       <c r="H12">
-        <v>0.3898326815582217</v>
+        <v>0.3597399592639525</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>48423814682.33453</v>
+        <v>43479384079.41467</v>
       </c>
       <c r="C13">
-        <v>220054.1176218581</v>
+        <v>208517.1074022817</v>
       </c>
       <c r="D13">
-        <v>0.1866744497408669</v>
+        <v>0.1628356456366253</v>
       </c>
       <c r="E13">
-        <v>178668.2571352382</v>
+        <v>168150.3803024797</v>
       </c>
       <c r="F13">
-        <v>0.4173853425763671</v>
+        <v>0.3903191112397602</v>
       </c>
       <c r="G13">
-        <v>145806.5657425908</v>
+        <v>134138.4637471381</v>
       </c>
       <c r="H13">
-        <v>0.405883904466373</v>
+        <v>0.3636488703631127</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>50060025782.77866</v>
+        <v>84269335734.80461</v>
       </c>
       <c r="C14">
-        <v>223740.979221015</v>
+        <v>290291.8113464529</v>
       </c>
       <c r="D14">
-        <v>0.195080451375112</v>
+        <v>0.5666778379736662</v>
       </c>
       <c r="E14">
-        <v>181643.0091145833</v>
+        <v>215952.0651041667</v>
       </c>
       <c r="F14">
-        <v>0.4243611051310675</v>
+        <v>0.5445003640385824</v>
       </c>
       <c r="G14">
-        <v>140610.9453125</v>
+        <v>94194.46875</v>
       </c>
       <c r="H14">
-        <v>0.4084738872304106</v>
+        <v>0.2755219608998272</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>209584467570.3126</v>
+        <v>299273934370.4168</v>
       </c>
       <c r="C15">
-        <v>457803.9619425684</v>
+        <v>547059.3517804232</v>
       </c>
       <c r="D15">
-        <v>1.104567443737948</v>
+        <v>2.536073576107508</v>
       </c>
       <c r="E15">
-        <v>379758.9661458333</v>
+        <v>417250.255859375</v>
       </c>
       <c r="F15">
-        <v>0.9375818264389753</v>
+        <v>1.115494772091466</v>
       </c>
       <c r="G15">
-        <v>352940.21875</v>
+        <v>332260.8125</v>
       </c>
       <c r="H15">
-        <v>0.9984321998675685</v>
+        <v>0.7091649568835052</v>
       </c>
     </row>
   </sheetData>
@@ -5304,43 +5304,43 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5357,43 +5357,43 @@
         <v>342253.40625</v>
       </c>
       <c r="E2">
-        <v>345459.15625</v>
+        <v>269107.65625</v>
       </c>
       <c r="F2">
-        <v>339290.03125</v>
+        <v>339198.9375</v>
       </c>
       <c r="G2">
-        <v>364590.03125</v>
+        <v>364307.15625</v>
       </c>
       <c r="H2">
-        <v>222524.4375</v>
+        <v>274561.03125</v>
       </c>
       <c r="I2">
-        <v>216679.703125</v>
+        <v>273173.34375</v>
       </c>
       <c r="J2">
-        <v>217535.765625</v>
+        <v>273511.5</v>
       </c>
       <c r="K2">
-        <v>199957.375</v>
+        <v>252859.6875</v>
       </c>
       <c r="L2">
-        <v>197079.796875</v>
+        <v>210812.083151283</v>
       </c>
       <c r="M2">
-        <v>188020.0205654948</v>
+        <v>211498.2871372222</v>
       </c>
       <c r="N2">
-        <v>186058.1692558845</v>
+        <v>211467.15625</v>
       </c>
       <c r="O2">
-        <v>187183.3815785604</v>
+        <v>212467.6171733998</v>
       </c>
       <c r="P2">
-        <v>186858.078125</v>
+        <v>391509.84375</v>
       </c>
       <c r="Q2">
-        <v>-112289.484375</v>
+        <v>297620.59375</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5410,43 +5410,43 @@
         <v>341750.09375</v>
       </c>
       <c r="E3">
-        <v>345760.09375</v>
+        <v>394854.15625</v>
       </c>
       <c r="F3">
-        <v>339289.84375</v>
+        <v>339197.53125</v>
       </c>
       <c r="G3">
-        <v>380739.59375</v>
+        <v>381079.15625</v>
       </c>
       <c r="H3">
-        <v>292474.6875</v>
+        <v>379733.90625</v>
       </c>
       <c r="I3">
-        <v>282931.6875</v>
+        <v>408867.9375</v>
       </c>
       <c r="J3">
-        <v>274012.90625</v>
+        <v>377805.8125</v>
       </c>
       <c r="K3">
-        <v>267301.5625</v>
+        <v>375129</v>
       </c>
       <c r="L3">
-        <v>226597.234375</v>
+        <v>253405.8507111223</v>
       </c>
       <c r="M3">
-        <v>236039.7116089126</v>
+        <v>249790.183399469</v>
       </c>
       <c r="N3">
-        <v>247072.1579664879</v>
+        <v>249737.390625</v>
       </c>
       <c r="O3">
-        <v>234406.9771491842</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P3">
-        <v>231223.359375</v>
+        <v>391510.15625</v>
       </c>
       <c r="Q3">
-        <v>-196126.140625</v>
+        <v>178610.484375</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5463,43 +5463,43 @@
         <v>347997.5625</v>
       </c>
       <c r="E4">
-        <v>346076.46875</v>
+        <v>308823.9375</v>
       </c>
       <c r="F4">
-        <v>339289.46875</v>
+        <v>339196.5625</v>
       </c>
       <c r="G4">
-        <v>353048.875</v>
+        <v>354928.28125</v>
       </c>
       <c r="H4">
-        <v>239139.46875</v>
+        <v>321837.53125</v>
       </c>
       <c r="I4">
-        <v>235566.8125</v>
+        <v>303795.21875</v>
       </c>
       <c r="J4">
-        <v>225637.046875</v>
+        <v>290931.65625</v>
       </c>
       <c r="K4">
-        <v>221230.3125</v>
+        <v>306614.90625</v>
       </c>
       <c r="L4">
-        <v>206672.46875</v>
+        <v>223617.3376479354</v>
       </c>
       <c r="M4">
-        <v>211988.8750972823</v>
+        <v>227868.7648969614</v>
       </c>
       <c r="N4">
-        <v>217145.9842669504</v>
+        <v>227698.59375</v>
       </c>
       <c r="O4">
-        <v>206491.0428957709</v>
+        <v>223858.5740837812</v>
       </c>
       <c r="P4">
-        <v>208215.03125</v>
+        <v>382308.90625</v>
       </c>
       <c r="Q4">
-        <v>752398.0625</v>
+        <v>-196507.71875</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5516,43 +5516,43 @@
         <v>350960.8125</v>
       </c>
       <c r="E5">
-        <v>346407.6875</v>
+        <v>320342.78125</v>
       </c>
       <c r="F5">
-        <v>339290.75</v>
+        <v>339195.21875</v>
       </c>
       <c r="G5">
-        <v>347116.53125</v>
+        <v>347881</v>
       </c>
       <c r="H5">
-        <v>232631.96875</v>
+        <v>310201.03125</v>
       </c>
       <c r="I5">
-        <v>229171.28125</v>
+        <v>315241.53125</v>
       </c>
       <c r="J5">
-        <v>222863.578125</v>
+        <v>317725.5</v>
       </c>
       <c r="K5">
-        <v>214387.515625</v>
+        <v>312715.78125</v>
       </c>
       <c r="L5">
-        <v>195640.453125</v>
+        <v>216051.7073358846</v>
       </c>
       <c r="M5">
-        <v>185041.232644487</v>
+        <v>217906.5141170374</v>
       </c>
       <c r="N5">
-        <v>188263.410198064</v>
+        <v>217951.984375</v>
       </c>
       <c r="O5">
-        <v>188135.6153014209</v>
+        <v>216893.9255926207</v>
       </c>
       <c r="P5">
-        <v>187813.0625</v>
+        <v>361276.40625</v>
       </c>
       <c r="Q5">
-        <v>608068.9375</v>
+        <v>-987250</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5569,43 +5569,43 @@
         <v>350269.0625</v>
       </c>
       <c r="E6">
-        <v>346764.8125</v>
+        <v>375159.875</v>
       </c>
       <c r="F6">
-        <v>339291.65625</v>
+        <v>339200.875</v>
       </c>
       <c r="G6">
-        <v>360025.53125</v>
+        <v>359554.65625</v>
       </c>
       <c r="H6">
-        <v>279428.34375</v>
+        <v>372418.0625</v>
       </c>
       <c r="I6">
-        <v>277189</v>
+        <v>384083.3125</v>
       </c>
       <c r="J6">
-        <v>267291.625</v>
+        <v>362530.625</v>
       </c>
       <c r="K6">
-        <v>263964.3125</v>
+        <v>331855.625</v>
       </c>
       <c r="L6">
-        <v>244350.84375</v>
+        <v>253405.8507111223</v>
       </c>
       <c r="M6">
-        <v>236039.7116089126</v>
+        <v>249790.183399469</v>
       </c>
       <c r="N6">
-        <v>247072.1579664879</v>
+        <v>249737.390625</v>
       </c>
       <c r="O6">
-        <v>234406.9771491842</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P6">
-        <v>231223.359375</v>
+        <v>340243.875</v>
       </c>
       <c r="Q6">
-        <v>760566</v>
+        <v>-363916.625</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -5622,43 +5622,43 @@
         <v>354627.25</v>
       </c>
       <c r="E7">
-        <v>347133.4375</v>
+        <v>333766.8125</v>
       </c>
       <c r="F7">
-        <v>339292.09375</v>
+        <v>339198.25</v>
       </c>
       <c r="G7">
-        <v>319651.375</v>
+        <v>318704.375</v>
       </c>
       <c r="H7">
-        <v>239219.140625</v>
+        <v>320888.8125</v>
       </c>
       <c r="I7">
-        <v>236934.71875</v>
+        <v>290671.40625</v>
       </c>
       <c r="J7">
-        <v>225540.515625</v>
+        <v>308281.34375</v>
       </c>
       <c r="K7">
-        <v>229466.65625</v>
+        <v>293316.34375</v>
       </c>
       <c r="L7">
-        <v>211259.75</v>
+        <v>225140.8838333334</v>
       </c>
       <c r="M7">
-        <v>252507.3195576054</v>
+        <v>217403.7170137461</v>
       </c>
       <c r="N7">
-        <v>214940.743324771</v>
+        <v>217315.03125</v>
       </c>
       <c r="O7">
-        <v>256047.8406666667</v>
+        <v>212055.5256222514</v>
       </c>
       <c r="P7">
-        <v>255243.6875</v>
+        <v>319211.40625</v>
       </c>
       <c r="Q7">
-        <v>874052.1875</v>
+        <v>122913.2421875</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -5675,43 +5675,43 @@
         <v>367159.28125</v>
       </c>
       <c r="E8">
-        <v>347524</v>
+        <v>352521.75</v>
       </c>
       <c r="F8">
-        <v>339289.71875</v>
+        <v>339202.5</v>
       </c>
       <c r="G8">
-        <v>365718.1875</v>
+        <v>366837.09375</v>
       </c>
       <c r="H8">
-        <v>279831.0625</v>
+        <v>363419.75</v>
       </c>
       <c r="I8">
-        <v>275022.8125</v>
+        <v>376771.25</v>
       </c>
       <c r="J8">
-        <v>264007.625</v>
+        <v>336569.75</v>
       </c>
       <c r="K8">
-        <v>261411.53125</v>
+        <v>347681.4375</v>
       </c>
       <c r="L8">
-        <v>238042.65625</v>
+        <v>271522.8541414664</v>
       </c>
       <c r="M8">
-        <v>239620.3036189576</v>
+        <v>264827.7096141074</v>
       </c>
       <c r="N8">
-        <v>247072.1579664879</v>
+        <v>257612.25</v>
       </c>
       <c r="O8">
-        <v>230345.7111904762</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P8">
-        <v>182258.15625</v>
+        <v>350849.84375</v>
       </c>
       <c r="Q8">
-        <v>222106.15625</v>
+        <v>511392.65625</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5728,43 +5728,43 @@
         <v>373114.96875</v>
       </c>
       <c r="E9">
-        <v>347924.71875</v>
+        <v>310333.5625</v>
       </c>
       <c r="F9">
-        <v>339287.875</v>
+        <v>339198.90625</v>
       </c>
       <c r="G9">
-        <v>421120.78125</v>
+        <v>423144.46875</v>
       </c>
       <c r="H9">
-        <v>261064.609375</v>
+        <v>317233.5</v>
       </c>
       <c r="I9">
-        <v>251965.03125</v>
+        <v>340267.375</v>
       </c>
       <c r="J9">
-        <v>250764.796875</v>
+        <v>298821.3125</v>
       </c>
       <c r="K9">
-        <v>239286.265625</v>
+        <v>284527.8125</v>
       </c>
       <c r="L9">
-        <v>222805.34375</v>
+        <v>209040.789851892</v>
       </c>
       <c r="M9">
-        <v>181092.6954715423</v>
+        <v>208125.4253627281</v>
       </c>
       <c r="N9">
-        <v>193152.0614021899</v>
+        <v>208108.25</v>
       </c>
       <c r="O9">
-        <v>179744.6474663025</v>
+        <v>208735.8894848689</v>
       </c>
       <c r="P9">
-        <v>177912.75</v>
+        <v>498362.53125</v>
       </c>
       <c r="Q9">
-        <v>720942.4375</v>
+        <v>823681.375</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -5781,43 +5781,43 @@
         <v>372208.34375</v>
       </c>
       <c r="E10">
-        <v>348345.25</v>
+        <v>321776.5</v>
       </c>
       <c r="F10">
-        <v>339290.25</v>
+        <v>339196.84375</v>
       </c>
       <c r="G10">
-        <v>440640.5</v>
+        <v>437528.03125</v>
       </c>
       <c r="H10">
-        <v>245595.15625</v>
+        <v>316248.59375</v>
       </c>
       <c r="I10">
-        <v>241706.484375</v>
+        <v>297988.3125</v>
       </c>
       <c r="J10">
-        <v>241559.65625</v>
+        <v>293949.9375</v>
       </c>
       <c r="K10">
-        <v>233373.453125</v>
+        <v>297541.875</v>
       </c>
       <c r="L10">
-        <v>231816.671875</v>
+        <v>222720.6520407648</v>
       </c>
       <c r="M10">
-        <v>230323.3181638079</v>
+        <v>223906.6925065724</v>
       </c>
       <c r="N10">
-        <v>214940.743324771</v>
+        <v>224127.71875</v>
       </c>
       <c r="O10">
-        <v>234366.5366327839</v>
+        <v>212055.5256222514</v>
       </c>
       <c r="P10">
-        <v>236803.4375</v>
+        <v>645874.8125</v>
       </c>
       <c r="Q10">
-        <v>479666.5625</v>
+        <v>367762.65625</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -5834,43 +5834,43 @@
         <v>380676.90625</v>
       </c>
       <c r="E11">
-        <v>348788.71875</v>
+        <v>342849.5625</v>
       </c>
       <c r="F11">
-        <v>339290.0625</v>
+        <v>339203.15625</v>
       </c>
       <c r="G11">
-        <v>344638.3125</v>
+        <v>340316.09375</v>
       </c>
       <c r="H11">
-        <v>276135.0625</v>
+        <v>322604.0625</v>
       </c>
       <c r="I11">
-        <v>294887.875</v>
+        <v>329262.40625</v>
       </c>
       <c r="J11">
-        <v>282861.25</v>
+        <v>317323.6875</v>
       </c>
       <c r="K11">
-        <v>270174.53125</v>
+        <v>294195.40625</v>
       </c>
       <c r="L11">
-        <v>268134.5625</v>
+        <v>253405.8507111223</v>
       </c>
       <c r="M11">
-        <v>236039.7116089126</v>
+        <v>249790.183399469</v>
       </c>
       <c r="N11">
-        <v>247072.1579664879</v>
+        <v>249737.390625</v>
       </c>
       <c r="O11">
-        <v>234406.9771491842</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P11">
-        <v>231223.359375</v>
+        <v>793387.3125</v>
       </c>
       <c r="Q11">
-        <v>-237850.046875</v>
+        <v>-174817.421875</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -5887,43 +5887,43 @@
         <v>381819.3125</v>
       </c>
       <c r="E12">
-        <v>349243.40625</v>
+        <v>393597.1875</v>
       </c>
       <c r="F12">
-        <v>339293.40625</v>
+        <v>339198.21875</v>
       </c>
       <c r="G12">
-        <v>363434.03125</v>
+        <v>364322.15625</v>
       </c>
       <c r="H12">
-        <v>270742.84375</v>
+        <v>351228.59375</v>
       </c>
       <c r="I12">
-        <v>259989.375</v>
+        <v>363920.4375</v>
       </c>
       <c r="J12">
-        <v>257107.015625</v>
+        <v>372552.0625</v>
       </c>
       <c r="K12">
-        <v>262532.375</v>
+        <v>283599.125</v>
       </c>
       <c r="L12">
-        <v>235368.296875</v>
+        <v>247555.2796626984</v>
       </c>
       <c r="M12">
-        <v>271513.3960880052</v>
+        <v>246990.4276719031</v>
       </c>
       <c r="N12">
-        <v>217145.9842669504</v>
+        <v>247097.953125</v>
       </c>
       <c r="O12">
-        <v>263633.8256190476</v>
+        <v>223858.5740837812</v>
       </c>
       <c r="P12">
-        <v>285023.53125</v>
+        <v>904493</v>
       </c>
       <c r="Q12">
-        <v>392716.71875</v>
+        <v>191341.75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -5940,43 +5940,43 @@
         <v>389194.125</v>
       </c>
       <c r="E13">
-        <v>349717.65625</v>
+        <v>283252</v>
       </c>
       <c r="F13">
-        <v>339296.5625</v>
+        <v>339201.25</v>
       </c>
       <c r="G13">
-        <v>348381.125</v>
+        <v>346924.9375</v>
       </c>
       <c r="H13">
-        <v>232086.390625</v>
+        <v>245730.8125</v>
       </c>
       <c r="I13">
-        <v>219849.578125</v>
+        <v>261062.5</v>
       </c>
       <c r="J13">
-        <v>220590.890625</v>
+        <v>220487.8125</v>
       </c>
       <c r="K13">
-        <v>218515.875</v>
+        <v>216195.34375</v>
       </c>
       <c r="L13">
-        <v>219768.078125</v>
+        <v>210812.083151283</v>
       </c>
       <c r="M13">
-        <v>188020.0205654948</v>
+        <v>211498.2871372222</v>
       </c>
       <c r="N13">
-        <v>186058.1692558845</v>
+        <v>211467.15625</v>
       </c>
       <c r="O13">
-        <v>187183.3815785604</v>
+        <v>212467.6171733998</v>
       </c>
       <c r="P13">
-        <v>186858.078125</v>
+        <v>857837.25</v>
       </c>
       <c r="Q13">
-        <v>144535.390625</v>
+        <v>489664.6875</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -5993,43 +5993,43 @@
         <v>402637.25</v>
       </c>
       <c r="E14">
-        <v>350208.84375</v>
+        <v>302537.4375</v>
       </c>
       <c r="F14">
-        <v>339299.5</v>
+        <v>339199.90625</v>
       </c>
       <c r="G14">
-        <v>347582.75</v>
+        <v>351005.53125</v>
       </c>
       <c r="H14">
-        <v>267445.90625</v>
+        <v>298316.15625</v>
       </c>
       <c r="I14">
-        <v>273089.1875</v>
+        <v>303024.8125</v>
       </c>
       <c r="J14">
-        <v>258298.65625</v>
+        <v>221919</v>
       </c>
       <c r="K14">
-        <v>264457.90625</v>
+        <v>225370.8125</v>
       </c>
       <c r="L14">
-        <v>259163.078125</v>
+        <v>267728.2691335159</v>
       </c>
       <c r="M14">
-        <v>228887.9993230705</v>
+        <v>263200.6114897614</v>
       </c>
       <c r="N14">
-        <v>247072.1579664879</v>
+        <v>263289.40625</v>
       </c>
       <c r="O14">
-        <v>236201.3410122654</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P14">
-        <v>233539.125</v>
+        <v>811181.4375</v>
       </c>
       <c r="Q14">
-        <v>458461.1875</v>
+        <v>179002.78125</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -6046,43 +6046,43 @@
         <v>400509.5625</v>
       </c>
       <c r="E15">
-        <v>350718.96875</v>
+        <v>365188.40625</v>
       </c>
       <c r="F15">
-        <v>339301.84375</v>
+        <v>339202.71875</v>
       </c>
       <c r="G15">
-        <v>352543.03125</v>
+        <v>350827.125</v>
       </c>
       <c r="H15">
-        <v>288035.96875</v>
+        <v>351175.34375</v>
       </c>
       <c r="I15">
-        <v>293340.21875</v>
+        <v>335010.40625</v>
       </c>
       <c r="J15">
-        <v>273510.4375</v>
+        <v>288648.5</v>
       </c>
       <c r="K15">
-        <v>281039.6875</v>
+        <v>260963.90625</v>
       </c>
       <c r="L15">
-        <v>276969.0625</v>
+        <v>271451.1483614441</v>
       </c>
       <c r="M15">
-        <v>254354.393127704</v>
+        <v>258721.4348835316</v>
       </c>
       <c r="N15">
-        <v>247072.1579664879</v>
+        <v>239583.375</v>
       </c>
       <c r="O15">
-        <v>246906.9511507936</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P15">
-        <v>289482.5</v>
+        <v>764525.625</v>
       </c>
       <c r="Q15">
-        <v>459797.59375</v>
+        <v>-579497.4375</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6099,43 +6099,43 @@
         <v>404242.25</v>
       </c>
       <c r="E16">
-        <v>351244.84375</v>
+        <v>313367.09375</v>
       </c>
       <c r="F16">
-        <v>339296.6875</v>
+        <v>339201.28125</v>
       </c>
       <c r="G16">
-        <v>395110.84375</v>
+        <v>395948.03125</v>
       </c>
       <c r="H16">
-        <v>234323.015625</v>
+        <v>298726.25</v>
       </c>
       <c r="I16">
-        <v>226120.28125</v>
+        <v>278884.4375</v>
       </c>
       <c r="J16">
-        <v>224586.46875</v>
+        <v>221370.5</v>
       </c>
       <c r="K16">
-        <v>225411.484375</v>
+        <v>233952.046875</v>
       </c>
       <c r="L16">
-        <v>224957.796875</v>
+        <v>222720.6520407648</v>
       </c>
       <c r="M16">
-        <v>230323.3181638079</v>
+        <v>223906.6925065724</v>
       </c>
       <c r="N16">
-        <v>214940.743324771</v>
+        <v>224127.71875</v>
       </c>
       <c r="O16">
-        <v>234366.5366327839</v>
+        <v>212055.5256222514</v>
       </c>
       <c r="P16">
-        <v>236803.4375</v>
+        <v>721952.5625</v>
       </c>
       <c r="Q16">
-        <v>504095.03125</v>
+        <v>-619271.125</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -6152,43 +6152,43 @@
         <v>411518.40625</v>
       </c>
       <c r="E17">
-        <v>351788.65625</v>
+        <v>330662.875</v>
       </c>
       <c r="F17">
-        <v>339292.875</v>
+        <v>339202.375</v>
       </c>
       <c r="G17">
-        <v>388496.34375</v>
+        <v>389653.25</v>
       </c>
       <c r="H17">
-        <v>281406.40625</v>
+        <v>346305.125</v>
       </c>
       <c r="I17">
-        <v>278850.625</v>
+        <v>313343</v>
       </c>
       <c r="J17">
-        <v>271686.78125</v>
+        <v>262014.265625</v>
       </c>
       <c r="K17">
-        <v>278023.96875</v>
+        <v>247956.625</v>
       </c>
       <c r="L17">
-        <v>280212.53125</v>
+        <v>215968.0472922648</v>
       </c>
       <c r="M17">
-        <v>225836.4577320142</v>
+        <v>211971.214082048</v>
       </c>
       <c r="N17">
-        <v>193152.0614021899</v>
+        <v>211958.640625</v>
       </c>
       <c r="O17">
-        <v>235575.7194642857</v>
+        <v>208735.8894848689</v>
       </c>
       <c r="P17">
-        <v>234883.09375</v>
+        <v>740615.875</v>
       </c>
       <c r="Q17">
-        <v>1078711.375</v>
+        <v>224381.0625</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -6205,43 +6205,43 @@
         <v>416116.40625</v>
       </c>
       <c r="E18">
-        <v>352349.8125</v>
+        <v>318513.5625</v>
       </c>
       <c r="F18">
-        <v>339292.15625</v>
+        <v>339198.90625</v>
       </c>
       <c r="G18">
-        <v>328382.03125</v>
+        <v>329039.625</v>
       </c>
       <c r="H18">
-        <v>264267.84375</v>
+        <v>306202.3125</v>
       </c>
       <c r="I18">
-        <v>257800.609375</v>
+        <v>307796.8125</v>
       </c>
       <c r="J18">
-        <v>244387.78125</v>
+        <v>250663.65625</v>
       </c>
       <c r="K18">
-        <v>252215.890625</v>
+        <v>237356.546875</v>
       </c>
       <c r="L18">
-        <v>249800.4375</v>
+        <v>223617.3376479354</v>
       </c>
       <c r="M18">
-        <v>211988.8750972823</v>
+        <v>227868.7648969614</v>
       </c>
       <c r="N18">
-        <v>217145.9842669504</v>
+        <v>227698.59375</v>
       </c>
       <c r="O18">
-        <v>206491.0428957709</v>
+        <v>223858.5740837812</v>
       </c>
       <c r="P18">
-        <v>208215.03125</v>
+        <v>759279.3125</v>
       </c>
       <c r="Q18">
-        <v>386577.53125</v>
+        <v>467425.75</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -6258,43 +6258,43 @@
         <v>414572.34375</v>
       </c>
       <c r="E19">
-        <v>352928.90625</v>
+        <v>347004.125</v>
       </c>
       <c r="F19">
-        <v>339292.21875</v>
+        <v>339196.59375</v>
       </c>
       <c r="G19">
-        <v>341654.8125</v>
+        <v>336744.125</v>
       </c>
       <c r="H19">
-        <v>291590</v>
+        <v>347090.90625</v>
       </c>
       <c r="I19">
-        <v>289644.71875</v>
+        <v>301717.78125</v>
       </c>
       <c r="J19">
-        <v>280243.40625</v>
+        <v>254045.546875</v>
       </c>
       <c r="K19">
-        <v>283737.6875</v>
+        <v>245884.890625</v>
       </c>
       <c r="L19">
-        <v>283791.28125</v>
+        <v>241535.0506666667</v>
       </c>
       <c r="M19">
-        <v>271469.2837769453</v>
+        <v>240642.4937632841</v>
       </c>
       <c r="N19">
-        <v>217145.9842669504</v>
+        <v>270783.3125</v>
       </c>
       <c r="O19">
-        <v>258420.31</v>
+        <v>223858.5740837812</v>
       </c>
       <c r="P19">
-        <v>282031.03125</v>
+        <v>777942.6875</v>
       </c>
       <c r="Q19">
-        <v>-212464.09375</v>
+        <v>173102.078125</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -6311,43 +6311,43 @@
         <v>427115.1875</v>
       </c>
       <c r="E20">
-        <v>353523.53125</v>
+        <v>352597.0625</v>
       </c>
       <c r="F20">
-        <v>339289.40625</v>
+        <v>339198.9375</v>
       </c>
       <c r="G20">
-        <v>419119.46875</v>
+        <v>418017.75</v>
       </c>
       <c r="H20">
-        <v>285480.8125</v>
+        <v>331746.65625</v>
       </c>
       <c r="I20">
-        <v>293981.78125</v>
+        <v>277084.96875</v>
       </c>
       <c r="J20">
-        <v>283194.125</v>
+        <v>274275.25</v>
       </c>
       <c r="K20">
-        <v>278877.96875</v>
+        <v>216820.8125</v>
       </c>
       <c r="L20">
-        <v>290664.4375</v>
+        <v>296183.6518095238</v>
       </c>
       <c r="M20">
-        <v>295183.3116348342</v>
+        <v>295539.5524377446</v>
       </c>
       <c r="N20">
-        <v>247072.1579664879</v>
+        <v>295540.96875</v>
       </c>
       <c r="O20">
-        <v>295914.1084761905</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P20">
-        <v>295538.53125</v>
+        <v>796605.9375</v>
       </c>
       <c r="Q20">
-        <v>471860.875</v>
+        <v>168041.9375</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -6364,43 +6364,43 @@
         <v>432056.5</v>
       </c>
       <c r="E21">
-        <v>354138.96875</v>
+        <v>258738.09375</v>
       </c>
       <c r="F21">
-        <v>339288.03125</v>
+        <v>339197.8125</v>
       </c>
       <c r="G21">
-        <v>334819.96875</v>
+        <v>332350.03125</v>
       </c>
       <c r="H21">
-        <v>239011.265625</v>
+        <v>292501.0625</v>
       </c>
       <c r="I21">
-        <v>230849.203125</v>
+        <v>205919.6875</v>
       </c>
       <c r="J21">
-        <v>220751.15625</v>
+        <v>240895.9375</v>
       </c>
       <c r="K21">
-        <v>225009.78125</v>
+        <v>198927.09375</v>
       </c>
       <c r="L21">
-        <v>229292.65625</v>
+        <v>210812.083151283</v>
       </c>
       <c r="M21">
-        <v>188020.0205654948</v>
+        <v>211498.2871372222</v>
       </c>
       <c r="N21">
-        <v>186058.1692558845</v>
+        <v>211467.15625</v>
       </c>
       <c r="O21">
-        <v>187183.3815785604</v>
+        <v>212467.6171733998</v>
       </c>
       <c r="P21">
-        <v>186858.078125</v>
+        <v>2514864</v>
       </c>
       <c r="Q21">
-        <v>819380.4375</v>
+        <v>1315491.875</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -6417,43 +6417,43 @@
         <v>441413.0625</v>
       </c>
       <c r="E22">
-        <v>354770.5</v>
+        <v>322472.3125</v>
       </c>
       <c r="F22">
-        <v>339290.6875</v>
+        <v>339197</v>
       </c>
       <c r="G22">
-        <v>434793.78125</v>
+        <v>434452.8125</v>
       </c>
       <c r="H22">
-        <v>276833.125</v>
+        <v>324848.65625</v>
       </c>
       <c r="I22">
-        <v>271263.53125</v>
+        <v>269718.21875</v>
       </c>
       <c r="J22">
-        <v>268133.40625</v>
+        <v>247555.578125</v>
       </c>
       <c r="K22">
-        <v>267925.9375</v>
+        <v>235636.8125</v>
       </c>
       <c r="L22">
-        <v>268944.53125</v>
+        <v>267728.2691335159</v>
       </c>
       <c r="M22">
-        <v>228887.9993230705</v>
+        <v>263200.6114897614</v>
       </c>
       <c r="N22">
-        <v>247072.1579664879</v>
+        <v>263289.40625</v>
       </c>
       <c r="O22">
-        <v>236201.3410122654</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P22">
-        <v>233539.125</v>
+        <v>4346425</v>
       </c>
       <c r="Q22">
-        <v>97016.984375</v>
+        <v>96333.5625</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -6470,43 +6470,43 @@
         <v>454738.21875</v>
       </c>
       <c r="E23">
-        <v>355419.5</v>
+        <v>351460.6875</v>
       </c>
       <c r="F23">
-        <v>339291.9375</v>
+        <v>339198.6875</v>
       </c>
       <c r="G23">
-        <v>309331.59375</v>
+        <v>308612.8125</v>
       </c>
       <c r="H23">
-        <v>330430.375</v>
+        <v>334556.125</v>
       </c>
       <c r="I23">
-        <v>332122.6875</v>
+        <v>291937.6875</v>
       </c>
       <c r="J23">
-        <v>322048.5</v>
+        <v>261754.453125</v>
       </c>
       <c r="K23">
-        <v>320597.21875</v>
+        <v>236134.953125</v>
       </c>
       <c r="L23">
-        <v>325766.53125</v>
+        <v>280604.8298333333</v>
       </c>
       <c r="M23">
-        <v>289960.6841030027</v>
+        <v>289582.4081267546</v>
       </c>
       <c r="N23">
-        <v>247072.1579664879</v>
+        <v>289712.90625</v>
       </c>
       <c r="O23">
-        <v>280523.2540238095</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P23">
-        <v>289709.59375</v>
+        <v>6177989</v>
       </c>
       <c r="Q23">
-        <v>621015.875</v>
+        <v>98910.9921875</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -6523,43 +6523,43 @@
         <v>451215.9375</v>
       </c>
       <c r="E24">
-        <v>356085.59375</v>
+        <v>251999.859375</v>
       </c>
       <c r="F24">
-        <v>339292.15625</v>
+        <v>339200.40625</v>
       </c>
       <c r="G24">
-        <v>366425</v>
+        <v>369192.4375</v>
       </c>
       <c r="H24">
-        <v>238697.9375</v>
+        <v>234887.5</v>
       </c>
       <c r="I24">
-        <v>228857.609375</v>
+        <v>188519.5</v>
       </c>
       <c r="J24">
-        <v>211325.53125</v>
+        <v>204282.6875</v>
       </c>
       <c r="K24">
-        <v>225204.859375</v>
+        <v>183598.28125</v>
       </c>
       <c r="L24">
-        <v>221671.328125</v>
+        <v>210812.083151283</v>
       </c>
       <c r="M24">
-        <v>188020.0205654948</v>
+        <v>211498.2871372222</v>
       </c>
       <c r="N24">
-        <v>186058.1692558845</v>
+        <v>211467.15625</v>
       </c>
       <c r="O24">
-        <v>187183.3815785604</v>
+        <v>212467.6171733998</v>
       </c>
       <c r="P24">
-        <v>186858.078125</v>
+        <v>8009549</v>
       </c>
       <c r="Q24">
-        <v>589648.5</v>
+        <v>187395.359375</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -6576,43 +6576,43 @@
         <v>464345.96875</v>
       </c>
       <c r="E25">
-        <v>356769.78125</v>
+        <v>237659.046875</v>
       </c>
       <c r="F25">
-        <v>339291.28125</v>
+        <v>339198.4375</v>
       </c>
       <c r="G25">
-        <v>427522.875</v>
+        <v>430620.5625</v>
       </c>
       <c r="H25">
-        <v>239008.046875</v>
+        <v>261125.484375</v>
       </c>
       <c r="I25">
-        <v>252662.59375</v>
+        <v>210092.4375</v>
       </c>
       <c r="J25">
-        <v>224549.953125</v>
+        <v>215381.765625</v>
       </c>
       <c r="K25">
-        <v>225792.90625</v>
+        <v>220769.703125</v>
       </c>
       <c r="L25">
-        <v>234766.40625</v>
+        <v>223617.3376479354</v>
       </c>
       <c r="M25">
-        <v>211988.8750972823</v>
+        <v>227868.7648969614</v>
       </c>
       <c r="N25">
-        <v>217145.9842669504</v>
+        <v>227698.59375</v>
       </c>
       <c r="O25">
-        <v>206491.0428957709</v>
+        <v>223858.5740837812</v>
       </c>
       <c r="P25">
-        <v>208215.03125</v>
+        <v>8417452</v>
       </c>
       <c r="Q25">
-        <v>395358.21875</v>
+        <v>-279479.0625</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -6629,43 +6629,43 @@
         <v>464064.40625</v>
       </c>
       <c r="E26">
-        <v>357470.6875</v>
+        <v>291326.125</v>
       </c>
       <c r="F26">
-        <v>339293.6875</v>
+        <v>339202.03125</v>
       </c>
       <c r="G26">
-        <v>392508.5</v>
+        <v>390762.375</v>
       </c>
       <c r="H26">
-        <v>299742.1875</v>
+        <v>295373.25</v>
       </c>
       <c r="I26">
-        <v>285781.28125</v>
+        <v>259795.53125</v>
       </c>
       <c r="J26">
-        <v>271793.0625</v>
+        <v>216976.8125</v>
       </c>
       <c r="K26">
-        <v>286017.3125</v>
+        <v>231228.375</v>
       </c>
       <c r="L26">
-        <v>289976.25</v>
+        <v>209040.789851892</v>
       </c>
       <c r="M26">
-        <v>181092.6954715423</v>
+        <v>208125.4253627281</v>
       </c>
       <c r="N26">
-        <v>193152.0614021899</v>
+        <v>208108.25</v>
       </c>
       <c r="O26">
-        <v>179744.6474663025</v>
+        <v>208735.8894848689</v>
       </c>
       <c r="P26">
-        <v>177912.75</v>
+        <v>8496822</v>
       </c>
       <c r="Q26">
-        <v>257720.125</v>
+        <v>808144.25</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -6682,43 +6682,43 @@
         <v>469268.75</v>
       </c>
       <c r="E27">
-        <v>358189.59375</v>
+        <v>290016.75</v>
       </c>
       <c r="F27">
-        <v>339293.375</v>
+        <v>339200.375</v>
       </c>
       <c r="G27">
-        <v>501592.0625</v>
+        <v>505891.5625</v>
       </c>
       <c r="H27">
-        <v>270160.5</v>
+        <v>302173.6875</v>
       </c>
       <c r="I27">
-        <v>272954.8125</v>
+        <v>244365.015625</v>
       </c>
       <c r="J27">
-        <v>260104.53125</v>
+        <v>248535.84375</v>
       </c>
       <c r="K27">
-        <v>276498.03125</v>
+        <v>234938.734375</v>
       </c>
       <c r="L27">
-        <v>272784.65625</v>
+        <v>240847.9580396826</v>
       </c>
       <c r="M27">
-        <v>216378.2590363934</v>
+        <v>231648.6329753432</v>
       </c>
       <c r="N27">
-        <v>217145.9842669504</v>
+        <v>270783.5</v>
       </c>
       <c r="O27">
-        <v>207765.092</v>
+        <v>223858.5740837812</v>
       </c>
       <c r="P27">
-        <v>270795.34375</v>
+        <v>8576192</v>
       </c>
       <c r="Q27">
-        <v>1029089.125</v>
+        <v>1616163.125</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6735,43 +6735,43 @@
         <v>476763.71875</v>
       </c>
       <c r="E28">
-        <v>358925.71875</v>
+        <v>236532.375</v>
       </c>
       <c r="F28">
-        <v>339292.90625</v>
+        <v>339203.78125</v>
       </c>
       <c r="G28">
-        <v>351124.59375</v>
+        <v>359464.34375</v>
       </c>
       <c r="H28">
-        <v>236777.390625</v>
+        <v>206346.234375</v>
       </c>
       <c r="I28">
-        <v>249474.75</v>
+        <v>225110.375</v>
       </c>
       <c r="J28">
-        <v>243029.25</v>
+        <v>223246.65625</v>
       </c>
       <c r="K28">
-        <v>242618.671875</v>
+        <v>203634.65625</v>
       </c>
       <c r="L28">
-        <v>240460.609375</v>
+        <v>216051.7073358846</v>
       </c>
       <c r="M28">
-        <v>185041.232644487</v>
+        <v>217906.5141170374</v>
       </c>
       <c r="N28">
-        <v>188263.410198064</v>
+        <v>217951.984375</v>
       </c>
       <c r="O28">
-        <v>188135.6153014209</v>
+        <v>216893.9255926207</v>
       </c>
       <c r="P28">
-        <v>187813.0625</v>
+        <v>8655562</v>
       </c>
       <c r="Q28">
-        <v>530313.875</v>
+        <v>1905339.125</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6788,43 +6788,43 @@
         <v>471429.5625</v>
       </c>
       <c r="E29">
-        <v>359679.34375</v>
+        <v>275493.90625</v>
       </c>
       <c r="F29">
-        <v>339291.03125</v>
+        <v>339200.46875</v>
       </c>
       <c r="G29">
-        <v>456327.4375</v>
+        <v>455388.125</v>
       </c>
       <c r="H29">
-        <v>313329.125</v>
+        <v>242025.015625</v>
       </c>
       <c r="I29">
-        <v>307476.1875</v>
+        <v>230993.96875</v>
       </c>
       <c r="J29">
-        <v>292361.0625</v>
+        <v>262128.90625</v>
       </c>
       <c r="K29">
-        <v>314319.9375</v>
+        <v>244865.828125</v>
       </c>
       <c r="L29">
-        <v>318149.96875</v>
+        <v>215968.0472922648</v>
       </c>
       <c r="M29">
-        <v>225836.4577320142</v>
+        <v>211971.214082048</v>
       </c>
       <c r="N29">
-        <v>193152.0614021899</v>
+        <v>211958.640625</v>
       </c>
       <c r="O29">
-        <v>235575.7194642857</v>
+        <v>208735.8894848689</v>
       </c>
       <c r="P29">
-        <v>234883.09375</v>
+        <v>8754667</v>
       </c>
       <c r="Q29">
-        <v>212395.625</v>
+        <v>1744118.5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6841,43 +6841,43 @@
         <v>480419.09375</v>
       </c>
       <c r="E30">
-        <v>360450.53125</v>
+        <v>262783.25</v>
       </c>
       <c r="F30">
-        <v>339287.84375</v>
+        <v>339201.0625</v>
       </c>
       <c r="G30">
-        <v>462474.84375</v>
+        <v>462416.0625</v>
       </c>
       <c r="H30">
-        <v>256744.8125</v>
+        <v>228421.96875</v>
       </c>
       <c r="I30">
-        <v>268282.9375</v>
+        <v>254024.234375</v>
       </c>
       <c r="J30">
-        <v>235129.109375</v>
+        <v>225231.921875</v>
       </c>
       <c r="K30">
-        <v>254450.0625</v>
+        <v>233289.765625</v>
       </c>
       <c r="L30">
-        <v>250593.921875</v>
+        <v>210812.083151283</v>
       </c>
       <c r="M30">
-        <v>188020.0205654948</v>
+        <v>211498.2871372222</v>
       </c>
       <c r="N30">
-        <v>186058.1692558845</v>
+        <v>211467.15625</v>
       </c>
       <c r="O30">
-        <v>187183.3815785604</v>
+        <v>212467.6171733998</v>
       </c>
       <c r="P30">
-        <v>186858.078125</v>
+        <v>8862744</v>
       </c>
       <c r="Q30">
-        <v>326663.9375</v>
+        <v>2541016</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -6894,43 +6894,43 @@
         <v>488068.8125</v>
       </c>
       <c r="E31">
-        <v>361239.6875</v>
+        <v>282850.8125</v>
       </c>
       <c r="F31">
-        <v>339285.5625</v>
+        <v>339200.375</v>
       </c>
       <c r="G31">
-        <v>368904.65625</v>
+        <v>369901.65625</v>
       </c>
       <c r="H31">
-        <v>281009.21875</v>
+        <v>247014.546875</v>
       </c>
       <c r="I31">
-        <v>288965.375</v>
+        <v>249576.875</v>
       </c>
       <c r="J31">
-        <v>257030.59375</v>
+        <v>262889.3125</v>
       </c>
       <c r="K31">
-        <v>268390.0625</v>
+        <v>262436.21875</v>
       </c>
       <c r="L31">
-        <v>279273.59375</v>
+        <v>209040.789851892</v>
       </c>
       <c r="M31">
-        <v>181092.6954715423</v>
+        <v>208125.4253627281</v>
       </c>
       <c r="N31">
-        <v>193152.0614021899</v>
+        <v>208108.25</v>
       </c>
       <c r="O31">
-        <v>179744.6474663025</v>
+        <v>208735.8894848689</v>
       </c>
       <c r="P31">
-        <v>177912.75</v>
+        <v>8970820</v>
       </c>
       <c r="Q31">
-        <v>-32950.0546875</v>
+        <v>2499646.25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6947,43 +6947,43 @@
         <v>483621</v>
       </c>
       <c r="E32">
-        <v>362045.03125</v>
+        <v>239532.859375</v>
       </c>
       <c r="F32">
-        <v>339284.875</v>
+        <v>339197.5625</v>
       </c>
       <c r="G32">
-        <v>406903.34375</v>
+        <v>406140.96875</v>
       </c>
       <c r="H32">
-        <v>320414.65625</v>
+        <v>217911.90625</v>
       </c>
       <c r="I32">
-        <v>331495.78125</v>
+        <v>258863.890625</v>
       </c>
       <c r="J32">
-        <v>299728.15625</v>
+        <v>252645.640625</v>
       </c>
       <c r="K32">
-        <v>325881</v>
+        <v>222327.796875</v>
       </c>
       <c r="L32">
-        <v>303067.875</v>
+        <v>244843.5033452381</v>
       </c>
       <c r="M32">
-        <v>237317.7615870661</v>
+        <v>223408.7290132949</v>
       </c>
       <c r="N32">
-        <v>247072.1579664879</v>
+        <v>239583.03125</v>
       </c>
       <c r="O32">
-        <v>230874.8753571428</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P32">
-        <v>280135.3125</v>
+        <v>9078896</v>
       </c>
       <c r="Q32">
-        <v>191092.5</v>
+        <v>14808210</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -7000,43 +7000,43 @@
         <v>486630.25</v>
       </c>
       <c r="E33">
-        <v>362868.96875</v>
+        <v>239107.65625</v>
       </c>
       <c r="F33">
-        <v>339286.375</v>
+        <v>339204.0625</v>
       </c>
       <c r="G33">
-        <v>317805.71875</v>
+        <v>317802.46875</v>
       </c>
       <c r="H33">
-        <v>247405.71875</v>
+        <v>222569.421875</v>
       </c>
       <c r="I33">
-        <v>255578.34375</v>
+        <v>242144.484375</v>
       </c>
       <c r="J33">
-        <v>238636.4375</v>
+        <v>239034.046875</v>
       </c>
       <c r="K33">
-        <v>251439.71875</v>
+        <v>234027.796875</v>
       </c>
       <c r="L33">
-        <v>238450.390625</v>
+        <v>210812.083151283</v>
       </c>
       <c r="M33">
-        <v>188020.0205654948</v>
+        <v>211498.2871372222</v>
       </c>
       <c r="N33">
-        <v>186058.1692558845</v>
+        <v>211467.15625</v>
       </c>
       <c r="O33">
-        <v>187183.3815785604</v>
+        <v>212467.6171733998</v>
       </c>
       <c r="P33">
-        <v>186858.078125</v>
+        <v>9126179</v>
       </c>
       <c r="Q33">
-        <v>96415.4140625</v>
+        <v>24815056</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -7053,43 +7053,43 @@
         <v>490735.5</v>
       </c>
       <c r="E34">
-        <v>363709.46875</v>
+        <v>308591.59375</v>
       </c>
       <c r="F34">
-        <v>339286.125</v>
+        <v>339233.84375</v>
       </c>
       <c r="G34">
-        <v>340395.125</v>
+        <v>343485.28125</v>
       </c>
       <c r="H34">
-        <v>323988.25</v>
+        <v>293013</v>
       </c>
       <c r="I34">
-        <v>319375.96875</v>
+        <v>331627.8125</v>
       </c>
       <c r="J34">
-        <v>285119.53125</v>
+        <v>328910.25</v>
       </c>
       <c r="K34">
-        <v>309943.53125</v>
+        <v>329448.96875</v>
       </c>
       <c r="L34">
-        <v>319759.625</v>
+        <v>253405.8507111223</v>
       </c>
       <c r="M34">
-        <v>236039.7116089126</v>
+        <v>249790.183399469</v>
       </c>
       <c r="N34">
-        <v>247072.1579664879</v>
+        <v>249737.390625</v>
       </c>
       <c r="O34">
-        <v>234406.9771491842</v>
+        <v>260043.5468834724</v>
       </c>
       <c r="P34">
-        <v>231223.359375</v>
+        <v>9126179</v>
       </c>
       <c r="Q34">
-        <v>816470.5</v>
+        <v>59401912</v>
       </c>
     </row>
   </sheetData>

--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5_전라선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5_전라선.xlsx
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>63931848196.06543</v>
+        <v>63933095922.25781</v>
       </c>
       <c r="C4">
-        <v>252847.4801062202</v>
+        <v>252849.9474436525</v>
       </c>
       <c r="D4">
-        <v>0.03313935253975295</v>
+        <v>0.03313979170772043</v>
       </c>
       <c r="E4">
-        <v>129861.2552083333</v>
+        <v>129861.5104166667</v>
       </c>
       <c r="F4">
-        <v>0.1232598527791571</v>
+        <v>0.1232598389891339</v>
       </c>
       <c r="G4">
-        <v>64311.28125</v>
+        <v>64312.28125</v>
       </c>
       <c r="H4">
-        <v>0.08590318241411544</v>
+        <v>0.08591347659262491</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -930,7 +930,7 @@
         <v>694813.625</v>
       </c>
       <c r="F2">
-        <v>694810.125</v>
+        <v>694808.3125</v>
       </c>
       <c r="G2">
         <v>704050.5625</v>
@@ -983,7 +983,7 @@
         <v>694814.3125</v>
       </c>
       <c r="F3">
-        <v>694807.75</v>
+        <v>694798.0625</v>
       </c>
       <c r="G3">
         <v>771529.125</v>
@@ -1036,7 +1036,7 @@
         <v>694809.6875</v>
       </c>
       <c r="F4">
-        <v>694802.625</v>
+        <v>694798.9375</v>
       </c>
       <c r="G4">
         <v>659197.375</v>
@@ -1089,7 +1089,7 @@
         <v>694811.25</v>
       </c>
       <c r="F5">
-        <v>694809.5</v>
+        <v>694819.125</v>
       </c>
       <c r="G5">
         <v>648255.4375</v>
@@ -1142,7 +1142,7 @@
         <v>694812.0625</v>
       </c>
       <c r="F6">
-        <v>694805.5</v>
+        <v>694808.6875</v>
       </c>
       <c r="G6">
         <v>653414.375</v>
@@ -1195,7 +1195,7 @@
         <v>694820.3125</v>
       </c>
       <c r="F7">
-        <v>694808.4375</v>
+        <v>694810.875</v>
       </c>
       <c r="G7">
         <v>662423.625</v>
@@ -1248,7 +1248,7 @@
         <v>694818.3125</v>
       </c>
       <c r="F8">
-        <v>694804.625</v>
+        <v>694804.6875</v>
       </c>
       <c r="G8">
         <v>781775.875</v>
@@ -1301,7 +1301,7 @@
         <v>694814.5625</v>
       </c>
       <c r="F9">
-        <v>694813.9375</v>
+        <v>694818.125</v>
       </c>
       <c r="G9">
         <v>724561.5</v>
@@ -1354,7 +1354,7 @@
         <v>694842.5</v>
       </c>
       <c r="F10">
-        <v>694815.0625</v>
+        <v>694815.875</v>
       </c>
       <c r="G10">
         <v>748613.25</v>
@@ -1407,7 +1407,7 @@
         <v>694846.6875</v>
       </c>
       <c r="F11">
-        <v>694816.0625</v>
+        <v>694823.5625</v>
       </c>
       <c r="G11">
         <v>655701.4375</v>
@@ -1460,7 +1460,7 @@
         <v>694853.125</v>
       </c>
       <c r="F12">
-        <v>694814</v>
+        <v>694809.5625</v>
       </c>
       <c r="G12">
         <v>663399.8125</v>
@@ -1513,7 +1513,7 @@
         <v>694845.3125</v>
       </c>
       <c r="F13">
-        <v>694813.3125</v>
+        <v>694821.3125</v>
       </c>
       <c r="G13">
         <v>527350.625</v>
@@ -1566,7 +1566,7 @@
         <v>694855.1875</v>
       </c>
       <c r="F14">
-        <v>694812.875</v>
+        <v>694820.5625</v>
       </c>
       <c r="G14">
         <v>516568.25</v>
@@ -1619,7 +1619,7 @@
         <v>694849.1875</v>
       </c>
       <c r="F15">
-        <v>694811.125</v>
+        <v>694823.375</v>
       </c>
       <c r="G15">
         <v>661656.875</v>
@@ -1672,7 +1672,7 @@
         <v>694848.5</v>
       </c>
       <c r="F16">
-        <v>694808.25</v>
+        <v>694813</v>
       </c>
       <c r="G16">
         <v>533936.25</v>
@@ -1725,7 +1725,7 @@
         <v>694846.8125</v>
       </c>
       <c r="F17">
-        <v>694805.4375</v>
+        <v>694842.25</v>
       </c>
       <c r="G17">
         <v>483952.90625</v>
@@ -1778,7 +1778,7 @@
         <v>694850.375</v>
       </c>
       <c r="F18">
-        <v>694845.875</v>
+        <v>694854.0625</v>
       </c>
       <c r="G18">
         <v>619613.25</v>
@@ -1831,7 +1831,7 @@
         <v>694844.375</v>
       </c>
       <c r="F19">
-        <v>694847.3125</v>
+        <v>694857.8125</v>
       </c>
       <c r="G19">
         <v>465273.9375</v>
@@ -1884,7 +1884,7 @@
         <v>694849</v>
       </c>
       <c r="F20">
-        <v>694838.375</v>
+        <v>694846.5625</v>
       </c>
       <c r="G20">
         <v>539551</v>
@@ -1937,7 +1937,7 @@
         <v>694847.1875</v>
       </c>
       <c r="F21">
-        <v>694837.9375</v>
+        <v>694841.125</v>
       </c>
       <c r="G21">
         <v>413590.40625</v>
@@ -1990,7 +1990,7 @@
         <v>694847.125</v>
       </c>
       <c r="F22">
-        <v>694854.0625</v>
+        <v>694849.375</v>
       </c>
       <c r="G22">
         <v>492722.65625</v>
@@ -2043,7 +2043,7 @@
         <v>694847.25</v>
       </c>
       <c r="F23">
-        <v>694848.75</v>
+        <v>694850.75</v>
       </c>
       <c r="G23">
         <v>475753.5625</v>
@@ -2096,7 +2096,7 @@
         <v>694917.5</v>
       </c>
       <c r="F24">
-        <v>694845.5625</v>
+        <v>694839.5625</v>
       </c>
       <c r="G24">
         <v>381720.84375</v>
@@ -2149,7 +2149,7 @@
         <v>694915.9375</v>
       </c>
       <c r="F25">
-        <v>694849</v>
+        <v>694842.5625</v>
       </c>
       <c r="G25">
         <v>297823</v>
@@ -2202,7 +2202,7 @@
         <v>694917.1875</v>
       </c>
       <c r="F26">
-        <v>694862.0625</v>
+        <v>694857.6875</v>
       </c>
       <c r="G26">
         <v>356805.96875</v>
@@ -2255,7 +2255,7 @@
         <v>694916</v>
       </c>
       <c r="F27">
-        <v>694881.125</v>
+        <v>694852.5</v>
       </c>
       <c r="G27">
         <v>461572.625</v>
@@ -2308,7 +2308,7 @@
         <v>694915.9375</v>
       </c>
       <c r="F28">
-        <v>694885.625</v>
+        <v>694937.6875</v>
       </c>
       <c r="G28">
         <v>487739.9375</v>
@@ -2361,7 +2361,7 @@
         <v>694914.625</v>
       </c>
       <c r="F29">
-        <v>694892.1875</v>
+        <v>694936.5</v>
       </c>
       <c r="G29">
         <v>481425.8125</v>
@@ -2414,7 +2414,7 @@
         <v>694914.625</v>
       </c>
       <c r="F30">
-        <v>694893.9375</v>
+        <v>694930.4375</v>
       </c>
       <c r="G30">
         <v>487755.5625</v>
@@ -2467,7 +2467,7 @@
         <v>694918.625</v>
       </c>
       <c r="F31">
-        <v>694939.375</v>
+        <v>694990.75</v>
       </c>
       <c r="G31">
         <v>358370.25</v>
@@ -2520,7 +2520,7 @@
         <v>694915.0625</v>
       </c>
       <c r="F32">
-        <v>694938.8125</v>
+        <v>694989.4375</v>
       </c>
       <c r="G32">
         <v>536758.125</v>
@@ -2573,7 +2573,7 @@
         <v>694964.5625</v>
       </c>
       <c r="F33">
-        <v>694927.875</v>
+        <v>695014.25</v>
       </c>
       <c r="G33">
         <v>566592.5625</v>
@@ -2626,7 +2626,7 @@
         <v>694962.375</v>
       </c>
       <c r="F34">
-        <v>694932.875</v>
+        <v>695015.6875</v>
       </c>
       <c r="G34">
         <v>492922.09375</v>
@@ -2804,54 +2804,54 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>13336407797.93278</v>
+        <v>13335894962.86865</v>
       </c>
       <c r="C6">
-        <v>115483.3658928106</v>
+        <v>115481.1454864761</v>
       </c>
       <c r="D6">
-        <v>0.03603103735994662</v>
+        <v>0.03602891119223881</v>
       </c>
       <c r="E6">
-        <v>69410.19270833333</v>
+        <v>69407.25520833333</v>
       </c>
       <c r="F6">
-        <v>0.1361785572782686</v>
+        <v>0.1361718906746544</v>
       </c>
       <c r="G6">
-        <v>45644.03125</v>
+        <v>45636.453125</v>
       </c>
       <c r="H6">
-        <v>0.1135311621975914</v>
+        <v>0.113512099013779</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>13336607371.3138</v>
+        <v>13336407797.93278</v>
       </c>
       <c r="C7">
-        <v>115484.2299680515</v>
+        <v>115483.3658928106</v>
       </c>
       <c r="D7">
-        <v>0.03603202160143645</v>
+        <v>0.03603103735994662</v>
       </c>
       <c r="E7">
-        <v>69412.109375</v>
+        <v>69410.19270833333</v>
       </c>
       <c r="F7">
-        <v>0.1361830830413492</v>
+        <v>0.1361785572782686</v>
       </c>
       <c r="G7">
-        <v>45645.015625</v>
+        <v>45644.03125</v>
       </c>
       <c r="H7">
-        <v>0.1135335302477125</v>
+        <v>0.1135311621975914</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3098,10 +3098,10 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
@@ -3151,10 +3151,10 @@
         <v>400851.5625</v>
       </c>
       <c r="H2">
+        <v>355612.25</v>
+      </c>
+      <c r="I2">
         <v>355609.03125</v>
-      </c>
-      <c r="I2">
-        <v>355605.875</v>
       </c>
       <c r="J2">
         <v>362585.1875</v>
@@ -3204,10 +3204,10 @@
         <v>370924.15625</v>
       </c>
       <c r="H3">
+        <v>355608.75</v>
+      </c>
+      <c r="I3">
         <v>355605.75</v>
-      </c>
-      <c r="I3">
-        <v>355605.65625</v>
       </c>
       <c r="J3">
         <v>367748.8125</v>
@@ -3257,10 +3257,10 @@
         <v>380722.65625</v>
       </c>
       <c r="H4">
+        <v>355611.875</v>
+      </c>
+      <c r="I4">
         <v>355607.90625</v>
-      </c>
-      <c r="I4">
-        <v>355607.625</v>
       </c>
       <c r="J4">
         <v>345646.1875</v>
@@ -3310,10 +3310,10 @@
         <v>378769.15625</v>
       </c>
       <c r="H5">
+        <v>355609.75</v>
+      </c>
+      <c r="I5">
         <v>355606.8125</v>
-      </c>
-      <c r="I5">
-        <v>355607.5</v>
       </c>
       <c r="J5">
         <v>347353.5</v>
@@ -3363,10 +3363,10 @@
         <v>315242.9375</v>
       </c>
       <c r="H6">
+        <v>355612.3125</v>
+      </c>
+      <c r="I6">
         <v>355612.15625</v>
-      </c>
-      <c r="I6">
-        <v>355607.03125</v>
       </c>
       <c r="J6">
         <v>306658.8125</v>
@@ -3416,10 +3416,10 @@
         <v>381844.15625</v>
       </c>
       <c r="H7">
+        <v>355619.25</v>
+      </c>
+      <c r="I7">
         <v>355613.5</v>
-      </c>
-      <c r="I7">
-        <v>355607.21875</v>
       </c>
       <c r="J7">
         <v>354369.875</v>
@@ -3469,10 +3469,10 @@
         <v>366697.40625</v>
       </c>
       <c r="H8">
+        <v>355615.53125</v>
+      </c>
+      <c r="I8">
         <v>355613.3125</v>
-      </c>
-      <c r="I8">
-        <v>355608.15625</v>
       </c>
       <c r="J8">
         <v>365804.3125</v>
@@ -3522,10 +3522,10 @@
         <v>443783.65625</v>
       </c>
       <c r="H9">
+        <v>355619.84375</v>
+      </c>
+      <c r="I9">
         <v>355607.90625</v>
-      </c>
-      <c r="I9">
-        <v>355609.09375</v>
       </c>
       <c r="J9">
         <v>346208.59375</v>
@@ -3575,10 +3575,10 @@
         <v>512295.6875</v>
       </c>
       <c r="H10">
+        <v>355614.53125</v>
+      </c>
+      <c r="I10">
         <v>355612.21875</v>
-      </c>
-      <c r="I10">
-        <v>355610.375</v>
       </c>
       <c r="J10">
         <v>381623.625</v>
@@ -3628,10 +3628,10 @@
         <v>307027.125</v>
       </c>
       <c r="H11">
+        <v>355615.90625</v>
+      </c>
+      <c r="I11">
         <v>355608.8125</v>
-      </c>
-      <c r="I11">
-        <v>355605.40625</v>
       </c>
       <c r="J11">
         <v>303575.46875</v>
@@ -3681,10 +3681,10 @@
         <v>290360.46875</v>
       </c>
       <c r="H12">
+        <v>355613.59375</v>
+      </c>
+      <c r="I12">
         <v>355613.5625</v>
-      </c>
-      <c r="I12">
-        <v>355599.03125</v>
       </c>
       <c r="J12">
         <v>314884.34375</v>
@@ -3734,10 +3734,10 @@
         <v>377263.09375</v>
       </c>
       <c r="H13">
+        <v>355620.78125</v>
+      </c>
+      <c r="I13">
         <v>355613.65625</v>
-      </c>
-      <c r="I13">
-        <v>355611.59375</v>
       </c>
       <c r="J13">
         <v>387471.4375</v>
@@ -3787,10 +3787,10 @@
         <v>372181.40625</v>
       </c>
       <c r="H14">
+        <v>355617.625</v>
+      </c>
+      <c r="I14">
         <v>355611.40625</v>
-      </c>
-      <c r="I14">
-        <v>355592.78125</v>
       </c>
       <c r="J14">
         <v>295172.46875</v>
@@ -3840,10 +3840,10 @@
         <v>373925.28125</v>
       </c>
       <c r="H15">
+        <v>355616.3125</v>
+      </c>
+      <c r="I15">
         <v>355613.46875</v>
-      </c>
-      <c r="I15">
-        <v>355607.09375</v>
       </c>
       <c r="J15">
         <v>330425.375</v>
@@ -3893,10 +3893,10 @@
         <v>385948.4375</v>
       </c>
       <c r="H16">
+        <v>355612.8125</v>
+      </c>
+      <c r="I16">
         <v>355611.53125</v>
-      </c>
-      <c r="I16">
-        <v>355618.75</v>
       </c>
       <c r="J16">
         <v>283034.28125</v>
@@ -3946,10 +3946,10 @@
         <v>342703.21875</v>
       </c>
       <c r="H17">
+        <v>355612.0625</v>
+      </c>
+      <c r="I17">
         <v>355611.34375</v>
-      </c>
-      <c r="I17">
-        <v>355614.59375</v>
       </c>
       <c r="J17">
         <v>235639.484375</v>
@@ -3999,10 +3999,10 @@
         <v>238018.4375</v>
       </c>
       <c r="H18">
+        <v>355617.1875</v>
+      </c>
+      <c r="I18">
         <v>355611.5</v>
-      </c>
-      <c r="I18">
-        <v>355616.6875</v>
       </c>
       <c r="J18">
         <v>275854.3125</v>
@@ -4052,10 +4052,10 @@
         <v>286899.21875</v>
       </c>
       <c r="H19">
+        <v>355617.375</v>
+      </c>
+      <c r="I19">
         <v>355613.125</v>
-      </c>
-      <c r="I19">
-        <v>355603.78125</v>
       </c>
       <c r="J19">
         <v>227303.609375</v>
@@ -4105,10 +4105,10 @@
         <v>393534</v>
       </c>
       <c r="H20">
+        <v>355617.65625</v>
+      </c>
+      <c r="I20">
         <v>355611.125</v>
-      </c>
-      <c r="I20">
-        <v>355608.21875</v>
       </c>
       <c r="J20">
         <v>215062.625</v>
@@ -4158,10 +4158,10 @@
         <v>308476.40625</v>
       </c>
       <c r="H21">
+        <v>355615.5625</v>
+      </c>
+      <c r="I21">
         <v>355610.125</v>
-      </c>
-      <c r="I21">
-        <v>355609.40625</v>
       </c>
       <c r="J21">
         <v>288030.84375</v>
@@ -4211,10 +4211,10 @@
         <v>494712.78125</v>
       </c>
       <c r="H22">
+        <v>355623.65625</v>
+      </c>
+      <c r="I22">
         <v>355611.5625</v>
-      </c>
-      <c r="I22">
-        <v>355620.71875</v>
       </c>
       <c r="J22">
         <v>233905.96875</v>
@@ -4264,10 +4264,10 @@
         <v>295879.84375</v>
       </c>
       <c r="H23">
+        <v>355634.65625</v>
+      </c>
+      <c r="I23">
         <v>355610.625</v>
-      </c>
-      <c r="I23">
-        <v>355622.5</v>
       </c>
       <c r="J23">
         <v>181097.21875</v>
@@ -4317,10 +4317,10 @@
         <v>411633</v>
       </c>
       <c r="H24">
+        <v>355634.03125</v>
+      </c>
+      <c r="I24">
         <v>355610.40625</v>
-      </c>
-      <c r="I24">
-        <v>355611.125</v>
       </c>
       <c r="J24">
         <v>145431.3125</v>
@@ -4370,10 +4370,10 @@
         <v>399336.71875</v>
       </c>
       <c r="H25">
+        <v>355634.78125</v>
+      </c>
+      <c r="I25">
         <v>355612.625</v>
-      </c>
-      <c r="I25">
-        <v>355617.6875</v>
       </c>
       <c r="J25">
         <v>169303.625</v>
@@ -4423,10 +4423,10 @@
         <v>370275.6875</v>
       </c>
       <c r="H26">
+        <v>355656.125</v>
+      </c>
+      <c r="I26">
         <v>355612.625</v>
-      </c>
-      <c r="I26">
-        <v>355618.03125</v>
       </c>
       <c r="J26">
         <v>189694.34375</v>
@@ -4476,10 +4476,10 @@
         <v>517799.375</v>
       </c>
       <c r="H27">
+        <v>355653.78125</v>
+      </c>
+      <c r="I27">
         <v>355612.78125</v>
-      </c>
-      <c r="I27">
-        <v>355610.65625</v>
       </c>
       <c r="J27">
         <v>270094.90625</v>
@@ -4529,10 +4529,10 @@
         <v>323554.03125</v>
       </c>
       <c r="H28">
+        <v>355660.15625</v>
+      </c>
+      <c r="I28">
         <v>355613.4375</v>
-      </c>
-      <c r="I28">
-        <v>355626.53125</v>
       </c>
       <c r="J28">
         <v>216612.28125</v>
@@ -4582,10 +4582,10 @@
         <v>441366.6875</v>
       </c>
       <c r="H29">
+        <v>355661.09375</v>
+      </c>
+      <c r="I29">
         <v>355612.4375</v>
-      </c>
-      <c r="I29">
-        <v>355622.78125</v>
       </c>
       <c r="J29">
         <v>202928.203125</v>
@@ -4635,10 +4635,10 @@
         <v>482870.8125</v>
       </c>
       <c r="H30">
+        <v>355676.8125</v>
+      </c>
+      <c r="I30">
         <v>355612.03125</v>
-      </c>
-      <c r="I30">
-        <v>355625</v>
       </c>
       <c r="J30">
         <v>277406.59375</v>
@@ -4688,10 +4688,10 @@
         <v>301612.3125</v>
       </c>
       <c r="H31">
+        <v>355682.53125</v>
+      </c>
+      <c r="I31">
         <v>355613.84375</v>
-      </c>
-      <c r="I31">
-        <v>355606.53125</v>
       </c>
       <c r="J31">
         <v>200711.0625</v>
@@ -4741,10 +4741,10 @@
         <v>384794.1875</v>
       </c>
       <c r="H32">
+        <v>355677.3125</v>
+      </c>
+      <c r="I32">
         <v>355611.8125</v>
-      </c>
-      <c r="I32">
-        <v>355612</v>
       </c>
       <c r="J32">
         <v>241225.8125</v>
@@ -4794,10 +4794,10 @@
         <v>347067.9375</v>
       </c>
       <c r="H33">
+        <v>355674.65625</v>
+      </c>
+      <c r="I33">
         <v>355612.8125</v>
-      </c>
-      <c r="I33">
-        <v>355610.9375</v>
       </c>
       <c r="J33">
         <v>301937.0625</v>
@@ -4847,10 +4847,10 @@
         <v>375141.125</v>
       </c>
       <c r="H34">
+        <v>355673.875</v>
+      </c>
+      <c r="I34">
         <v>355612.59375</v>
-      </c>
-      <c r="I34">
-        <v>355636.84375</v>
       </c>
       <c r="J34">
         <v>236596.84375</v>
@@ -4967,288 +4967,288 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>21541498940.28825</v>
+        <v>21320942828.11353</v>
       </c>
       <c r="C4">
-        <v>146770.2249786661</v>
+        <v>146016.9265123517</v>
       </c>
       <c r="D4">
-        <v>0.04124676999993158</v>
+        <v>0.04063316080966242</v>
       </c>
       <c r="E4">
-        <v>74237.08854166667</v>
+        <v>74854.48177083333</v>
       </c>
       <c r="F4">
-        <v>0.1398023785672442</v>
+        <v>0.143108912136023</v>
       </c>
       <c r="G4">
-        <v>43259.15625</v>
+        <v>34860.4375</v>
       </c>
       <c r="H4">
-        <v>0.1201320114282653</v>
+        <v>0.1023072049218644</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>18538763643.71069</v>
+        <v>21541498940.28825</v>
       </c>
       <c r="C5">
-        <v>136157.128508612</v>
+        <v>146770.2249786661</v>
       </c>
       <c r="D5">
-        <v>0.04050321146637587</v>
+        <v>0.04124676999993158</v>
       </c>
       <c r="E5">
-        <v>75748.36197916667</v>
+        <v>74237.08854166667</v>
       </c>
       <c r="F5">
-        <v>0.1535704538491745</v>
+        <v>0.1398023785672442</v>
       </c>
       <c r="G5">
-        <v>43686.1875</v>
+        <v>43259.15625</v>
       </c>
       <c r="H5">
-        <v>0.1152650649694626</v>
+        <v>0.1201320114282653</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>18654107570.96468</v>
+        <v>18538763643.71069</v>
       </c>
       <c r="C6">
-        <v>136580.0408953105</v>
+        <v>136157.128508612</v>
       </c>
       <c r="D6">
-        <v>0.03989433071307884</v>
+        <v>0.04050321146637587</v>
       </c>
       <c r="E6">
-        <v>76661.69791666667</v>
+        <v>75748.36197916667</v>
       </c>
       <c r="F6">
-        <v>0.1542555340395485</v>
+        <v>0.1535704538491745</v>
       </c>
       <c r="G6">
-        <v>48797.609375</v>
+        <v>43686.1875</v>
       </c>
       <c r="H6">
-        <v>0.1295374982798744</v>
+        <v>0.1152650649694626</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>16323256852.21851</v>
+        <v>18654107570.96468</v>
       </c>
       <c r="C7">
-        <v>127762.5017453028</v>
+        <v>136580.0408953105</v>
       </c>
       <c r="D7">
-        <v>0.0356606567322609</v>
+        <v>0.03989433071307884</v>
       </c>
       <c r="E7">
-        <v>73418.50260416667</v>
+        <v>76661.69791666667</v>
       </c>
       <c r="F7">
-        <v>0.150946722107585</v>
+        <v>0.1542555340395485</v>
       </c>
       <c r="G7">
-        <v>47011.171875</v>
+        <v>48797.609375</v>
       </c>
       <c r="H7">
-        <v>0.1346391681159299</v>
+        <v>0.1295374982798744</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>20022422940.8042</v>
+        <v>16323256852.21851</v>
       </c>
       <c r="C8">
-        <v>141500.6110969285</v>
+        <v>127762.5017453028</v>
       </c>
       <c r="D8">
-        <v>0.05029053432770562</v>
+        <v>0.0356606567322609</v>
       </c>
       <c r="E8">
-        <v>88383.66666666667</v>
+        <v>73418.50260416667</v>
       </c>
       <c r="F8">
-        <v>0.1877949554565796</v>
+        <v>0.150946722107585</v>
       </c>
       <c r="G8">
-        <v>56893.703125</v>
+        <v>47011.171875</v>
       </c>
       <c r="H8">
-        <v>0.1651981664869723</v>
+        <v>0.1346391681159299</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>22307324133.80867</v>
+        <v>20022422940.8042</v>
       </c>
       <c r="C9">
-        <v>149356.3662312681</v>
+        <v>141500.6110969285</v>
       </c>
       <c r="D9">
-        <v>0.06425703380220052</v>
+        <v>0.05029053432770562</v>
       </c>
       <c r="E9">
-        <v>102070.2682291667</v>
+        <v>88383.66666666667</v>
       </c>
       <c r="F9">
-        <v>0.2224627194295674</v>
+        <v>0.1877949554565796</v>
       </c>
       <c r="G9">
-        <v>68825.84375</v>
+        <v>56893.703125</v>
       </c>
       <c r="H9">
-        <v>0.1935057839625825</v>
+        <v>0.1651981664869723</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>43023567956.23386</v>
+        <v>22307324133.80867</v>
       </c>
       <c r="C10">
-        <v>207421.2331373861</v>
+        <v>149356.3662312681</v>
       </c>
       <c r="D10">
-        <v>0.156477993624763</v>
+        <v>0.06425703380220052</v>
       </c>
       <c r="E10">
-        <v>165240.0647541744</v>
+        <v>102070.2682291667</v>
       </c>
       <c r="F10">
-        <v>0.3819544627626711</v>
+        <v>0.2224627194295674</v>
       </c>
       <c r="G10">
-        <v>132740.4041052991</v>
+        <v>68825.84375</v>
       </c>
       <c r="H10">
-        <v>0.3570869501560232</v>
+        <v>0.1935057839625825</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>43728990878.16383</v>
+        <v>43023567956.23386</v>
       </c>
       <c r="C11">
-        <v>209114.779195933</v>
+        <v>207421.2331373861</v>
       </c>
       <c r="D11">
-        <v>0.159178928300034</v>
+        <v>0.156477993624763</v>
       </c>
       <c r="E11">
-        <v>166747.9686953411</v>
+        <v>165240.0647541744</v>
       </c>
       <c r="F11">
-        <v>0.3852587986862296</v>
+        <v>0.3819544627626711</v>
       </c>
       <c r="G11">
-        <v>133339.5620469793</v>
+        <v>132740.4041052991</v>
       </c>
       <c r="H11">
-        <v>0.3552948337615426</v>
+        <v>0.3570869501560232</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>43914247639.26597</v>
+        <v>43728990878.16383</v>
       </c>
       <c r="C12">
-        <v>209557.2657754103</v>
+        <v>209114.779195933</v>
       </c>
       <c r="D12">
-        <v>0.1602635188836329</v>
+        <v>0.159178928300034</v>
       </c>
       <c r="E12">
-        <v>167359.4778645833</v>
+        <v>166747.9686953411</v>
       </c>
       <c r="F12">
-        <v>0.3867479434392855</v>
+        <v>0.3852587986862296</v>
       </c>
       <c r="G12">
-        <v>133255.4453125</v>
+        <v>133339.5620469793</v>
       </c>
       <c r="H12">
-        <v>0.3597399592639525</v>
+        <v>0.3552948337615426</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>43479384079.41467</v>
+        <v>43914247639.26597</v>
       </c>
       <c r="C13">
-        <v>208517.1074022817</v>
+        <v>209557.2657754103</v>
       </c>
       <c r="D13">
-        <v>0.1628356456366253</v>
+        <v>0.1602635188836329</v>
       </c>
       <c r="E13">
-        <v>168150.3803024797</v>
+        <v>167359.4778645833</v>
       </c>
       <c r="F13">
-        <v>0.3903191112397602</v>
+        <v>0.3867479434392855</v>
       </c>
       <c r="G13">
-        <v>134138.4637471381</v>
+        <v>133255.4453125</v>
       </c>
       <c r="H13">
-        <v>0.3636488703631127</v>
+        <v>0.3597399592639525</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>84269335734.80461</v>
+        <v>43479384079.41467</v>
       </c>
       <c r="C14">
-        <v>290291.8113464529</v>
+        <v>208517.1074022817</v>
       </c>
       <c r="D14">
-        <v>0.5666778379736662</v>
+        <v>0.1628356456366253</v>
       </c>
       <c r="E14">
-        <v>215952.0651041667</v>
+        <v>168150.3803024797</v>
       </c>
       <c r="F14">
-        <v>0.5445003640385824</v>
+        <v>0.3903191112397602</v>
       </c>
       <c r="G14">
-        <v>94194.46875</v>
+        <v>134138.4637471381</v>
       </c>
       <c r="H14">
-        <v>0.2755219608998272</v>
+        <v>0.3636488703631127</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5307,37 +5307,37 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -5360,37 +5360,37 @@
         <v>269107.65625</v>
       </c>
       <c r="F2">
+        <v>354008.875</v>
+      </c>
+      <c r="G2">
         <v>339198.9375</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>364307.15625</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>274561.03125</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>273173.34375</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>273511.5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>252859.6875</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>210812.083151283</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>211498.2871372222</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>211467.15625</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>212467.6171733998</v>
-      </c>
-      <c r="P2">
-        <v>391509.84375</v>
       </c>
       <c r="Q2">
         <v>297620.59375</v>
@@ -5413,37 +5413,37 @@
         <v>394854.15625</v>
       </c>
       <c r="F3">
+        <v>340552</v>
+      </c>
+      <c r="G3">
         <v>339197.53125</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>381079.15625</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>379733.90625</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>408867.9375</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>377805.8125</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>375129</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>253405.8507111223</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>249790.183399469</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>249737.390625</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P3">
-        <v>391510.15625</v>
       </c>
       <c r="Q3">
         <v>178610.484375</v>
@@ -5466,37 +5466,37 @@
         <v>308823.9375</v>
       </c>
       <c r="F4">
+        <v>321923.3125</v>
+      </c>
+      <c r="G4">
         <v>339196.5625</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>354928.28125</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>321837.53125</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>303795.21875</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>290931.65625</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>306614.90625</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>223617.3376479354</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>227868.7648969614</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>227698.59375</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>223858.5740837812</v>
-      </c>
-      <c r="P4">
-        <v>382308.90625</v>
       </c>
       <c r="Q4">
         <v>-196507.71875</v>
@@ -5519,37 +5519,37 @@
         <v>320342.78125</v>
       </c>
       <c r="F5">
+        <v>331832.46875</v>
+      </c>
+      <c r="G5">
         <v>339195.21875</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>347881</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>310201.03125</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>315241.53125</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>317725.5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>312715.78125</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>216051.7073358846</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>217906.5141170374</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>217951.984375</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>216893.9255926207</v>
-      </c>
-      <c r="P5">
-        <v>361276.40625</v>
       </c>
       <c r="Q5">
         <v>-987250</v>
@@ -5572,37 +5572,37 @@
         <v>375159.875</v>
       </c>
       <c r="F6">
+        <v>327457.15625</v>
+      </c>
+      <c r="G6">
         <v>339200.875</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>359554.65625</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>372418.0625</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>384083.3125</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>362530.625</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>331855.625</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>253405.8507111223</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>249790.183399469</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>249737.390625</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P6">
-        <v>340243.875</v>
       </c>
       <c r="Q6">
         <v>-363916.625</v>
@@ -5625,37 +5625,37 @@
         <v>333766.8125</v>
       </c>
       <c r="F7">
+        <v>330144.375</v>
+      </c>
+      <c r="G7">
         <v>339198.25</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>318704.375</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>320888.8125</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>290671.40625</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>308281.34375</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>293316.34375</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>225140.8838333334</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>217403.7170137461</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>217315.03125</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>212055.5256222514</v>
-      </c>
-      <c r="P7">
-        <v>319211.40625</v>
       </c>
       <c r="Q7">
         <v>122913.2421875</v>
@@ -5678,37 +5678,37 @@
         <v>352521.75</v>
       </c>
       <c r="F8">
+        <v>361803.46875</v>
+      </c>
+      <c r="G8">
         <v>339202.5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>366837.09375</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>363419.75</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>376771.25</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>336569.75</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>347681.4375</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>271522.8541414664</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>264827.7096141074</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>257612.25</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P8">
-        <v>350849.84375</v>
       </c>
       <c r="Q8">
         <v>511392.65625</v>
@@ -5731,37 +5731,37 @@
         <v>310333.5625</v>
       </c>
       <c r="F9">
+        <v>357071.5</v>
+      </c>
+      <c r="G9">
         <v>339198.90625</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>423144.46875</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>317233.5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>340267.375</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>298821.3125</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>284527.8125</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>209040.789851892</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>208125.4253627281</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>208108.25</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>208735.8894848689</v>
-      </c>
-      <c r="P9">
-        <v>498362.53125</v>
       </c>
       <c r="Q9">
         <v>823681.375</v>
@@ -5784,37 +5784,37 @@
         <v>321776.5</v>
       </c>
       <c r="F10">
+        <v>325343.65625</v>
+      </c>
+      <c r="G10">
         <v>339196.84375</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>437528.03125</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>316248.59375</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>297988.3125</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>293949.9375</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>297541.875</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>222720.6520407648</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>223906.6925065724</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>224127.71875</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>212055.5256222514</v>
-      </c>
-      <c r="P10">
-        <v>645874.8125</v>
       </c>
       <c r="Q10">
         <v>367762.65625</v>
@@ -5837,37 +5837,37 @@
         <v>342849.5625</v>
       </c>
       <c r="F11">
+        <v>360090.46875</v>
+      </c>
+      <c r="G11">
         <v>339203.15625</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>340316.09375</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>322604.0625</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>329262.40625</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>317323.6875</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>294195.40625</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>253405.8507111223</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>249790.183399469</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>249737.390625</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P11">
-        <v>793387.3125</v>
       </c>
       <c r="Q11">
         <v>-174817.421875</v>
@@ -5890,37 +5890,37 @@
         <v>393597.1875</v>
       </c>
       <c r="F12">
+        <v>332927.96875</v>
+      </c>
+      <c r="G12">
         <v>339198.21875</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>364322.15625</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>351228.59375</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>363920.4375</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>372552.0625</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>283599.125</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>247555.2796626984</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>246990.4276719031</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>247097.953125</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>223858.5740837812</v>
-      </c>
-      <c r="P12">
-        <v>904493</v>
       </c>
       <c r="Q12">
         <v>191341.75</v>
@@ -5943,37 +5943,37 @@
         <v>283252</v>
       </c>
       <c r="F13">
+        <v>349536.34375</v>
+      </c>
+      <c r="G13">
         <v>339201.25</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>346924.9375</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>245730.8125</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>261062.5</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>220487.8125</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>216195.34375</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>210812.083151283</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>211498.2871372222</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>211467.15625</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>212467.6171733998</v>
-      </c>
-      <c r="P13">
-        <v>857837.25</v>
       </c>
       <c r="Q13">
         <v>489664.6875</v>
@@ -5996,37 +5996,37 @@
         <v>302537.4375</v>
       </c>
       <c r="F14">
+        <v>334879.0625</v>
+      </c>
+      <c r="G14">
         <v>339199.90625</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>351005.53125</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>298316.15625</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>303024.8125</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>221919</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>225370.8125</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>267728.2691335159</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>263200.6114897614</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>263289.40625</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P14">
-        <v>811181.4375</v>
       </c>
       <c r="Q14">
         <v>179002.78125</v>
@@ -6049,37 +6049,37 @@
         <v>365188.40625</v>
       </c>
       <c r="F15">
+        <v>345977.28125</v>
+      </c>
+      <c r="G15">
         <v>339202.71875</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>350827.125</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>351175.34375</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>335010.40625</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>288648.5</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>260963.90625</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>271451.1483614441</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>258721.4348835316</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>239583.375</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P15">
-        <v>764525.625</v>
       </c>
       <c r="Q15">
         <v>-579497.4375</v>
@@ -6102,37 +6102,37 @@
         <v>313367.09375</v>
       </c>
       <c r="F16">
+        <v>323807.78125</v>
+      </c>
+      <c r="G16">
         <v>339201.28125</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>395948.03125</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>298726.25</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>278884.4375</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>221370.5</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>233952.046875</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>222720.6520407648</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>223906.6925065724</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>224127.71875</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>212055.5256222514</v>
-      </c>
-      <c r="P16">
-        <v>721952.5625</v>
       </c>
       <c r="Q16">
         <v>-619271.125</v>
@@ -6155,37 +6155,37 @@
         <v>330662.875</v>
       </c>
       <c r="F17">
+        <v>321102.28125</v>
+      </c>
+      <c r="G17">
         <v>339202.375</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>389653.25</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>346305.125</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>313343</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>262014.265625</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>247956.625</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>215968.0472922648</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>211971.214082048</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>211958.640625</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>208735.8894848689</v>
-      </c>
-      <c r="P17">
-        <v>740615.875</v>
       </c>
       <c r="Q17">
         <v>224381.0625</v>
@@ -6208,37 +6208,37 @@
         <v>318513.5625</v>
       </c>
       <c r="F18">
+        <v>350126.5625</v>
+      </c>
+      <c r="G18">
         <v>339198.90625</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>329039.625</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>306202.3125</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>307796.8125</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>250663.65625</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>237356.546875</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>223617.3376479354</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>227868.7648969614</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>227698.59375</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>223858.5740837812</v>
-      </c>
-      <c r="P18">
-        <v>759279.3125</v>
       </c>
       <c r="Q18">
         <v>467425.75</v>
@@ -6261,37 +6261,37 @@
         <v>347004.125</v>
       </c>
       <c r="F19">
+        <v>338714.6875</v>
+      </c>
+      <c r="G19">
         <v>339196.59375</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>336744.125</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>347090.90625</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>301717.78125</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>254045.546875</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>245884.890625</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>241535.0506666667</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>240642.4937632841</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>270783.3125</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>223858.5740837812</v>
-      </c>
-      <c r="P19">
-        <v>777942.6875</v>
       </c>
       <c r="Q19">
         <v>173102.078125</v>
@@ -6314,37 +6314,37 @@
         <v>352597.0625</v>
       </c>
       <c r="F20">
+        <v>341578.96875</v>
+      </c>
+      <c r="G20">
         <v>339198.9375</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>418017.75</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>331746.65625</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>277084.96875</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>274275.25</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>216820.8125</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>296183.6518095238</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>295539.5524377446</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>295540.96875</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P20">
-        <v>796605.9375</v>
       </c>
       <c r="Q20">
         <v>168041.9375</v>
@@ -6367,37 +6367,37 @@
         <v>258738.09375</v>
       </c>
       <c r="F21">
+        <v>322734.1875</v>
+      </c>
+      <c r="G21">
         <v>339197.8125</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>332350.03125</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>292501.0625</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>205919.6875</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>240895.9375</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>198927.09375</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>210812.083151283</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>211498.2871372222</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>211467.15625</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>212467.6171733998</v>
-      </c>
-      <c r="P21">
-        <v>2514864</v>
       </c>
       <c r="Q21">
         <v>1315491.875</v>
@@ -6420,37 +6420,37 @@
         <v>322472.3125</v>
       </c>
       <c r="F22">
+        <v>349378.375</v>
+      </c>
+      <c r="G22">
         <v>339197</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>434452.8125</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>324848.65625</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>269718.21875</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>247555.578125</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>235636.8125</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>267728.2691335159</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>263200.6114897614</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>263289.40625</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P22">
-        <v>4346425</v>
       </c>
       <c r="Q22">
         <v>96333.5625</v>
@@ -6473,37 +6473,37 @@
         <v>351460.6875</v>
       </c>
       <c r="F23">
+        <v>326244.21875</v>
+      </c>
+      <c r="G23">
         <v>339198.6875</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>308612.8125</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>334556.125</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>291937.6875</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>261754.453125</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>236134.953125</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>280604.8298333333</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>289582.4081267546</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>289712.90625</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P23">
-        <v>6177989</v>
       </c>
       <c r="Q23">
         <v>98910.9921875</v>
@@ -6526,37 +6526,37 @@
         <v>251999.859375</v>
       </c>
       <c r="F24">
+        <v>319537.1875</v>
+      </c>
+      <c r="G24">
         <v>339200.40625</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>369192.4375</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>234887.5</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>188519.5</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>204282.6875</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>183598.28125</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>210812.083151283</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>211498.2871372222</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>211467.15625</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>212467.6171733998</v>
-      </c>
-      <c r="P24">
-        <v>8009549</v>
       </c>
       <c r="Q24">
         <v>187395.359375</v>
@@ -6579,37 +6579,37 @@
         <v>237659.046875</v>
       </c>
       <c r="F25">
+        <v>340123.78125</v>
+      </c>
+      <c r="G25">
         <v>339198.4375</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>430620.5625</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>261125.484375</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>210092.4375</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>215381.765625</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>220769.703125</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>223617.3376479354</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>227868.7648969614</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>227698.59375</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>223858.5740837812</v>
-      </c>
-      <c r="P25">
-        <v>8417452</v>
       </c>
       <c r="Q25">
         <v>-279479.0625</v>
@@ -6632,37 +6632,37 @@
         <v>291326.125</v>
       </c>
       <c r="F26">
+        <v>347634.4375</v>
+      </c>
+      <c r="G26">
         <v>339202.03125</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>390762.375</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>295373.25</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>259795.53125</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>216976.8125</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>231228.375</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>209040.789851892</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>208125.4253627281</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>208108.25</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>208735.8894848689</v>
-      </c>
-      <c r="P26">
-        <v>8496822</v>
       </c>
       <c r="Q26">
         <v>808144.25</v>
@@ -6685,37 +6685,37 @@
         <v>290016.75</v>
       </c>
       <c r="F27">
+        <v>323011.625</v>
+      </c>
+      <c r="G27">
         <v>339200.375</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>505891.5625</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>302173.6875</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>244365.015625</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>248535.84375</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>234938.734375</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>240847.9580396826</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>231648.6329753432</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>270783.5</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>223858.5740837812</v>
-      </c>
-      <c r="P27">
-        <v>8576192</v>
       </c>
       <c r="Q27">
         <v>1616163.125</v>
@@ -6738,37 +6738,37 @@
         <v>236532.375</v>
       </c>
       <c r="F28">
+        <v>336247.625</v>
+      </c>
+      <c r="G28">
         <v>339203.78125</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>359464.34375</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>206346.234375</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>225110.375</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>223246.65625</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>203634.65625</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>216051.7073358846</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>217906.5141170374</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>217951.984375</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>216893.9255926207</v>
-      </c>
-      <c r="P28">
-        <v>8655562</v>
       </c>
       <c r="Q28">
         <v>1905339.125</v>
@@ -6791,37 +6791,37 @@
         <v>275493.90625</v>
       </c>
       <c r="F29">
+        <v>330459.15625</v>
+      </c>
+      <c r="G29">
         <v>339200.46875</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>455388.125</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>242025.015625</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>230993.96875</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>262128.90625</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>244865.828125</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>215968.0472922648</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>211971.214082048</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>211958.640625</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>208735.8894848689</v>
-      </c>
-      <c r="P29">
-        <v>8754667</v>
       </c>
       <c r="Q29">
         <v>1744118.5</v>
@@ -6844,37 +6844,37 @@
         <v>262783.25</v>
       </c>
       <c r="F30">
+        <v>318698.4375</v>
+      </c>
+      <c r="G30">
         <v>339201.0625</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>462416.0625</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>228421.96875</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>254024.234375</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>225231.921875</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>233289.765625</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>210812.083151283</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>211498.2871372222</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>211467.15625</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>212467.6171733998</v>
-      </c>
-      <c r="P30">
-        <v>8862744</v>
       </c>
       <c r="Q30">
         <v>2541016</v>
@@ -6897,37 +6897,37 @@
         <v>282850.8125</v>
       </c>
       <c r="F31">
+        <v>348161.25</v>
+      </c>
+      <c r="G31">
         <v>339200.375</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>369901.65625</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>247014.546875</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>249576.875</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>262889.3125</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>262436.21875</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>209040.789851892</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>208125.4253627281</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>208108.25</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>208735.8894848689</v>
-      </c>
-      <c r="P31">
-        <v>8970820</v>
       </c>
       <c r="Q31">
         <v>2499646.25</v>
@@ -6950,37 +6950,37 @@
         <v>239532.859375</v>
       </c>
       <c r="F32">
+        <v>355763.875</v>
+      </c>
+      <c r="G32">
         <v>339197.5625</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>406140.96875</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>217911.90625</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>258863.890625</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>252645.640625</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>222327.796875</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>244843.5033452381</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>223408.7290132949</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>239583.03125</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P32">
-        <v>9078896</v>
       </c>
       <c r="Q32">
         <v>14808210</v>
@@ -7003,37 +7003,37 @@
         <v>239107.65625</v>
       </c>
       <c r="F33">
+        <v>342165.1875</v>
+      </c>
+      <c r="G33">
         <v>339204.0625</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>317802.46875</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>222569.421875</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>242144.484375</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>239034.046875</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>234027.796875</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>210812.083151283</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>211498.2871372222</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>211467.15625</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>212467.6171733998</v>
-      </c>
-      <c r="P33">
-        <v>9126179</v>
       </c>
       <c r="Q33">
         <v>24815056</v>
@@ -7056,37 +7056,37 @@
         <v>308591.59375</v>
       </c>
       <c r="F34">
+        <v>360733.8125</v>
+      </c>
+      <c r="G34">
         <v>339233.84375</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>343485.28125</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>293013</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>331627.8125</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>328910.25</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>329448.96875</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>253405.8507111223</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>249790.183399469</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>249737.390625</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>260043.5468834724</v>
-      </c>
-      <c r="P34">
-        <v>9126179</v>
       </c>
       <c r="Q34">
         <v>59401912</v>
